--- a/SimulationStudyData/Model2/SimCase9_Yobs_SimRun3.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_Yobs_SimRun3.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-4.98557570061945</v>
+        <v>9.7901509674969</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.19314148582849</v>
+        <v>10.5218729335511</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.97855513414723</v>
+        <v>11.0086570216156</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.59230889971365</v>
+        <v>12.2261009609484</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.88274406062886</v>
+        <v>12.0104915958656</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.38439661376247</v>
+        <v>13.4773852737215</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.851919927207269</v>
+        <v>13.7534814975324</v>
       </c>
       <c r="H2" t="n">
-        <v>1.10818619675064</v>
+        <v>11.6660959164057</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75555660268808</v>
+        <v>11.2939212365299</v>
       </c>
       <c r="J2" t="n">
-        <v>6.41251290603785</v>
+        <v>10.8166129501504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.3955784747069</v>
+        <v>9.40057425595401</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4637153926273</v>
+        <v>10.0122175474632</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6027643993359</v>
+        <v>12.6534480626149</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5651894196783</v>
+        <v>12.3479242896179</v>
       </c>
       <c r="E3" t="n">
-        <v>12.404256376515</v>
+        <v>12.9386556466066</v>
       </c>
       <c r="F3" t="n">
-        <v>12.4452470907269</v>
+        <v>11.9273767801556</v>
       </c>
       <c r="G3" t="n">
-        <v>13.5638066341139</v>
+        <v>11.9963497756105</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5179566626634</v>
+        <v>11.6007407110233</v>
       </c>
       <c r="I3" t="n">
-        <v>11.4241110072205</v>
+        <v>10.8781387699191</v>
       </c>
       <c r="J3" t="n">
-        <v>10.7686929342383</v>
+        <v>10.8016887608754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.2954855422833</v>
+        <v>10.1867830447815</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9129814636981</v>
+        <v>10.5637313322831</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9453499016372</v>
+        <v>10.1517675668357</v>
       </c>
       <c r="D4" t="n">
-        <v>11.716288651586</v>
+        <v>13.4018494647441</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5602087785968</v>
+        <v>11.1862131688486</v>
       </c>
       <c r="F4" t="n">
-        <v>13.080274100742</v>
+        <v>11.5225279604212</v>
       </c>
       <c r="G4" t="n">
-        <v>12.4147862563428</v>
+        <v>11.7467208247062</v>
       </c>
       <c r="H4" t="n">
-        <v>12.7537692538638</v>
+        <v>11.578788250234</v>
       </c>
       <c r="I4" t="n">
-        <v>13.1997361051076</v>
+        <v>11.2121185637248</v>
       </c>
       <c r="J4" t="n">
-        <v>12.7851091853989</v>
+        <v>11.3073436982107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.91840659228521</v>
+        <v>-5.3745483551257</v>
       </c>
       <c r="B5" t="n">
-        <v>11.8912658505506</v>
+        <v>-5.3505033402104</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8266326554396</v>
+        <v>-5.17982186916487</v>
       </c>
       <c r="D5" t="n">
-        <v>11.0791046442259</v>
+        <v>-4.77382710091237</v>
       </c>
       <c r="E5" t="n">
-        <v>12.0219505518054</v>
+        <v>-4.04262850947599</v>
       </c>
       <c r="F5" t="n">
-        <v>13.2070327439355</v>
+        <v>-2.67739535774736</v>
       </c>
       <c r="G5" t="n">
-        <v>11.8967936125225</v>
+        <v>-1.41812145221975</v>
       </c>
       <c r="H5" t="n">
-        <v>11.5314403645901</v>
+        <v>1.15126599410792</v>
       </c>
       <c r="I5" t="n">
-        <v>10.6711654237289</v>
+        <v>3.51420734281869</v>
       </c>
       <c r="J5" t="n">
-        <v>11.6906949753804</v>
+        <v>6.7600316229909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.11558939939366</v>
+        <v>-5.51428898954206</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.17047402845416</v>
+        <v>-5.46504049073097</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.31796574113916</v>
+        <v>-5.35551939209089</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.75791850645422</v>
+        <v>-4.74396063406468</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.00541676496217</v>
+        <v>-4.1555852349085</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.6805253672526</v>
+        <v>-2.95922520217141</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.94437873139759</v>
+        <v>-0.819193245896783</v>
       </c>
       <c r="H6" t="n">
-        <v>1.59853650817784</v>
+        <v>1.7612560478848</v>
       </c>
       <c r="I6" t="n">
-        <v>3.92553894432708</v>
+        <v>3.56121849147007</v>
       </c>
       <c r="J6" t="n">
-        <v>6.39132522005324</v>
+        <v>6.70379477570992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.0482231473342</v>
+        <v>10.7310182483586</v>
       </c>
       <c r="B7" t="n">
-        <v>12.2438388244992</v>
+        <v>10.8293492947924</v>
       </c>
       <c r="C7" t="n">
-        <v>11.0587660722098</v>
+        <v>10.2656178799447</v>
       </c>
       <c r="D7" t="n">
-        <v>11.645191524923</v>
+        <v>12.3853835943186</v>
       </c>
       <c r="E7" t="n">
-        <v>11.7982849988719</v>
+        <v>12.9785414406381</v>
       </c>
       <c r="F7" t="n">
-        <v>13.4019688894517</v>
+        <v>11.808922258408</v>
       </c>
       <c r="G7" t="n">
-        <v>11.9804325698098</v>
+        <v>11.3050506177412</v>
       </c>
       <c r="H7" t="n">
-        <v>12.5925269576011</v>
+        <v>11.6123781881188</v>
       </c>
       <c r="I7" t="n">
-        <v>11.7002187399113</v>
+        <v>11.909123442225</v>
       </c>
       <c r="J7" t="n">
-        <v>10.2716978761578</v>
+        <v>10.1476757252546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.966143994185</v>
+        <v>9.49094733501386</v>
       </c>
       <c r="B8" t="n">
-        <v>11.5851713731999</v>
+        <v>10.3798419647219</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5011253030395</v>
+        <v>12.4441683387313</v>
       </c>
       <c r="D8" t="n">
-        <v>12.7042901597974</v>
+        <v>12.0318776677165</v>
       </c>
       <c r="E8" t="n">
-        <v>11.9255171948812</v>
+        <v>12.3270292947384</v>
       </c>
       <c r="F8" t="n">
-        <v>11.9254503600288</v>
+        <v>11.8439073217579</v>
       </c>
       <c r="G8" t="n">
-        <v>12.8297350398048</v>
+        <v>12.4908681323243</v>
       </c>
       <c r="H8" t="n">
-        <v>12.4394038407126</v>
+        <v>11.7773824779692</v>
       </c>
       <c r="I8" t="n">
-        <v>11.9278789921154</v>
+        <v>11.2232861539713</v>
       </c>
       <c r="J8" t="n">
-        <v>10.8654657493488</v>
+        <v>9.95552067954624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.12514653230312</v>
+        <v>10.51853321135</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.41719061820555</v>
+        <v>10.2185720521176</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.18400084532212</v>
+        <v>12.3567375036546</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.89063646931265</v>
+        <v>12.7898849375918</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.59216248150083</v>
+        <v>12.5419837228765</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.14954764385616</v>
+        <v>12.7376572272091</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.02976914278528</v>
+        <v>11.8857179781685</v>
       </c>
       <c r="H9" t="n">
-        <v>1.16308434265786</v>
+        <v>13.2615729530437</v>
       </c>
       <c r="I9" t="n">
-        <v>3.33013674946489</v>
+        <v>11.6962859651165</v>
       </c>
       <c r="J9" t="n">
-        <v>7.30218698300236</v>
+        <v>11.9659723599934</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.07811216659807</v>
+        <v>10.3269656782612</v>
       </c>
       <c r="B10" t="n">
-        <v>11.2521819581806</v>
+        <v>10.0734299646666</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9797794051395</v>
+        <v>11.3437932044723</v>
       </c>
       <c r="D10" t="n">
-        <v>10.8192372344022</v>
+        <v>12.2123050651087</v>
       </c>
       <c r="E10" t="n">
-        <v>11.3650800515885</v>
+        <v>12.9211572064745</v>
       </c>
       <c r="F10" t="n">
-        <v>14.1604198812442</v>
+        <v>13.3742980290909</v>
       </c>
       <c r="G10" t="n">
-        <v>11.4491352286055</v>
+        <v>12.5215501857765</v>
       </c>
       <c r="H10" t="n">
-        <v>11.7834827425913</v>
+        <v>11.6080074449801</v>
       </c>
       <c r="I10" t="n">
-        <v>9.72470724501883</v>
+        <v>12.013391755385</v>
       </c>
       <c r="J10" t="n">
-        <v>10.935920591832</v>
+        <v>10.1281700964631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.72491705069107</v>
+        <v>10.535528899825</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.07143406897714</v>
+        <v>10.6622895987217</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.08294585015711</v>
+        <v>12.0081373890115</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.55858105928505</v>
+        <v>12.1527884698359</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.0127958704447</v>
+        <v>12.3851598697394</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.43800189398838</v>
+        <v>12.7971946018032</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.979277343147354</v>
+        <v>11.3183346158598</v>
       </c>
       <c r="H11" t="n">
-        <v>1.3306102750576</v>
+        <v>11.3897082350326</v>
       </c>
       <c r="I11" t="n">
-        <v>4.03901406959498</v>
+        <v>11.9432276066577</v>
       </c>
       <c r="J11" t="n">
-        <v>6.47628573844455</v>
+        <v>10.7981211422099</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.9679898576975</v>
+        <v>12.2217788223052</v>
       </c>
       <c r="B12" t="n">
-        <v>11.1318254218315</v>
+        <v>11.2768586846048</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0031962434593</v>
+        <v>11.3555609980644</v>
       </c>
       <c r="D12" t="n">
-        <v>13.0755396092828</v>
+        <v>11.7527070600899</v>
       </c>
       <c r="E12" t="n">
-        <v>12.5421508499106</v>
+        <v>11.8077860778188</v>
       </c>
       <c r="F12" t="n">
-        <v>11.515688993533</v>
+        <v>12.3732145578896</v>
       </c>
       <c r="G12" t="n">
-        <v>11.9318185768743</v>
+        <v>12.7040971613714</v>
       </c>
       <c r="H12" t="n">
-        <v>10.7268611928658</v>
+        <v>12.6445772062901</v>
       </c>
       <c r="I12" t="n">
-        <v>11.588116605568</v>
+        <v>12.2503224536271</v>
       </c>
       <c r="J12" t="n">
-        <v>9.94346794217153</v>
+        <v>10.7660649783079</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.35170129128448</v>
+        <v>9.51068981751289</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2800432699915</v>
+        <v>10.7229541173674</v>
       </c>
       <c r="C13" t="n">
-        <v>11.13415149539</v>
+        <v>10.8474408720971</v>
       </c>
       <c r="D13" t="n">
-        <v>11.2014146200216</v>
+        <v>11.4985982477585</v>
       </c>
       <c r="E13" t="n">
-        <v>11.8986853341482</v>
+        <v>12.4534952594866</v>
       </c>
       <c r="F13" t="n">
-        <v>11.7204701537292</v>
+        <v>13.1629321027638</v>
       </c>
       <c r="G13" t="n">
-        <v>13.2212148641266</v>
+        <v>10.7428579466757</v>
       </c>
       <c r="H13" t="n">
-        <v>12.4508744343681</v>
+        <v>11.3530135285001</v>
       </c>
       <c r="I13" t="n">
-        <v>11.046771480459</v>
+        <v>12.2289575779629</v>
       </c>
       <c r="J13" t="n">
-        <v>11.4284314248987</v>
+        <v>9.8186253346775</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.4097205837251</v>
+        <v>-5.41543803047517</v>
       </c>
       <c r="B14" t="n">
-        <v>10.2388183942054</v>
+        <v>-5.34772338989178</v>
       </c>
       <c r="C14" t="n">
-        <v>12.5773178959717</v>
+        <v>-5.77050086284732</v>
       </c>
       <c r="D14" t="n">
-        <v>12.5221391684633</v>
+        <v>-4.35646670098857</v>
       </c>
       <c r="E14" t="n">
-        <v>11.9609432861162</v>
+        <v>-3.94726752491269</v>
       </c>
       <c r="F14" t="n">
-        <v>12.3365437238248</v>
+        <v>-2.58363227936414</v>
       </c>
       <c r="G14" t="n">
-        <v>12.2540430653117</v>
+        <v>-1.21656131464059</v>
       </c>
       <c r="H14" t="n">
-        <v>12.0783526197929</v>
+        <v>0.862492353695528</v>
       </c>
       <c r="I14" t="n">
-        <v>11.964358536201</v>
+        <v>3.74461408482647</v>
       </c>
       <c r="J14" t="n">
-        <v>10.2621231324214</v>
+        <v>6.80381312198916</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.2065909026324</v>
+        <v>9.6794624370741</v>
       </c>
       <c r="B15" t="n">
-        <v>10.5380515273154</v>
+        <v>11.1979294629728</v>
       </c>
       <c r="C15" t="n">
-        <v>11.2137429610047</v>
+        <v>13.0039906607894</v>
       </c>
       <c r="D15" t="n">
-        <v>11.2877464269281</v>
+        <v>11.6596895857597</v>
       </c>
       <c r="E15" t="n">
-        <v>12.5420814383077</v>
+        <v>13.3082555830502</v>
       </c>
       <c r="F15" t="n">
-        <v>11.1955966491994</v>
+        <v>12.8101422562787</v>
       </c>
       <c r="G15" t="n">
-        <v>13.0656849512591</v>
+        <v>12.8043217043487</v>
       </c>
       <c r="H15" t="n">
-        <v>12.2462138270542</v>
+        <v>11.6244603991452</v>
       </c>
       <c r="I15" t="n">
-        <v>11.5535093268119</v>
+        <v>10.4729744240553</v>
       </c>
       <c r="J15" t="n">
-        <v>11.503477815085</v>
+        <v>11.6085821390828</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.82440300759417</v>
+        <v>9.84609293721789</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.22851550742393</v>
+        <v>10.797705311935</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.31423067035545</v>
+        <v>12.6732686446704</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.08863765365665</v>
+        <v>12.3709660750532</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.68438952346141</v>
+        <v>12.1175829178853</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.5322294117326</v>
+        <v>12.8706081262008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.762122612564919</v>
+        <v>13.9159529921026</v>
       </c>
       <c r="H16" t="n">
-        <v>1.18081524255458</v>
+        <v>11.8031220118778</v>
       </c>
       <c r="I16" t="n">
-        <v>3.83055607025107</v>
+        <v>12.7844657706724</v>
       </c>
       <c r="J16" t="n">
-        <v>6.66035291939941</v>
+        <v>10.0469640207207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.71404731898365</v>
+        <v>10.5667452539543</v>
       </c>
       <c r="B17" t="n">
-        <v>9.54666455106636</v>
+        <v>9.14991421328212</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5510379405319</v>
+        <v>10.7628026044861</v>
       </c>
       <c r="D17" t="n">
-        <v>11.4406650604326</v>
+        <v>11.9650768490388</v>
       </c>
       <c r="E17" t="n">
-        <v>12.0599857184491</v>
+        <v>13.8358794493587</v>
       </c>
       <c r="F17" t="n">
-        <v>11.8784750022857</v>
+        <v>11.2919173512501</v>
       </c>
       <c r="G17" t="n">
-        <v>13.7420532977773</v>
+        <v>12.1301845781745</v>
       </c>
       <c r="H17" t="n">
-        <v>12.2895706373579</v>
+        <v>11.5211580709405</v>
       </c>
       <c r="I17" t="n">
-        <v>12.1970811295455</v>
+        <v>11.0617150813592</v>
       </c>
       <c r="J17" t="n">
-        <v>11.2451136012684</v>
+        <v>10.8672921495394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.75267487468904</v>
+        <v>-5.23098640465716</v>
       </c>
       <c r="B18" t="n">
-        <v>11.407075567033</v>
+        <v>-5.43316821863184</v>
       </c>
       <c r="C18" t="n">
-        <v>11.4014382307477</v>
+        <v>-5.50243998988509</v>
       </c>
       <c r="D18" t="n">
-        <v>11.6636995177493</v>
+        <v>-5.18961910384809</v>
       </c>
       <c r="E18" t="n">
-        <v>13.684279855506</v>
+        <v>-3.64131906128988</v>
       </c>
       <c r="F18" t="n">
-        <v>12.3901269369854</v>
+        <v>-3.11494794044174</v>
       </c>
       <c r="G18" t="n">
-        <v>12.4161505937493</v>
+        <v>-0.793608156625468</v>
       </c>
       <c r="H18" t="n">
-        <v>12.1760758327725</v>
+        <v>1.37009158431088</v>
       </c>
       <c r="I18" t="n">
-        <v>11.5973414542607</v>
+        <v>3.58536743201871</v>
       </c>
       <c r="J18" t="n">
-        <v>10.1705668347435</v>
+        <v>6.38607302116091</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.153876870681</v>
+        <v>10.4302693124736</v>
       </c>
       <c r="B19" t="n">
-        <v>10.3194797042286</v>
+        <v>10.5019332628194</v>
       </c>
       <c r="C19" t="n">
-        <v>11.0478512430071</v>
+        <v>11.2689266719944</v>
       </c>
       <c r="D19" t="n">
-        <v>11.6473725826115</v>
+        <v>12.5486331174962</v>
       </c>
       <c r="E19" t="n">
-        <v>13.0141680348556</v>
+        <v>13.1996416301408</v>
       </c>
       <c r="F19" t="n">
-        <v>11.6428282200803</v>
+        <v>12.3787504279258</v>
       </c>
       <c r="G19" t="n">
-        <v>13.0142651093571</v>
+        <v>12.7736569095578</v>
       </c>
       <c r="H19" t="n">
-        <v>12.0430797664802</v>
+        <v>11.9226929367263</v>
       </c>
       <c r="I19" t="n">
-        <v>10.9595080140689</v>
+        <v>11.0534424351627</v>
       </c>
       <c r="J19" t="n">
-        <v>13.6224374091238</v>
+        <v>10.0580697172781</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.58848871576938</v>
+        <v>-4.81544079786949</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.10691483057437</v>
+        <v>-4.99039899608927</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.27401647295342</v>
+        <v>-5.2620520338178</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.36522436519152</v>
+        <v>-4.41225203574148</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.77644659419573</v>
+        <v>-4.03572842508499</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.68770173249892</v>
+        <v>-2.09869703662108</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.962089784677589</v>
+        <v>-0.315041788369414</v>
       </c>
       <c r="H20" t="n">
-        <v>1.46098375656628</v>
+        <v>1.10597862622519</v>
       </c>
       <c r="I20" t="n">
-        <v>4.02059504760128</v>
+        <v>3.77513667014917</v>
       </c>
       <c r="J20" t="n">
-        <v>6.52471941394417</v>
+        <v>6.55939616846325</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11.1525925413736</v>
+        <v>-5.0597083636692</v>
       </c>
       <c r="B21" t="n">
-        <v>10.8720334761512</v>
+        <v>-4.9206663681907</v>
       </c>
       <c r="C21" t="n">
-        <v>12.9679147843496</v>
+        <v>-5.03094662144498</v>
       </c>
       <c r="D21" t="n">
-        <v>11.4192718453277</v>
+        <v>-5.02192798074609</v>
       </c>
       <c r="E21" t="n">
-        <v>12.5402627190853</v>
+        <v>-3.39530305807546</v>
       </c>
       <c r="F21" t="n">
-        <v>11.9390735007162</v>
+        <v>-2.46996575888884</v>
       </c>
       <c r="G21" t="n">
-        <v>11.5218036691426</v>
+        <v>-1.03008116890741</v>
       </c>
       <c r="H21" t="n">
-        <v>13.0103859959546</v>
+        <v>1.47019133410273</v>
       </c>
       <c r="I21" t="n">
-        <v>11.2740675547211</v>
+        <v>3.50294833084677</v>
       </c>
       <c r="J21" t="n">
-        <v>10.3720456996547</v>
+        <v>6.45467321249226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-4.93503830925327</v>
+        <v>10.6802624792146</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.38526504190758</v>
+        <v>10.7148570413063</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.92449396255459</v>
+        <v>12.3138206610246</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.00439289020112</v>
+        <v>13.1226170149519</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.93626169245169</v>
+        <v>12.7078418325473</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.6243543741512</v>
+        <v>11.7981062283625</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.22376590865141</v>
+        <v>12.9973597931521</v>
       </c>
       <c r="H22" t="n">
-        <v>1.54470977056881</v>
+        <v>11.8065306475045</v>
       </c>
       <c r="I22" t="n">
-        <v>4.0413575908889</v>
+        <v>11.2094422929572</v>
       </c>
       <c r="J22" t="n">
-        <v>6.54884718001993</v>
+        <v>11.3880495019597</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.51255248913326</v>
+        <v>10.521370144093</v>
       </c>
       <c r="B23" t="n">
-        <v>10.1998193052786</v>
+        <v>11.6916193487599</v>
       </c>
       <c r="C23" t="n">
-        <v>10.5653097231355</v>
+        <v>11.1938546071575</v>
       </c>
       <c r="D23" t="n">
-        <v>12.2802354999224</v>
+        <v>11.853415455434</v>
       </c>
       <c r="E23" t="n">
-        <v>12.3014508552407</v>
+        <v>13.5725740207602</v>
       </c>
       <c r="F23" t="n">
-        <v>12.87005445874</v>
+        <v>12.5611910365718</v>
       </c>
       <c r="G23" t="n">
-        <v>11.3309084411504</v>
+        <v>12.6707896759519</v>
       </c>
       <c r="H23" t="n">
-        <v>11.930289911694</v>
+        <v>10.843708762574</v>
       </c>
       <c r="I23" t="n">
-        <v>8.8645138204237</v>
+        <v>12.1500904161108</v>
       </c>
       <c r="J23" t="n">
-        <v>10.6689503283436</v>
+        <v>10.8081033888388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.007458805415</v>
+        <v>9.22362072394115</v>
       </c>
       <c r="B24" t="n">
-        <v>11.3388610946743</v>
+        <v>11.9043301758461</v>
       </c>
       <c r="C24" t="n">
-        <v>12.1823432602183</v>
+        <v>11.8468137854814</v>
       </c>
       <c r="D24" t="n">
-        <v>12.9589939288541</v>
+        <v>11.9320384662863</v>
       </c>
       <c r="E24" t="n">
-        <v>12.8570887656205</v>
+        <v>12.9733573500095</v>
       </c>
       <c r="F24" t="n">
-        <v>11.656988492635</v>
+        <v>11.7834029865955</v>
       </c>
       <c r="G24" t="n">
-        <v>11.7852650019878</v>
+        <v>12.7276958973215</v>
       </c>
       <c r="H24" t="n">
-        <v>12.1317454795609</v>
+        <v>11.9886135522484</v>
       </c>
       <c r="I24" t="n">
-        <v>12.0622194607438</v>
+        <v>10.5756815331965</v>
       </c>
       <c r="J24" t="n">
-        <v>11.4457642297598</v>
+        <v>10.3603889884217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.5313169039709</v>
+        <v>-5.11201354018556</v>
       </c>
       <c r="B25" t="n">
-        <v>11.270990932279</v>
+        <v>-4.9057697883634</v>
       </c>
       <c r="C25" t="n">
-        <v>10.8839560430322</v>
+        <v>-5.84763610926163</v>
       </c>
       <c r="D25" t="n">
-        <v>11.8996012891595</v>
+        <v>-4.90715941304889</v>
       </c>
       <c r="E25" t="n">
-        <v>12.4330465411538</v>
+        <v>-3.84248634383757</v>
       </c>
       <c r="F25" t="n">
-        <v>14.0081317930116</v>
+        <v>-2.47160664216074</v>
       </c>
       <c r="G25" t="n">
-        <v>11.9367610345349</v>
+        <v>-0.746457851538289</v>
       </c>
       <c r="H25" t="n">
-        <v>12.3256500782518</v>
+        <v>1.87751273021055</v>
       </c>
       <c r="I25" t="n">
-        <v>11.6197665586853</v>
+        <v>3.05940319243079</v>
       </c>
       <c r="J25" t="n">
-        <v>12.3120086729067</v>
+        <v>6.87524447190334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.2179641379238</v>
+        <v>-4.94841861075756</v>
       </c>
       <c r="B26" t="n">
-        <v>10.8838920369115</v>
+        <v>-5.46326807678086</v>
       </c>
       <c r="C26" t="n">
-        <v>13.277166367211</v>
+        <v>-5.03726700710216</v>
       </c>
       <c r="D26" t="n">
-        <v>12.3431415824891</v>
+        <v>-4.9108225461002</v>
       </c>
       <c r="E26" t="n">
-        <v>11.0185838084355</v>
+        <v>-3.39069482639838</v>
       </c>
       <c r="F26" t="n">
-        <v>13.6802734062875</v>
+        <v>-2.25212340849639</v>
       </c>
       <c r="G26" t="n">
-        <v>13.1123469293007</v>
+        <v>-0.679545929586554</v>
       </c>
       <c r="H26" t="n">
-        <v>12.1040300903454</v>
+        <v>1.26665471925105</v>
       </c>
       <c r="I26" t="n">
-        <v>11.4166966415265</v>
+        <v>3.80977463063153</v>
       </c>
       <c r="J26" t="n">
-        <v>11.1752848294956</v>
+        <v>7.18320977261965</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.46962476660604</v>
+        <v>-5.24468828792586</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.00714345998124</v>
+        <v>-4.84825584801636</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.28171257927818</v>
+        <v>-5.14028055417949</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.92823919988334</v>
+        <v>-4.53423261401235</v>
       </c>
       <c r="E27" t="n">
-        <v>-3.92546813706495</v>
+        <v>-3.71076054418961</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.19865326496382</v>
+        <v>-2.81033979496418</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.712579053522604</v>
+        <v>-0.679352555569839</v>
       </c>
       <c r="H27" t="n">
-        <v>0.985045391648816</v>
+        <v>1.20252757616487</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6858107551997</v>
+        <v>3.75481232980725</v>
       </c>
       <c r="J27" t="n">
-        <v>6.92279716623768</v>
+        <v>6.57236203999155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-4.89325560414407</v>
+        <v>10.2720410486026</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.15204278088627</v>
+        <v>10.8481655177953</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.876403099184</v>
+        <v>11.1173458243147</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.8744597904621</v>
+        <v>12.9746747278389</v>
       </c>
       <c r="E28" t="n">
-        <v>-4.07328796452245</v>
+        <v>12.2853564933412</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.09636171946061</v>
+        <v>11.7595390804832</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.13316109234066</v>
+        <v>12.9581231142895</v>
       </c>
       <c r="H28" t="n">
-        <v>1.45673108992331</v>
+        <v>11.9843797384295</v>
       </c>
       <c r="I28" t="n">
-        <v>3.66027955680828</v>
+        <v>11.2282062129869</v>
       </c>
       <c r="J28" t="n">
-        <v>7.05126690909266</v>
+        <v>9.42908500770924</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.8824319575034</v>
+        <v>-5.17253576506514</v>
       </c>
       <c r="B29" t="n">
-        <v>10.794312065429</v>
+        <v>-4.97878256158842</v>
       </c>
       <c r="C29" t="n">
-        <v>11.942071253071</v>
+        <v>-5.52871833874876</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3641819948883</v>
+        <v>-4.49399994040949</v>
       </c>
       <c r="E29" t="n">
-        <v>11.7750141937448</v>
+        <v>-3.78230363634941</v>
       </c>
       <c r="F29" t="n">
-        <v>13.0757332818578</v>
+        <v>-1.90483593147547</v>
       </c>
       <c r="G29" t="n">
-        <v>13.8043608931174</v>
+        <v>-0.722084638651696</v>
       </c>
       <c r="H29" t="n">
-        <v>13.3918916483162</v>
+        <v>1.40743198690696</v>
       </c>
       <c r="I29" t="n">
-        <v>10.6163429385207</v>
+        <v>3.94738751255114</v>
       </c>
       <c r="J29" t="n">
-        <v>9.05929425515907</v>
+        <v>6.79143592259169</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.6059492581788</v>
+        <v>8.80200654872409</v>
       </c>
       <c r="B30" t="n">
-        <v>11.2164728137795</v>
+        <v>10.6698792989228</v>
       </c>
       <c r="C30" t="n">
-        <v>13.3550345031093</v>
+        <v>11.9293851384717</v>
       </c>
       <c r="D30" t="n">
-        <v>11.4775980333015</v>
+        <v>11.5303088315494</v>
       </c>
       <c r="E30" t="n">
-        <v>12.6174441627927</v>
+        <v>12.4940554803241</v>
       </c>
       <c r="F30" t="n">
-        <v>11.4502283159887</v>
+        <v>12.3601654440631</v>
       </c>
       <c r="G30" t="n">
-        <v>12.5959784081241</v>
+        <v>12.5561089524438</v>
       </c>
       <c r="H30" t="n">
-        <v>12.010505212568</v>
+        <v>12.0157622947655</v>
       </c>
       <c r="I30" t="n">
-        <v>11.0596987440759</v>
+        <v>11.90017928241</v>
       </c>
       <c r="J30" t="n">
-        <v>10.8353157005595</v>
+        <v>11.3807750300118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.8184650513834</v>
+        <v>11.7191185451571</v>
       </c>
       <c r="B31" t="n">
-        <v>11.0875480922173</v>
+        <v>11.4955165129041</v>
       </c>
       <c r="C31" t="n">
-        <v>13.0333037831275</v>
+        <v>12.4750458297622</v>
       </c>
       <c r="D31" t="n">
-        <v>11.4866665342827</v>
+        <v>12.349115892987</v>
       </c>
       <c r="E31" t="n">
-        <v>12.6082511101994</v>
+        <v>10.7999817927864</v>
       </c>
       <c r="F31" t="n">
-        <v>12.9960186541252</v>
+        <v>11.8256113640432</v>
       </c>
       <c r="G31" t="n">
-        <v>12.3613412603131</v>
+        <v>12.1946696682832</v>
       </c>
       <c r="H31" t="n">
-        <v>12.3186112102729</v>
+        <v>12.0119872763398</v>
       </c>
       <c r="I31" t="n">
-        <v>11.3091978288642</v>
+        <v>11.4123070355357</v>
       </c>
       <c r="J31" t="n">
-        <v>11.0066735342903</v>
+        <v>10.805338288054</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.61465075013008</v>
+        <v>-5.16707771539533</v>
       </c>
       <c r="B32" t="n">
-        <v>10.3694259349278</v>
+        <v>-5.06443764710633</v>
       </c>
       <c r="C32" t="n">
-        <v>12.0287304540499</v>
+        <v>-5.6717622767633</v>
       </c>
       <c r="D32" t="n">
-        <v>13.3998320547015</v>
+        <v>-4.67337133593135</v>
       </c>
       <c r="E32" t="n">
-        <v>11.4524218811966</v>
+        <v>-3.33606723455987</v>
       </c>
       <c r="F32" t="n">
-        <v>12.6918280560348</v>
+        <v>-2.47039898977775</v>
       </c>
       <c r="G32" t="n">
-        <v>12.0072509474595</v>
+        <v>-0.513915615190766</v>
       </c>
       <c r="H32" t="n">
-        <v>12.6399774947666</v>
+        <v>1.00970816926666</v>
       </c>
       <c r="I32" t="n">
-        <v>12.4776458166922</v>
+        <v>3.45069823770668</v>
       </c>
       <c r="J32" t="n">
-        <v>10.0992747499405</v>
+        <v>6.4250329748103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.9369651283876</v>
+        <v>-5.04441650231461</v>
       </c>
       <c r="B33" t="n">
-        <v>12.0683890695841</v>
+        <v>-5.37187779440919</v>
       </c>
       <c r="C33" t="n">
-        <v>12.1196256772225</v>
+        <v>-4.9070707230275</v>
       </c>
       <c r="D33" t="n">
-        <v>13.9470252558849</v>
+        <v>-4.54646377410898</v>
       </c>
       <c r="E33" t="n">
-        <v>11.3942441007654</v>
+        <v>-3.73700863084153</v>
       </c>
       <c r="F33" t="n">
-        <v>11.9427785691412</v>
+        <v>-2.33735148389102</v>
       </c>
       <c r="G33" t="n">
-        <v>13.5206985498392</v>
+        <v>-0.612006835701877</v>
       </c>
       <c r="H33" t="n">
-        <v>13.5265269675849</v>
+        <v>1.18312904715624</v>
       </c>
       <c r="I33" t="n">
-        <v>10.993494908944</v>
+        <v>3.47938464439577</v>
       </c>
       <c r="J33" t="n">
-        <v>11.9610227093163</v>
+        <v>6.4301570483019</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.4170295864392</v>
+        <v>10.3921535032737</v>
       </c>
       <c r="B34" t="n">
-        <v>10.1704210294956</v>
+        <v>10.1517028240468</v>
       </c>
       <c r="C34" t="n">
-        <v>11.5878992580885</v>
+        <v>12.1548662302353</v>
       </c>
       <c r="D34" t="n">
-        <v>12.3042332164471</v>
+        <v>12.4189626271318</v>
       </c>
       <c r="E34" t="n">
-        <v>11.4612267431759</v>
+        <v>12.1020392046211</v>
       </c>
       <c r="F34" t="n">
-        <v>12.5358733882766</v>
+        <v>11.4897798964935</v>
       </c>
       <c r="G34" t="n">
-        <v>13.6196254597586</v>
+        <v>12.4199104915628</v>
       </c>
       <c r="H34" t="n">
-        <v>12.5745866726997</v>
+        <v>11.6014827573539</v>
       </c>
       <c r="I34" t="n">
-        <v>11.6209578644133</v>
+        <v>11.0379970191343</v>
       </c>
       <c r="J34" t="n">
-        <v>10.4154371205608</v>
+        <v>10.9729924585531</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-4.8968635540874</v>
+        <v>9.63166483292506</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.1241810431567</v>
+        <v>11.3113195817238</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.36629396958695</v>
+        <v>11.3492405215773</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.35001846582571</v>
+        <v>12.7212920007683</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.65056587838749</v>
+        <v>12.7948861971471</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.72914142036476</v>
+        <v>11.4533522432654</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.885959470300392</v>
+        <v>13.1507520623872</v>
       </c>
       <c r="H35" t="n">
-        <v>0.960713024712868</v>
+        <v>12.1700013003541</v>
       </c>
       <c r="I35" t="n">
-        <v>3.84104810624449</v>
+        <v>12.4352595212998</v>
       </c>
       <c r="J35" t="n">
-        <v>6.47792046469297</v>
+        <v>10.533167219161</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11.3081235821368</v>
+        <v>9.78415863408882</v>
       </c>
       <c r="B36" t="n">
-        <v>11.3873184959665</v>
+        <v>10.7278271038771</v>
       </c>
       <c r="C36" t="n">
-        <v>11.9529776512075</v>
+        <v>11.8146509566425</v>
       </c>
       <c r="D36" t="n">
-        <v>10.5649141902881</v>
+        <v>11.8555698864398</v>
       </c>
       <c r="E36" t="n">
-        <v>13.1993712040059</v>
+        <v>13.6435141974893</v>
       </c>
       <c r="F36" t="n">
-        <v>12.6757019937494</v>
+        <v>13.2238289668017</v>
       </c>
       <c r="G36" t="n">
-        <v>12.6077349471198</v>
+        <v>11.7816983499034</v>
       </c>
       <c r="H36" t="n">
-        <v>12.0137932298005</v>
+        <v>10.4867412866373</v>
       </c>
       <c r="I36" t="n">
-        <v>11.9861712623444</v>
+        <v>11.5718847593564</v>
       </c>
       <c r="J36" t="n">
-        <v>10.9700606257254</v>
+        <v>10.8749081773317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10.1348227961518</v>
+        <v>11.1285541269703</v>
       </c>
       <c r="B37" t="n">
-        <v>9.78178657312802</v>
+        <v>10.2465081278158</v>
       </c>
       <c r="C37" t="n">
-        <v>11.9578573226317</v>
+        <v>10.7649150536452</v>
       </c>
       <c r="D37" t="n">
-        <v>11.6332574484641</v>
+        <v>11.924932130244</v>
       </c>
       <c r="E37" t="n">
-        <v>13.3599848510721</v>
+        <v>11.4016703546129</v>
       </c>
       <c r="F37" t="n">
-        <v>12.9894141253064</v>
+        <v>12.1008926789457</v>
       </c>
       <c r="G37" t="n">
-        <v>11.3478979010056</v>
+        <v>12.0188744079542</v>
       </c>
       <c r="H37" t="n">
-        <v>11.6773994182243</v>
+        <v>11.0695245387727</v>
       </c>
       <c r="I37" t="n">
-        <v>10.6379994408675</v>
+        <v>9.8345633886373</v>
       </c>
       <c r="J37" t="n">
-        <v>10.6860312262347</v>
+        <v>10.6085733547994</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.98777077987076</v>
+        <v>-5.00090003071329</v>
       </c>
       <c r="B38" t="n">
-        <v>11.2003632525752</v>
+        <v>-4.85384495861716</v>
       </c>
       <c r="C38" t="n">
-        <v>13.0283489011468</v>
+        <v>-5.2945129690661</v>
       </c>
       <c r="D38" t="n">
-        <v>12.0096171452222</v>
+        <v>-4.85440182946203</v>
       </c>
       <c r="E38" t="n">
-        <v>10.7414681774418</v>
+        <v>-3.98133273016193</v>
       </c>
       <c r="F38" t="n">
-        <v>12.6716852293925</v>
+        <v>-2.03658491594635</v>
       </c>
       <c r="G38" t="n">
-        <v>12.775566607977</v>
+        <v>-1.0297687823544</v>
       </c>
       <c r="H38" t="n">
-        <v>12.5954105368505</v>
+        <v>1.10147226660147</v>
       </c>
       <c r="I38" t="n">
-        <v>11.5876306864593</v>
+        <v>3.6943871486381</v>
       </c>
       <c r="J38" t="n">
-        <v>9.19626631523882</v>
+        <v>6.6690163920216</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.9553826321826</v>
+        <v>11.3655409780545</v>
       </c>
       <c r="B39" t="n">
-        <v>11.0926200884285</v>
+        <v>11.0355647235745</v>
       </c>
       <c r="C39" t="n">
-        <v>10.3901638331149</v>
+        <v>11.7683348924069</v>
       </c>
       <c r="D39" t="n">
-        <v>12.3294794687421</v>
+        <v>11.9229789863991</v>
       </c>
       <c r="E39" t="n">
-        <v>10.5149385138175</v>
+        <v>12.6216139010274</v>
       </c>
       <c r="F39" t="n">
-        <v>13.2108973506707</v>
+        <v>11.48641788464</v>
       </c>
       <c r="G39" t="n">
-        <v>13.0793174470588</v>
+        <v>13.7284907369919</v>
       </c>
       <c r="H39" t="n">
-        <v>11.5037747391303</v>
+        <v>11.3392028408961</v>
       </c>
       <c r="I39" t="n">
-        <v>11.2969594299846</v>
+        <v>10.1894888659964</v>
       </c>
       <c r="J39" t="n">
-        <v>11.3210760700842</v>
+        <v>10.3807054423872</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-4.92267071987982</v>
+        <v>-4.74389637581231</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.25208578936115</v>
+        <v>-5.28290991557324</v>
       </c>
       <c r="C40" t="n">
-        <v>-4.86608765369153</v>
+        <v>-5.29121062533673</v>
       </c>
       <c r="D40" t="n">
-        <v>-5.26179069861947</v>
+        <v>-4.70294496736539</v>
       </c>
       <c r="E40" t="n">
-        <v>-3.92097499105203</v>
+        <v>-3.90226047885596</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.34705859378233</v>
+        <v>-2.38347805588338</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.909181554347739</v>
+        <v>-0.954988462820817</v>
       </c>
       <c r="H40" t="n">
-        <v>1.53295812757213</v>
+        <v>0.874482374436779</v>
       </c>
       <c r="I40" t="n">
-        <v>4.08117111090178</v>
+        <v>4.17843587511973</v>
       </c>
       <c r="J40" t="n">
-        <v>6.78674743307628</v>
+        <v>6.5247284343155</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.13045962968709</v>
+        <v>10.114831533935</v>
       </c>
       <c r="B41" t="n">
-        <v>10.6101754090295</v>
+        <v>11.1671494090095</v>
       </c>
       <c r="C41" t="n">
-        <v>11.1250898418104</v>
+        <v>13.1065064948544</v>
       </c>
       <c r="D41" t="n">
-        <v>11.719383325171</v>
+        <v>10.8013285867582</v>
       </c>
       <c r="E41" t="n">
-        <v>11.3287161865184</v>
+        <v>12.5667894799627</v>
       </c>
       <c r="F41" t="n">
-        <v>12.0137385780687</v>
+        <v>12.2898932999389</v>
       </c>
       <c r="G41" t="n">
-        <v>11.5910728677596</v>
+        <v>10.853136535647</v>
       </c>
       <c r="H41" t="n">
-        <v>11.2270806436502</v>
+        <v>12.7939657807927</v>
       </c>
       <c r="I41" t="n">
-        <v>11.4100486700129</v>
+        <v>11.4125321976682</v>
       </c>
       <c r="J41" t="n">
-        <v>10.5856228934741</v>
+        <v>10.0851206022729</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-5.0995923708399</v>
+        <v>-4.61326172399315</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.49190183016886</v>
+        <v>-5.44896007032437</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.97937453770531</v>
+        <v>-5.62243440462582</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.61923359881388</v>
+        <v>-4.67284392509192</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.99709946495077</v>
+        <v>-4.03558391433137</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.77602809403707</v>
+        <v>-2.59294755437646</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.07322324526866</v>
+        <v>-0.891365680849195</v>
       </c>
       <c r="H42" t="n">
-        <v>1.21376749088847</v>
+        <v>1.00760376072204</v>
       </c>
       <c r="I42" t="n">
-        <v>4.00697737481639</v>
+        <v>3.67919515375476</v>
       </c>
       <c r="J42" t="n">
-        <v>6.5859004175267</v>
+        <v>7.13706550861072</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10.7922341360519</v>
+        <v>9.97482239298631</v>
       </c>
       <c r="B43" t="n">
-        <v>11.6015414652005</v>
+        <v>12.0622655681489</v>
       </c>
       <c r="C43" t="n">
-        <v>12.138804438703</v>
+        <v>10.9875279990343</v>
       </c>
       <c r="D43" t="n">
-        <v>11.9236283466343</v>
+        <v>12.6714625179619</v>
       </c>
       <c r="E43" t="n">
-        <v>12.2555769702161</v>
+        <v>11.8166053073771</v>
       </c>
       <c r="F43" t="n">
-        <v>11.7742833811655</v>
+        <v>12.9451097381029</v>
       </c>
       <c r="G43" t="n">
-        <v>14.2420159519166</v>
+        <v>12.3849447312065</v>
       </c>
       <c r="H43" t="n">
-        <v>12.9351280759182</v>
+        <v>11.8477998070905</v>
       </c>
       <c r="I43" t="n">
-        <v>10.7260390538191</v>
+        <v>12.4373997898591</v>
       </c>
       <c r="J43" t="n">
-        <v>11.3461351343529</v>
+        <v>10.8629534131409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.2968889021449</v>
+        <v>11.1804232267383</v>
       </c>
       <c r="B44" t="n">
-        <v>10.2751848464172</v>
+        <v>10.9254395664611</v>
       </c>
       <c r="C44" t="n">
-        <v>11.4210979283715</v>
+        <v>12.5014639521271</v>
       </c>
       <c r="D44" t="n">
-        <v>13.019323676342</v>
+        <v>11.6911264535686</v>
       </c>
       <c r="E44" t="n">
-        <v>13.733493278654</v>
+        <v>12.177020537769</v>
       </c>
       <c r="F44" t="n">
-        <v>13.0932722500594</v>
+        <v>12.6614687853047</v>
       </c>
       <c r="G44" t="n">
-        <v>11.876020083343</v>
+        <v>11.8094634698805</v>
       </c>
       <c r="H44" t="n">
-        <v>13.0275144769243</v>
+        <v>11.7622838698534</v>
       </c>
       <c r="I44" t="n">
-        <v>11.2826190620421</v>
+        <v>11.7158830698163</v>
       </c>
       <c r="J44" t="n">
-        <v>11.2024870261102</v>
+        <v>10.4129290565087</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-5.2778603641523</v>
+        <v>10.5208689188615</v>
       </c>
       <c r="B45" t="n">
-        <v>-5.22595096112006</v>
+        <v>11.5282003594895</v>
       </c>
       <c r="C45" t="n">
-        <v>-5.07069107084271</v>
+        <v>12.5095637051562</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.57670174966613</v>
+        <v>12.6378440878597</v>
       </c>
       <c r="E45" t="n">
-        <v>-3.65269224078095</v>
+        <v>12.5757879129066</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.20372026636043</v>
+        <v>13.0142045740048</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.383489167870012</v>
+        <v>12.8892693792584</v>
       </c>
       <c r="H45" t="n">
-        <v>1.31031336297642</v>
+        <v>11.5222733525558</v>
       </c>
       <c r="I45" t="n">
-        <v>3.9738041775028</v>
+        <v>11.702015988383</v>
       </c>
       <c r="J45" t="n">
-        <v>6.70171768169518</v>
+        <v>10.7783572862876</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.2021940276568</v>
+        <v>9.77811990886577</v>
       </c>
       <c r="B46" t="n">
-        <v>11.4369690773203</v>
+        <v>11.5234804627756</v>
       </c>
       <c r="C46" t="n">
-        <v>11.5836035905386</v>
+        <v>11.3708221182889</v>
       </c>
       <c r="D46" t="n">
-        <v>11.8376989703924</v>
+        <v>12.4301331202195</v>
       </c>
       <c r="E46" t="n">
-        <v>13.2969413066199</v>
+        <v>11.8908684217194</v>
       </c>
       <c r="F46" t="n">
-        <v>11.7282788419526</v>
+        <v>13.6160293951701</v>
       </c>
       <c r="G46" t="n">
-        <v>13.2652035823621</v>
+        <v>11.8313053599567</v>
       </c>
       <c r="H46" t="n">
-        <v>11.1433930345259</v>
+        <v>11.9508750103982</v>
       </c>
       <c r="I46" t="n">
-        <v>10.1317515494659</v>
+        <v>10.7133442619803</v>
       </c>
       <c r="J46" t="n">
-        <v>11.6012782055102</v>
+        <v>10.8464318232966</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.35794877199648</v>
+        <v>10.0885142853643</v>
       </c>
       <c r="B47" t="n">
-        <v>10.1556282681057</v>
+        <v>10.5899898809081</v>
       </c>
       <c r="C47" t="n">
-        <v>11.3027813186345</v>
+        <v>11.5028548301988</v>
       </c>
       <c r="D47" t="n">
-        <v>12.7520620859465</v>
+        <v>11.5173518306923</v>
       </c>
       <c r="E47" t="n">
-        <v>14.6985267902136</v>
+        <v>12.0064621762626</v>
       </c>
       <c r="F47" t="n">
-        <v>11.7954090844607</v>
+        <v>11.9766904185109</v>
       </c>
       <c r="G47" t="n">
-        <v>11.9071481718263</v>
+        <v>13.1444889144435</v>
       </c>
       <c r="H47" t="n">
-        <v>13.4905972001394</v>
+        <v>11.4935380246835</v>
       </c>
       <c r="I47" t="n">
-        <v>11.5719214247047</v>
+        <v>11.5878065689212</v>
       </c>
       <c r="J47" t="n">
-        <v>10.3857012672358</v>
+        <v>10.9156536915738</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10.8567514448669</v>
+        <v>-5.04904719798121</v>
       </c>
       <c r="B48" t="n">
-        <v>11.3882071268271</v>
+        <v>-5.1719311901319</v>
       </c>
       <c r="C48" t="n">
-        <v>11.1928241252857</v>
+        <v>-5.57787006677913</v>
       </c>
       <c r="D48" t="n">
-        <v>11.8286455396278</v>
+        <v>-4.68275346710117</v>
       </c>
       <c r="E48" t="n">
-        <v>12.9290221311088</v>
+        <v>-3.43155414266994</v>
       </c>
       <c r="F48" t="n">
-        <v>13.0957528157757</v>
+        <v>-2.73999556340359</v>
       </c>
       <c r="G48" t="n">
-        <v>12.6042325333417</v>
+        <v>-0.791542766469945</v>
       </c>
       <c r="H48" t="n">
-        <v>11.6990835382771</v>
+        <v>1.53556898994428</v>
       </c>
       <c r="I48" t="n">
-        <v>11.3747981919556</v>
+        <v>3.86518865147875</v>
       </c>
       <c r="J48" t="n">
-        <v>11.5077948001981</v>
+        <v>6.89186198829406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-4.72461693325251</v>
+        <v>10.4866771937821</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.02497688527965</v>
+        <v>10.9232171690075</v>
       </c>
       <c r="C49" t="n">
-        <v>-5.397075840591</v>
+        <v>11.6454678651406</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.12452009621147</v>
+        <v>12.9118718333419</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.65596945663884</v>
+        <v>12.0214665019538</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.7020889391074</v>
+        <v>11.6548183489601</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.603687602334622</v>
+        <v>11.8353470813852</v>
       </c>
       <c r="H49" t="n">
-        <v>1.31428928404824</v>
+        <v>11.3779832285018</v>
       </c>
       <c r="I49" t="n">
-        <v>3.51798684451416</v>
+        <v>12.0556315266871</v>
       </c>
       <c r="J49" t="n">
-        <v>6.56946258878007</v>
+        <v>9.55600872580465</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.3486098661549</v>
+        <v>-5.23203680687142</v>
       </c>
       <c r="B50" t="n">
-        <v>10.7686319608152</v>
+        <v>-5.30602047250997</v>
       </c>
       <c r="C50" t="n">
-        <v>11.6745789187754</v>
+        <v>-5.11840162739199</v>
       </c>
       <c r="D50" t="n">
-        <v>11.4488014879483</v>
+        <v>-4.35546544909338</v>
       </c>
       <c r="E50" t="n">
-        <v>11.4322110577409</v>
+        <v>-3.53887241152237</v>
       </c>
       <c r="F50" t="n">
-        <v>12.2242157376037</v>
+        <v>-2.3124333707008</v>
       </c>
       <c r="G50" t="n">
-        <v>14.0268686183296</v>
+        <v>-0.739050564086591</v>
       </c>
       <c r="H50" t="n">
-        <v>11.2489361673848</v>
+        <v>1.46401277969937</v>
       </c>
       <c r="I50" t="n">
-        <v>11.9904941867807</v>
+        <v>3.92630220484725</v>
       </c>
       <c r="J50" t="n">
-        <v>9.14698065124553</v>
+        <v>6.72820754465754</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-5.0034534453549</v>
+        <v>-4.88189309714031</v>
       </c>
       <c r="B51" t="n">
-        <v>-4.85922077354636</v>
+        <v>-5.24733026030406</v>
       </c>
       <c r="C51" t="n">
-        <v>-5.34256399855765</v>
+        <v>-5.25890553345118</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.62530014380182</v>
+        <v>-4.55999689970165</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.82153353054587</v>
+        <v>-3.48054522029332</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.39175384224885</v>
+        <v>-2.21971301188997</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.18452430172027</v>
+        <v>-0.772736011773131</v>
       </c>
       <c r="H51" t="n">
-        <v>1.45558590684107</v>
+        <v>1.4614424688579</v>
       </c>
       <c r="I51" t="n">
-        <v>3.46177732490939</v>
+        <v>4.18817911527858</v>
       </c>
       <c r="J51" t="n">
-        <v>6.88941037496695</v>
+        <v>6.74776372132457</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10.4273297682499</v>
+        <v>10.8449635736445</v>
       </c>
       <c r="B52" t="n">
-        <v>10.4653782634027</v>
+        <v>9.734137990175</v>
       </c>
       <c r="C52" t="n">
-        <v>12.5753973039002</v>
+        <v>13.1077346191933</v>
       </c>
       <c r="D52" t="n">
-        <v>11.3666814477076</v>
+        <v>12.4718248261805</v>
       </c>
       <c r="E52" t="n">
-        <v>12.3280437233112</v>
+        <v>12.1893907171017</v>
       </c>
       <c r="F52" t="n">
-        <v>12.8367872333139</v>
+        <v>12.4981573529425</v>
       </c>
       <c r="G52" t="n">
-        <v>11.8568321811763</v>
+        <v>11.401116700737</v>
       </c>
       <c r="H52" t="n">
-        <v>11.6595589245565</v>
+        <v>12.2778990958366</v>
       </c>
       <c r="I52" t="n">
-        <v>12.8822859803309</v>
+        <v>11.5498818694201</v>
       </c>
       <c r="J52" t="n">
-        <v>11.0179717358892</v>
+        <v>9.93490828213691</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-4.90340704490555</v>
+        <v>11.1641099843284</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.41024871504782</v>
+        <v>11.0145489034219</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.26519481665483</v>
+        <v>11.5297120221651</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.26559994104132</v>
+        <v>11.8489258355399</v>
       </c>
       <c r="E53" t="n">
-        <v>-3.53482385422965</v>
+        <v>13.7139030942888</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.45342668548127</v>
+        <v>13.9237727443224</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.886464163019218</v>
+        <v>12.4082728600204</v>
       </c>
       <c r="H53" t="n">
-        <v>1.29604720222659</v>
+        <v>11.628698974019</v>
       </c>
       <c r="I53" t="n">
-        <v>3.43642314145544</v>
+        <v>10.3830899942736</v>
       </c>
       <c r="J53" t="n">
-        <v>6.86439783026451</v>
+        <v>11.6201321736869</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10.2284816969336</v>
+        <v>11.1577753419306</v>
       </c>
       <c r="B54" t="n">
-        <v>11.1652286412263</v>
+        <v>12.0586780079255</v>
       </c>
       <c r="C54" t="n">
-        <v>10.9281904678819</v>
+        <v>10.9307555192134</v>
       </c>
       <c r="D54" t="n">
-        <v>11.4977340268212</v>
+        <v>12.9109257187213</v>
       </c>
       <c r="E54" t="n">
-        <v>12.7742174198855</v>
+        <v>13.0671098691189</v>
       </c>
       <c r="F54" t="n">
-        <v>13.2674889068622</v>
+        <v>13.4472839028384</v>
       </c>
       <c r="G54" t="n">
-        <v>11.7704127590676</v>
+        <v>13.8368506592557</v>
       </c>
       <c r="H54" t="n">
-        <v>11.4600425244697</v>
+        <v>11.8146784862208</v>
       </c>
       <c r="I54" t="n">
-        <v>11.8523700445322</v>
+        <v>11.2827094237212</v>
       </c>
       <c r="J54" t="n">
-        <v>10.1844832539884</v>
+        <v>11.0510165711775</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.3079205554364</v>
+        <v>-4.8877306129514</v>
       </c>
       <c r="B55" t="n">
-        <v>10.6165739170424</v>
+        <v>-5.14465677072651</v>
       </c>
       <c r="C55" t="n">
-        <v>10.8155231561899</v>
+        <v>-4.91625321208838</v>
       </c>
       <c r="D55" t="n">
-        <v>11.773215190978</v>
+        <v>-4.88251119765711</v>
       </c>
       <c r="E55" t="n">
-        <v>12.5226207757545</v>
+        <v>-3.52551477055578</v>
       </c>
       <c r="F55" t="n">
-        <v>12.9943407048718</v>
+        <v>-2.3800718160139</v>
       </c>
       <c r="G55" t="n">
-        <v>13.9504424614494</v>
+        <v>-0.675862174792069</v>
       </c>
       <c r="H55" t="n">
-        <v>11.5777361704585</v>
+        <v>1.08382888265822</v>
       </c>
       <c r="I55" t="n">
-        <v>11.4858315984265</v>
+        <v>3.67268372948151</v>
       </c>
       <c r="J55" t="n">
-        <v>11.8124281441048</v>
+        <v>6.46018624837957</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-4.86574786770523</v>
+        <v>10.1209181301964</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.22418020027669</v>
+        <v>11.9527067136197</v>
       </c>
       <c r="C56" t="n">
-        <v>-5.26303406327657</v>
+        <v>12.4617260968412</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.71360622196615</v>
+        <v>12.3063335105871</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.56262524016877</v>
+        <v>12.2082590382337</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.98447926424765</v>
+        <v>11.3845706298308</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.939533028182279</v>
+        <v>12.0396316542016</v>
       </c>
       <c r="H56" t="n">
-        <v>1.31735941443214</v>
+        <v>12.4551578829089</v>
       </c>
       <c r="I56" t="n">
-        <v>3.37448862238113</v>
+        <v>9.95511102217219</v>
       </c>
       <c r="J56" t="n">
-        <v>6.56734074760317</v>
+        <v>12.1480310587086</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.40939151904413</v>
+        <v>11.2658855192184</v>
       </c>
       <c r="B57" t="n">
-        <v>11.0476711104123</v>
+        <v>10.8570769213883</v>
       </c>
       <c r="C57" t="n">
-        <v>9.71534013717157</v>
+        <v>11.3410490665355</v>
       </c>
       <c r="D57" t="n">
-        <v>12.3419281771173</v>
+        <v>12.1501514104939</v>
       </c>
       <c r="E57" t="n">
-        <v>12.2775044288413</v>
+        <v>13.7390071013427</v>
       </c>
       <c r="F57" t="n">
-        <v>11.5517757815497</v>
+        <v>12.8796980084394</v>
       </c>
       <c r="G57" t="n">
-        <v>12.397132919037</v>
+        <v>13.1699666505584</v>
       </c>
       <c r="H57" t="n">
-        <v>12.5902359457547</v>
+        <v>11.1167446582288</v>
       </c>
       <c r="I57" t="n">
-        <v>11.5364877911066</v>
+        <v>10.5643315471334</v>
       </c>
       <c r="J57" t="n">
-        <v>11.9795255525735</v>
+        <v>10.0908246596023</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-4.84043828657177</v>
+        <v>9.73314788656718</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.11988388272316</v>
+        <v>9.77778502500539</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.93520610827595</v>
+        <v>11.8009974401748</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.35290612430315</v>
+        <v>11.2783217366383</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.81470847814665</v>
+        <v>12.7329557852004</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.66956327335645</v>
+        <v>13.9195766175302</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.09076783443402</v>
+        <v>13.543144534914</v>
       </c>
       <c r="H58" t="n">
-        <v>0.960549822971715</v>
+        <v>13.4656742129957</v>
       </c>
       <c r="I58" t="n">
-        <v>3.82183824075553</v>
+        <v>11.2877667981993</v>
       </c>
       <c r="J58" t="n">
-        <v>6.3243397009419</v>
+        <v>11.2828159447947</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-4.81561362161274</v>
+        <v>10.1487211067286</v>
       </c>
       <c r="B59" t="n">
-        <v>-5.4981532849124</v>
+        <v>11.7964547852949</v>
       </c>
       <c r="C59" t="n">
-        <v>-5.27244193950826</v>
+        <v>12.5097568250544</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.56864438929826</v>
+        <v>12.1046584966629</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.74282943485985</v>
+        <v>12.0033759749967</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.82041655320885</v>
+        <v>11.850756253975</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.837952222814731</v>
+        <v>13.3170133166828</v>
       </c>
       <c r="H59" t="n">
-        <v>0.995606944214542</v>
+        <v>12.323426889521</v>
       </c>
       <c r="I59" t="n">
-        <v>4.01233754919589</v>
+        <v>12.7133460309543</v>
       </c>
       <c r="J59" t="n">
-        <v>6.94252270059996</v>
+        <v>11.1375256345898</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10.9753064846565</v>
+        <v>10.9932028484907</v>
       </c>
       <c r="B60" t="n">
-        <v>11.1708393511805</v>
+        <v>11.4570878772057</v>
       </c>
       <c r="C60" t="n">
-        <v>12.0717759804381</v>
+        <v>12.7725225135886</v>
       </c>
       <c r="D60" t="n">
-        <v>13.9525489757733</v>
+        <v>11.6846601660898</v>
       </c>
       <c r="E60" t="n">
-        <v>11.7617544524417</v>
+        <v>12.318877164262</v>
       </c>
       <c r="F60" t="n">
-        <v>12.5078377709287</v>
+        <v>11.6182767225157</v>
       </c>
       <c r="G60" t="n">
-        <v>12.1945115284956</v>
+        <v>13.49316439767</v>
       </c>
       <c r="H60" t="n">
-        <v>12.5801554230642</v>
+        <v>11.1242157246417</v>
       </c>
       <c r="I60" t="n">
-        <v>11.8792370404568</v>
+        <v>11.7811365651393</v>
       </c>
       <c r="J60" t="n">
-        <v>9.93759412276269</v>
+        <v>11.0543312320504</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.15618447275491</v>
+        <v>10.3082119285934</v>
       </c>
       <c r="B61" t="n">
-        <v>12.4336086461884</v>
+        <v>11.6361971101486</v>
       </c>
       <c r="C61" t="n">
-        <v>11.4100908598117</v>
+        <v>11.4021420566689</v>
       </c>
       <c r="D61" t="n">
-        <v>10.9259463878794</v>
+        <v>12.6438755150586</v>
       </c>
       <c r="E61" t="n">
-        <v>12.5127236326924</v>
+        <v>12.4713900372359</v>
       </c>
       <c r="F61" t="n">
-        <v>13.0488705999732</v>
+        <v>12.0431114987475</v>
       </c>
       <c r="G61" t="n">
-        <v>12.2049328808979</v>
+        <v>11.9662547163882</v>
       </c>
       <c r="H61" t="n">
-        <v>12.0716021068351</v>
+        <v>11.4361195519831</v>
       </c>
       <c r="I61" t="n">
-        <v>10.3932594108854</v>
+        <v>12.3975437277619</v>
       </c>
       <c r="J61" t="n">
-        <v>10.0296337745583</v>
+        <v>10.729951430273</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.69381127314827</v>
+        <v>9.4503193657877</v>
       </c>
       <c r="B62" t="n">
-        <v>10.816471739255</v>
+        <v>9.76957665790458</v>
       </c>
       <c r="C62" t="n">
-        <v>12.6876598714828</v>
+        <v>11.3149873369621</v>
       </c>
       <c r="D62" t="n">
-        <v>12.5320781168038</v>
+        <v>12.3513554889022</v>
       </c>
       <c r="E62" t="n">
-        <v>11.9486965521891</v>
+        <v>10.693643185602</v>
       </c>
       <c r="F62" t="n">
-        <v>12.6255830749375</v>
+        <v>12.4637337168209</v>
       </c>
       <c r="G62" t="n">
-        <v>12.6672009070434</v>
+        <v>13.4032955676803</v>
       </c>
       <c r="H62" t="n">
-        <v>13.3044208205905</v>
+        <v>12.7981829561289</v>
       </c>
       <c r="I62" t="n">
-        <v>11.5756456330853</v>
+        <v>12.6903380103436</v>
       </c>
       <c r="J62" t="n">
-        <v>10.2995417974038</v>
+        <v>11.0986950890757</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.93281536859316</v>
+        <v>10.2799602578001</v>
       </c>
       <c r="B63" t="n">
-        <v>10.7930252876571</v>
+        <v>10.6431552271295</v>
       </c>
       <c r="C63" t="n">
-        <v>11.9764080290299</v>
+        <v>10.9718986987557</v>
       </c>
       <c r="D63" t="n">
-        <v>12.534983085644</v>
+        <v>12.591979272042</v>
       </c>
       <c r="E63" t="n">
-        <v>13.3163918951312</v>
+        <v>12.9395090270863</v>
       </c>
       <c r="F63" t="n">
-        <v>12.7769463132783</v>
+        <v>12.9056431243707</v>
       </c>
       <c r="G63" t="n">
-        <v>13.2512388190982</v>
+        <v>12.2029927663427</v>
       </c>
       <c r="H63" t="n">
-        <v>11.849650200748</v>
+        <v>11.9412347691267</v>
       </c>
       <c r="I63" t="n">
-        <v>10.6934745898912</v>
+        <v>12.2445243455191</v>
       </c>
       <c r="J63" t="n">
-        <v>11.4006725046207</v>
+        <v>10.0266529554486</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.48618116467754</v>
+        <v>9.92692728405106</v>
       </c>
       <c r="B64" t="n">
-        <v>11.3342249313082</v>
+        <v>12.5268810192766</v>
       </c>
       <c r="C64" t="n">
-        <v>10.7440766285096</v>
+        <v>10.7589742561143</v>
       </c>
       <c r="D64" t="n">
-        <v>13.4390258451258</v>
+        <v>13.1633545691508</v>
       </c>
       <c r="E64" t="n">
-        <v>11.466217180844</v>
+        <v>13.1077475004358</v>
       </c>
       <c r="F64" t="n">
-        <v>11.9033544003995</v>
+        <v>11.6410368443761</v>
       </c>
       <c r="G64" t="n">
-        <v>12.2491131592278</v>
+        <v>13.5436152595146</v>
       </c>
       <c r="H64" t="n">
-        <v>10.7240288339178</v>
+        <v>13.3405574198252</v>
       </c>
       <c r="I64" t="n">
-        <v>10.0604977816603</v>
+        <v>11.603964669743</v>
       </c>
       <c r="J64" t="n">
-        <v>10.0985401097151</v>
+        <v>10.3624228187766</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-4.95306753953782</v>
+        <v>9.96953232397712</v>
       </c>
       <c r="B65" t="n">
-        <v>-4.98801491822132</v>
+        <v>11.6670540925931</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.01946846942217</v>
+        <v>11.1566141525207</v>
       </c>
       <c r="D65" t="n">
-        <v>-4.38309808056223</v>
+        <v>12.1836327588687</v>
       </c>
       <c r="E65" t="n">
-        <v>-3.87893573384584</v>
+        <v>12.5949817425845</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.31345731013931</v>
+        <v>12.8288798902051</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.54973802344736</v>
+        <v>12.7925552739919</v>
       </c>
       <c r="H65" t="n">
-        <v>1.14460978636246</v>
+        <v>12.4790292064773</v>
       </c>
       <c r="I65" t="n">
-        <v>4.1966853013849</v>
+        <v>11.4706842189289</v>
       </c>
       <c r="J65" t="n">
-        <v>6.82450318490813</v>
+        <v>11.659348565659</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9.78080818970489</v>
+        <v>10.3841032004579</v>
       </c>
       <c r="B66" t="n">
-        <v>10.5420760692608</v>
+        <v>11.1743612113658</v>
       </c>
       <c r="C66" t="n">
-        <v>11.4304752922618</v>
+        <v>11.6414981659261</v>
       </c>
       <c r="D66" t="n">
-        <v>12.197883595186</v>
+        <v>12.1285093368728</v>
       </c>
       <c r="E66" t="n">
-        <v>11.6610527842815</v>
+        <v>12.4905742710922</v>
       </c>
       <c r="F66" t="n">
-        <v>12.0342913718037</v>
+        <v>13.9426965174</v>
       </c>
       <c r="G66" t="n">
-        <v>12.9544900503917</v>
+        <v>12.3790757429015</v>
       </c>
       <c r="H66" t="n">
-        <v>12.867437432919</v>
+        <v>11.0136798896948</v>
       </c>
       <c r="I66" t="n">
-        <v>12.3632128821244</v>
+        <v>10.5968155287622</v>
       </c>
       <c r="J66" t="n">
-        <v>11.271944056215</v>
+        <v>11.097295245012</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.31670402513989</v>
+        <v>-4.95974599500347</v>
       </c>
       <c r="B67" t="n">
-        <v>11.4262332424505</v>
+        <v>-5.78295399869989</v>
       </c>
       <c r="C67" t="n">
-        <v>12.5523629449131</v>
+        <v>-5.33720768809441</v>
       </c>
       <c r="D67" t="n">
-        <v>11.2010283987525</v>
+        <v>-4.95387123262475</v>
       </c>
       <c r="E67" t="n">
-        <v>11.6728029757086</v>
+        <v>-3.84419846803212</v>
       </c>
       <c r="F67" t="n">
-        <v>13.9468019086729</v>
+        <v>-2.53374827238665</v>
       </c>
       <c r="G67" t="n">
-        <v>13.1412337905848</v>
+        <v>-0.686685710046643</v>
       </c>
       <c r="H67" t="n">
-        <v>12.5935193183776</v>
+        <v>1.45142508533531</v>
       </c>
       <c r="I67" t="n">
-        <v>11.9884682798461</v>
+        <v>3.48912180583971</v>
       </c>
       <c r="J67" t="n">
-        <v>10.875866357953</v>
+        <v>6.88066618007455</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-4.5347131255616</v>
+        <v>-4.93549366093443</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.54464203062563</v>
+        <v>-5.3206866777905</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.05743867108438</v>
+        <v>-5.23255772804204</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.56678362307286</v>
+        <v>-4.8280609907698</v>
       </c>
       <c r="E68" t="n">
-        <v>-3.95851564668057</v>
+        <v>-3.48052046468608</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.84050173770825</v>
+        <v>-2.56222821008747</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.791747869348661</v>
+        <v>-0.561262608502647</v>
       </c>
       <c r="H68" t="n">
-        <v>1.035004630525</v>
+        <v>1.67752381343197</v>
       </c>
       <c r="I68" t="n">
-        <v>3.64051549261314</v>
+        <v>3.62257692114702</v>
       </c>
       <c r="J68" t="n">
-        <v>6.57609020481734</v>
+        <v>6.78590597784296</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8.79647410526564</v>
+        <v>-4.43350511156716</v>
       </c>
       <c r="B69" t="n">
-        <v>11.0342520285975</v>
+        <v>-5.21836247270016</v>
       </c>
       <c r="C69" t="n">
-        <v>11.4580045381922</v>
+        <v>-5.4662472753161</v>
       </c>
       <c r="D69" t="n">
-        <v>10.6380908402114</v>
+        <v>-4.79437178858722</v>
       </c>
       <c r="E69" t="n">
-        <v>10.5111758768181</v>
+        <v>-3.30589915854737</v>
       </c>
       <c r="F69" t="n">
-        <v>12.6263986790547</v>
+        <v>-2.88228690042691</v>
       </c>
       <c r="G69" t="n">
-        <v>11.7109835553657</v>
+        <v>-0.707229505404047</v>
       </c>
       <c r="H69" t="n">
-        <v>12.1921106582014</v>
+        <v>1.21587211723411</v>
       </c>
       <c r="I69" t="n">
-        <v>11.7524495734739</v>
+        <v>4.07282018663097</v>
       </c>
       <c r="J69" t="n">
-        <v>10.4343039966301</v>
+        <v>6.54224860662601</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-5.19419794463546</v>
+        <v>8.62005059729843</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.00259258283335</v>
+        <v>11.4942597525973</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.09966650190369</v>
+        <v>11.8520160555079</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.77787680620654</v>
+        <v>13.0866943178432</v>
       </c>
       <c r="E70" t="n">
-        <v>-3.87718390340404</v>
+        <v>11.2248119531211</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.60851224095035</v>
+        <v>11.8871757711941</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.737136412963261</v>
+        <v>11.9840440633647</v>
       </c>
       <c r="H70" t="n">
-        <v>1.14885001431733</v>
+        <v>11.7635394777564</v>
       </c>
       <c r="I70" t="n">
-        <v>4.28579281277175</v>
+        <v>9.58731385567456</v>
       </c>
       <c r="J70" t="n">
-        <v>6.74564863319991</v>
+        <v>9.98756457473513</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8.62996281512706</v>
+        <v>9.54947033428299</v>
       </c>
       <c r="B71" t="n">
-        <v>11.344591516239</v>
+        <v>11.8502835125254</v>
       </c>
       <c r="C71" t="n">
-        <v>12.4594168482011</v>
+        <v>11.9889084615003</v>
       </c>
       <c r="D71" t="n">
-        <v>11.2487723064855</v>
+        <v>12.259670177378</v>
       </c>
       <c r="E71" t="n">
-        <v>13.6064754765948</v>
+        <v>13.3219473103479</v>
       </c>
       <c r="F71" t="n">
-        <v>12.2162498624467</v>
+        <v>11.1350020191877</v>
       </c>
       <c r="G71" t="n">
-        <v>12.2640106763735</v>
+        <v>13.0679119012262</v>
       </c>
       <c r="H71" t="n">
-        <v>11.3269127825113</v>
+        <v>11.6623313332454</v>
       </c>
       <c r="I71" t="n">
-        <v>10.8891097822246</v>
+        <v>11.746710323064</v>
       </c>
       <c r="J71" t="n">
-        <v>11.5199843232604</v>
+        <v>9.38906057622299</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-4.74581446729712</v>
+        <v>10.3975556967989</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.6364195087651</v>
+        <v>11.5724756055777</v>
       </c>
       <c r="C72" t="n">
-        <v>-5.45421462698427</v>
+        <v>11.201252727149</v>
       </c>
       <c r="D72" t="n">
-        <v>-4.4451214953782</v>
+        <v>11.817602668483</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.91864544359884</v>
+        <v>12.8942717671342</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.21753481162671</v>
+        <v>13.0696365010497</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.66111913667415</v>
+        <v>11.7147839483215</v>
       </c>
       <c r="H72" t="n">
-        <v>1.2220914016358</v>
+        <v>11.8687095458505</v>
       </c>
       <c r="I72" t="n">
-        <v>3.73925506952056</v>
+        <v>12.3670366803168</v>
       </c>
       <c r="J72" t="n">
-        <v>6.53191948580885</v>
+        <v>10.8762181200679</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10.2617779934324</v>
+        <v>-5.4402819794567</v>
       </c>
       <c r="B73" t="n">
-        <v>9.40376600941056</v>
+        <v>-5.21349927885447</v>
       </c>
       <c r="C73" t="n">
-        <v>11.4382639118841</v>
+        <v>-5.51750551624122</v>
       </c>
       <c r="D73" t="n">
-        <v>11.7512811782034</v>
+        <v>-4.41411216068646</v>
       </c>
       <c r="E73" t="n">
-        <v>12.7460495907669</v>
+        <v>-3.6666065029623</v>
       </c>
       <c r="F73" t="n">
-        <v>13.6005074626274</v>
+        <v>-2.68317410690114</v>
       </c>
       <c r="G73" t="n">
-        <v>13.2666117435548</v>
+        <v>-1.3555203293122</v>
       </c>
       <c r="H73" t="n">
-        <v>12.1202374465245</v>
+        <v>1.52096747417214</v>
       </c>
       <c r="I73" t="n">
-        <v>10.7131252310516</v>
+        <v>4.12307106882048</v>
       </c>
       <c r="J73" t="n">
-        <v>10.2292663749663</v>
+        <v>6.46458062220627</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8.62162187910693</v>
+        <v>-5.03664032323277</v>
       </c>
       <c r="B74" t="n">
-        <v>10.6371909247506</v>
+        <v>-5.4092368341711</v>
       </c>
       <c r="C74" t="n">
-        <v>10.6182307020163</v>
+        <v>-5.2667194600767</v>
       </c>
       <c r="D74" t="n">
-        <v>11.091585197606</v>
+        <v>-4.87867905639897</v>
       </c>
       <c r="E74" t="n">
-        <v>12.3770013992346</v>
+        <v>-3.70641097526768</v>
       </c>
       <c r="F74" t="n">
-        <v>11.6905715564579</v>
+        <v>-2.10608611147922</v>
       </c>
       <c r="G74" t="n">
-        <v>12.9932408777227</v>
+        <v>-0.833603286030637</v>
       </c>
       <c r="H74" t="n">
-        <v>12.0269643188584</v>
+        <v>1.35140660383398</v>
       </c>
       <c r="I74" t="n">
-        <v>10.8603579761397</v>
+        <v>3.84479048900187</v>
       </c>
       <c r="J74" t="n">
-        <v>10.0901435291554</v>
+        <v>6.65067965036093</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9.6154879803172</v>
+        <v>-5.11510566829174</v>
       </c>
       <c r="B75" t="n">
-        <v>11.0755469917587</v>
+        <v>-5.50059720948525</v>
       </c>
       <c r="C75" t="n">
-        <v>11.8430681008162</v>
+        <v>-4.75168404602609</v>
       </c>
       <c r="D75" t="n">
-        <v>11.0917844955001</v>
+        <v>-4.97399329813797</v>
       </c>
       <c r="E75" t="n">
-        <v>13.5690084961841</v>
+        <v>-3.94163876524639</v>
       </c>
       <c r="F75" t="n">
-        <v>12.0294502402667</v>
+        <v>-2.12909274154715</v>
       </c>
       <c r="G75" t="n">
-        <v>10.6027846837259</v>
+        <v>-0.730069022770835</v>
       </c>
       <c r="H75" t="n">
-        <v>13.5478488374215</v>
+        <v>1.25684501075934</v>
       </c>
       <c r="I75" t="n">
-        <v>12.7374857851749</v>
+        <v>3.68203199851535</v>
       </c>
       <c r="J75" t="n">
-        <v>11.0606744305342</v>
+        <v>6.67221533912752</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.06377604891023</v>
+        <v>-5.24700174400815</v>
       </c>
       <c r="B76" t="n">
-        <v>11.0940250475298</v>
+        <v>-5.13217958633608</v>
       </c>
       <c r="C76" t="n">
-        <v>10.8950702938465</v>
+        <v>-5.03700441202888</v>
       </c>
       <c r="D76" t="n">
-        <v>12.6655961903909</v>
+        <v>-5.07280203259943</v>
       </c>
       <c r="E76" t="n">
-        <v>12.1102609514392</v>
+        <v>-3.6045276997764</v>
       </c>
       <c r="F76" t="n">
-        <v>12.7099198593994</v>
+        <v>-2.41280055944983</v>
       </c>
       <c r="G76" t="n">
-        <v>12.2685500346205</v>
+        <v>-1.03814376881123</v>
       </c>
       <c r="H76" t="n">
-        <v>10.748186933278</v>
+        <v>1.08818384289727</v>
       </c>
       <c r="I76" t="n">
-        <v>12.4477139018509</v>
+        <v>4.21978052340152</v>
       </c>
       <c r="J76" t="n">
-        <v>11.4123866051214</v>
+        <v>6.66312015443167</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.1714383633196</v>
+        <v>10.8133209653068</v>
       </c>
       <c r="B77" t="n">
-        <v>10.8454893672014</v>
+        <v>11.0734302430147</v>
       </c>
       <c r="C77" t="n">
-        <v>11.8153697709247</v>
+        <v>11.8937577109614</v>
       </c>
       <c r="D77" t="n">
-        <v>11.9345765409761</v>
+        <v>13.0196379586277</v>
       </c>
       <c r="E77" t="n">
-        <v>12.9541272890627</v>
+        <v>14.2040805754339</v>
       </c>
       <c r="F77" t="n">
-        <v>12.2094900670991</v>
+        <v>12.5127797767717</v>
       </c>
       <c r="G77" t="n">
-        <v>12.5120526029388</v>
+        <v>13.0811132046791</v>
       </c>
       <c r="H77" t="n">
-        <v>12.6739022206844</v>
+        <v>11.4213842565524</v>
       </c>
       <c r="I77" t="n">
-        <v>10.859739249523</v>
+        <v>11.2292964194986</v>
       </c>
       <c r="J77" t="n">
-        <v>10.117851632114</v>
+        <v>10.2723760226397</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-4.9693433265535</v>
+        <v>-4.84535035396539</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.02600205467288</v>
+        <v>-5.6422012890248</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.07315813325546</v>
+        <v>-5.06902317867211</v>
       </c>
       <c r="D78" t="n">
-        <v>-4.79206232983546</v>
+        <v>-4.91372125616888</v>
       </c>
       <c r="E78" t="n">
-        <v>-3.75745919654638</v>
+        <v>-3.60063738113803</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.33192743849853</v>
+        <v>-2.36133407030539</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.949319262006692</v>
+        <v>-1.00749786014238</v>
       </c>
       <c r="H78" t="n">
-        <v>1.5603950143967</v>
+        <v>0.953249861031587</v>
       </c>
       <c r="I78" t="n">
-        <v>3.70038301372385</v>
+        <v>3.78853431548184</v>
       </c>
       <c r="J78" t="n">
-        <v>6.97897824655477</v>
+        <v>6.1740962118313</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.31798268896314</v>
+        <v>10.3281932816562</v>
       </c>
       <c r="B79" t="n">
-        <v>10.8541317080907</v>
+        <v>11.0425070063175</v>
       </c>
       <c r="C79" t="n">
-        <v>11.3085894113604</v>
+        <v>10.8651429750674</v>
       </c>
       <c r="D79" t="n">
-        <v>11.7705195597971</v>
+        <v>12.115911989777</v>
       </c>
       <c r="E79" t="n">
-        <v>13.0548253010933</v>
+        <v>12.7270754474152</v>
       </c>
       <c r="F79" t="n">
-        <v>12.5197191303141</v>
+        <v>12.6014563518489</v>
       </c>
       <c r="G79" t="n">
-        <v>12.8876391579612</v>
+        <v>12.2931790866073</v>
       </c>
       <c r="H79" t="n">
-        <v>11.6875535076856</v>
+        <v>10.6858894211729</v>
       </c>
       <c r="I79" t="n">
-        <v>10.5841658231521</v>
+        <v>11.9830455114908</v>
       </c>
       <c r="J79" t="n">
-        <v>11.5870868988037</v>
+        <v>9.35206212234714</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-5.41312727538143</v>
+        <v>-4.83937607269063</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.30421781663679</v>
+        <v>-5.17571840986126</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.39338675320562</v>
+        <v>-5.42116258340012</v>
       </c>
       <c r="D80" t="n">
-        <v>-4.81435520025718</v>
+        <v>-4.7219088603955</v>
       </c>
       <c r="E80" t="n">
-        <v>-3.4927145183955</v>
+        <v>-3.83328866750941</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.44425357640246</v>
+        <v>-2.49226138825208</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.729246392185723</v>
+        <v>-0.801308340382268</v>
       </c>
       <c r="H80" t="n">
-        <v>0.895497733518704</v>
+        <v>1.3759327260989</v>
       </c>
       <c r="I80" t="n">
-        <v>3.91951351221758</v>
+        <v>3.85889340759168</v>
       </c>
       <c r="J80" t="n">
-        <v>7.21130123196583</v>
+        <v>6.40482566052986</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-5.06625787325628</v>
+        <v>-4.93469355750976</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.42795443072214</v>
+        <v>-5.40763348107068</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.92810662764733</v>
+        <v>-5.24262585525628</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.65062273710219</v>
+        <v>-4.41073541946953</v>
       </c>
       <c r="E81" t="n">
-        <v>-3.88327925919592</v>
+        <v>-3.69153580253213</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.0358110456566</v>
+        <v>-2.40236325781101</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.919380383477334</v>
+        <v>-0.326644814952411</v>
       </c>
       <c r="H81" t="n">
-        <v>1.2678014543335</v>
+        <v>1.69213265673591</v>
       </c>
       <c r="I81" t="n">
-        <v>4.11622747647856</v>
+        <v>3.68693978143733</v>
       </c>
       <c r="J81" t="n">
-        <v>6.78805908766169</v>
+        <v>6.75395691179152</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.6928114114582</v>
+        <v>10.5983274785699</v>
       </c>
       <c r="B82" t="n">
-        <v>10.9039799969488</v>
+        <v>10.1029766221723</v>
       </c>
       <c r="C82" t="n">
-        <v>12.1099300737589</v>
+        <v>13.0910197141252</v>
       </c>
       <c r="D82" t="n">
-        <v>13.4287216200236</v>
+        <v>13.5743556819586</v>
       </c>
       <c r="E82" t="n">
-        <v>13.3032296784989</v>
+        <v>11.8424299296727</v>
       </c>
       <c r="F82" t="n">
-        <v>13.6270773191726</v>
+        <v>12.7545922376952</v>
       </c>
       <c r="G82" t="n">
-        <v>12.6718199332618</v>
+        <v>12.0274520169006</v>
       </c>
       <c r="H82" t="n">
-        <v>11.9020618280735</v>
+        <v>12.2119019471488</v>
       </c>
       <c r="I82" t="n">
-        <v>10.8824802544214</v>
+        <v>13.0275308093844</v>
       </c>
       <c r="J82" t="n">
-        <v>11.8888025276334</v>
+        <v>10.8481776731314</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.72112466513634</v>
+        <v>9.59095543814439</v>
       </c>
       <c r="B83" t="n">
-        <v>11.7216229576708</v>
+        <v>11.36265294961</v>
       </c>
       <c r="C83" t="n">
-        <v>11.4105863046261</v>
+        <v>11.2411722182068</v>
       </c>
       <c r="D83" t="n">
-        <v>13.331103162738</v>
+        <v>11.5576936144268</v>
       </c>
       <c r="E83" t="n">
-        <v>11.545308643898</v>
+        <v>13.3443999936082</v>
       </c>
       <c r="F83" t="n">
-        <v>12.2636952534133</v>
+        <v>12.774703526114</v>
       </c>
       <c r="G83" t="n">
-        <v>13.4208820032946</v>
+        <v>13.4358768324129</v>
       </c>
       <c r="H83" t="n">
-        <v>13.8702744626645</v>
+        <v>10.9721751920814</v>
       </c>
       <c r="I83" t="n">
-        <v>10.7595934238001</v>
+        <v>12.507102455188</v>
       </c>
       <c r="J83" t="n">
-        <v>10.7447994476332</v>
+        <v>12.2585504966181</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9.41949880605714</v>
+        <v>-4.64238895437832</v>
       </c>
       <c r="B84" t="n">
-        <v>11.6822392566683</v>
+        <v>-5.28934833396961</v>
       </c>
       <c r="C84" t="n">
-        <v>12.73826836492</v>
+        <v>-5.33116229459772</v>
       </c>
       <c r="D84" t="n">
-        <v>11.8195851252251</v>
+        <v>-4.62613785333626</v>
       </c>
       <c r="E84" t="n">
-        <v>12.3069902722322</v>
+        <v>-3.69230656332007</v>
       </c>
       <c r="F84" t="n">
-        <v>12.2623131000445</v>
+        <v>-2.24064644108553</v>
       </c>
       <c r="G84" t="n">
-        <v>11.5751480593486</v>
+        <v>-0.738102863521346</v>
       </c>
       <c r="H84" t="n">
-        <v>11.9187176150204</v>
+        <v>0.942699590507479</v>
       </c>
       <c r="I84" t="n">
-        <v>10.6918008956021</v>
+        <v>3.82919550961183</v>
       </c>
       <c r="J84" t="n">
-        <v>11.6865120399712</v>
+        <v>6.55763030701785</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9.88638594935609</v>
+        <v>-4.90246948972926</v>
       </c>
       <c r="B85" t="n">
-        <v>10.3517578074056</v>
+        <v>-5.49619383224027</v>
       </c>
       <c r="C85" t="n">
-        <v>10.6835578911692</v>
+        <v>-5.09356351272274</v>
       </c>
       <c r="D85" t="n">
-        <v>13.4138732768468</v>
+        <v>-4.84308034774724</v>
       </c>
       <c r="E85" t="n">
-        <v>13.6505297570935</v>
+        <v>-3.46344381158608</v>
       </c>
       <c r="F85" t="n">
-        <v>12.8942822657164</v>
+        <v>-2.34195245432745</v>
       </c>
       <c r="G85" t="n">
-        <v>12.9760603456603</v>
+        <v>-0.742472668701929</v>
       </c>
       <c r="H85" t="n">
-        <v>11.3855211724298</v>
+        <v>1.54103568241724</v>
       </c>
       <c r="I85" t="n">
-        <v>10.9157738916514</v>
+        <v>3.69355979552295</v>
       </c>
       <c r="J85" t="n">
-        <v>11.2044387680972</v>
+        <v>6.54150726608999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9.71240392620936</v>
+        <v>-4.61133905853358</v>
       </c>
       <c r="B86" t="n">
-        <v>11.7233520535411</v>
+        <v>-4.89433886869659</v>
       </c>
       <c r="C86" t="n">
-        <v>12.5569160198388</v>
+        <v>-5.51037140615985</v>
       </c>
       <c r="D86" t="n">
-        <v>12.8129894859113</v>
+        <v>-4.56388613680573</v>
       </c>
       <c r="E86" t="n">
-        <v>13.3955049414819</v>
+        <v>-3.48106664737405</v>
       </c>
       <c r="F86" t="n">
-        <v>11.6898848668227</v>
+        <v>-2.67563563644815</v>
       </c>
       <c r="G86" t="n">
-        <v>12.2298548568786</v>
+        <v>-0.936682368125662</v>
       </c>
       <c r="H86" t="n">
-        <v>12.4985468540117</v>
+        <v>1.56591413386792</v>
       </c>
       <c r="I86" t="n">
-        <v>10.0586819403346</v>
+        <v>4.036048068685</v>
       </c>
       <c r="J86" t="n">
-        <v>12.0666552538767</v>
+        <v>6.97587504803753</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9.66802250046798</v>
+        <v>9.50658406943236</v>
       </c>
       <c r="B87" t="n">
-        <v>10.9636303358094</v>
+        <v>11.0057302504065</v>
       </c>
       <c r="C87" t="n">
-        <v>11.8250561541885</v>
+        <v>11.4791453242092</v>
       </c>
       <c r="D87" t="n">
-        <v>11.3623554806529</v>
+        <v>12.9066044728453</v>
       </c>
       <c r="E87" t="n">
-        <v>12.6187475746725</v>
+        <v>12.19266666596</v>
       </c>
       <c r="F87" t="n">
-        <v>12.5032752201918</v>
+        <v>14.6978642949402</v>
       </c>
       <c r="G87" t="n">
-        <v>13.0499300406108</v>
+        <v>12.7446619233687</v>
       </c>
       <c r="H87" t="n">
-        <v>13.593571566054</v>
+        <v>11.8580404894175</v>
       </c>
       <c r="I87" t="n">
-        <v>11.8282475103824</v>
+        <v>11.1693384223271</v>
       </c>
       <c r="J87" t="n">
-        <v>10.3389647980085</v>
+        <v>10.8053812046701</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-4.68643129202402</v>
+        <v>10.2992887853767</v>
       </c>
       <c r="B88" t="n">
-        <v>-5.00503256005716</v>
+        <v>12.4251610044879</v>
       </c>
       <c r="C88" t="n">
-        <v>-5.41411280862494</v>
+        <v>11.5015838890114</v>
       </c>
       <c r="D88" t="n">
-        <v>-4.91411412151595</v>
+        <v>11.4360340948235</v>
       </c>
       <c r="E88" t="n">
-        <v>-3.91252884795663</v>
+        <v>13.4428065294737</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.32793573875934</v>
+        <v>12.3686003099114</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.04815268090191</v>
+        <v>12.4602001965921</v>
       </c>
       <c r="H88" t="n">
-        <v>1.01478099133112</v>
+        <v>11.0343237376958</v>
       </c>
       <c r="I88" t="n">
-        <v>3.46431163686465</v>
+        <v>12.2324250914637</v>
       </c>
       <c r="J88" t="n">
-        <v>7.01605713139202</v>
+        <v>11.3197496893547</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>11.6639254754689</v>
+        <v>10.0202558622521</v>
       </c>
       <c r="B89" t="n">
-        <v>11.5434079222397</v>
+        <v>11.6454879129965</v>
       </c>
       <c r="C89" t="n">
-        <v>11.4261967316548</v>
+        <v>10.2720062625658</v>
       </c>
       <c r="D89" t="n">
-        <v>13.2573729229209</v>
+        <v>11.2682289068259</v>
       </c>
       <c r="E89" t="n">
-        <v>11.5834035817443</v>
+        <v>11.8644951689989</v>
       </c>
       <c r="F89" t="n">
-        <v>12.4770775887042</v>
+        <v>12.73017869755</v>
       </c>
       <c r="G89" t="n">
-        <v>13.9457220414272</v>
+        <v>12.5159991319143</v>
       </c>
       <c r="H89" t="n">
-        <v>10.9405313132185</v>
+        <v>10.7406110225753</v>
       </c>
       <c r="I89" t="n">
-        <v>12.1085413576181</v>
+        <v>10.1948679733117</v>
       </c>
       <c r="J89" t="n">
-        <v>10.245252738085</v>
+        <v>10.8312760882052</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11.4340058585608</v>
+        <v>9.91077922160012</v>
       </c>
       <c r="B90" t="n">
-        <v>9.98214772548707</v>
+        <v>10.7245397086379</v>
       </c>
       <c r="C90" t="n">
-        <v>12.4140780912426</v>
+        <v>12.1767166345671</v>
       </c>
       <c r="D90" t="n">
-        <v>11.489902086467</v>
+        <v>12.7350753018033</v>
       </c>
       <c r="E90" t="n">
-        <v>12.7784269115303</v>
+        <v>13.5272729655667</v>
       </c>
       <c r="F90" t="n">
-        <v>11.2524374989412</v>
+        <v>13.1116830951401</v>
       </c>
       <c r="G90" t="n">
-        <v>12.2495200652337</v>
+        <v>12.4181949794267</v>
       </c>
       <c r="H90" t="n">
-        <v>11.1408029411808</v>
+        <v>12.1460823866836</v>
       </c>
       <c r="I90" t="n">
-        <v>10.0476292868359</v>
+        <v>10.0680463793674</v>
       </c>
       <c r="J90" t="n">
-        <v>10.9600183756182</v>
+        <v>12.0180926386902</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9.60646581611718</v>
+        <v>9.27885354043618</v>
       </c>
       <c r="B91" t="n">
-        <v>11.1920460007518</v>
+        <v>13.3447265810272</v>
       </c>
       <c r="C91" t="n">
-        <v>11.7485317943364</v>
+        <v>10.0978483105168</v>
       </c>
       <c r="D91" t="n">
-        <v>12.7709695136278</v>
+        <v>11.9593266411295</v>
       </c>
       <c r="E91" t="n">
-        <v>12.35419400397</v>
+        <v>12.3940969051983</v>
       </c>
       <c r="F91" t="n">
-        <v>12.4748687326682</v>
+        <v>12.2877077928042</v>
       </c>
       <c r="G91" t="n">
-        <v>12.2176551811792</v>
+        <v>12.2130630985436</v>
       </c>
       <c r="H91" t="n">
-        <v>11.1096985904993</v>
+        <v>11.4752352151314</v>
       </c>
       <c r="I91" t="n">
-        <v>12.0498671528853</v>
+        <v>11.3081022496192</v>
       </c>
       <c r="J91" t="n">
-        <v>10.8887839203713</v>
+        <v>10.320816733376</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.24675550625398</v>
+        <v>-4.75811644224649</v>
       </c>
       <c r="B92" t="n">
-        <v>11.0185932903503</v>
+        <v>-4.96669398445921</v>
       </c>
       <c r="C92" t="n">
-        <v>12.0323031109707</v>
+        <v>-5.12567285268633</v>
       </c>
       <c r="D92" t="n">
-        <v>12.220923126384</v>
+        <v>-4.36614292614621</v>
       </c>
       <c r="E92" t="n">
-        <v>11.8893043163313</v>
+        <v>-4.24426003767589</v>
       </c>
       <c r="F92" t="n">
-        <v>11.2044980137491</v>
+        <v>-2.55376772132344</v>
       </c>
       <c r="G92" t="n">
-        <v>12.6923042189168</v>
+        <v>-0.854569446836428</v>
       </c>
       <c r="H92" t="n">
-        <v>11.2356293215033</v>
+        <v>1.12585332663398</v>
       </c>
       <c r="I92" t="n">
-        <v>11.4951286020309</v>
+        <v>3.59444146427914</v>
       </c>
       <c r="J92" t="n">
-        <v>11.3304575739583</v>
+        <v>6.30531050017022</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.2345597061772</v>
+        <v>-5.1072036839071</v>
       </c>
       <c r="B93" t="n">
-        <v>11.3380376995617</v>
+        <v>-5.4767177892485</v>
       </c>
       <c r="C93" t="n">
-        <v>11.974170481721</v>
+        <v>-5.16596847661524</v>
       </c>
       <c r="D93" t="n">
-        <v>10.8730404080004</v>
+        <v>-4.78072119861178</v>
       </c>
       <c r="E93" t="n">
-        <v>12.6197110225258</v>
+        <v>-3.57761335373121</v>
       </c>
       <c r="F93" t="n">
-        <v>11.8840853817475</v>
+        <v>-2.26701378171071</v>
       </c>
       <c r="G93" t="n">
-        <v>13.3645447105566</v>
+        <v>-1.07356367596456</v>
       </c>
       <c r="H93" t="n">
-        <v>12.989280879324</v>
+        <v>1.16003802659085</v>
       </c>
       <c r="I93" t="n">
-        <v>11.4617393286071</v>
+        <v>3.553583034247</v>
       </c>
       <c r="J93" t="n">
-        <v>10.9583391601663</v>
+        <v>6.7584420320234</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-5.02768936325455</v>
+        <v>10.0535686962698</v>
       </c>
       <c r="B94" t="n">
-        <v>-5.48426234161498</v>
+        <v>10.3432611306249</v>
       </c>
       <c r="C94" t="n">
-        <v>-5.13112575046003</v>
+        <v>11.3388162348111</v>
       </c>
       <c r="D94" t="n">
-        <v>-5.08097723589225</v>
+        <v>11.6509540159763</v>
       </c>
       <c r="E94" t="n">
-        <v>-3.97148615244301</v>
+        <v>12.3857075797249</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.61142507181868</v>
+        <v>11.1497920104159</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.791483899715897</v>
+        <v>12.2549691901997</v>
       </c>
       <c r="H94" t="n">
-        <v>1.33783629674798</v>
+        <v>11.42474552044</v>
       </c>
       <c r="I94" t="n">
-        <v>3.91163823871304</v>
+        <v>10.7915249830439</v>
       </c>
       <c r="J94" t="n">
-        <v>6.10557592505971</v>
+        <v>11.3736480726512</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10.7250810031054</v>
+        <v>8.92187381396808</v>
       </c>
       <c r="B95" t="n">
-        <v>11.9066646835308</v>
+        <v>10.3527730445733</v>
       </c>
       <c r="C95" t="n">
-        <v>11.8608590481171</v>
+        <v>9.70296636339523</v>
       </c>
       <c r="D95" t="n">
-        <v>12.3443698948604</v>
+        <v>12.4151821721182</v>
       </c>
       <c r="E95" t="n">
-        <v>12.4400861953319</v>
+        <v>13.0004782402747</v>
       </c>
       <c r="F95" t="n">
-        <v>12.675152024292</v>
+        <v>12.6953559932013</v>
       </c>
       <c r="G95" t="n">
-        <v>11.3591882390734</v>
+        <v>13.2680540675624</v>
       </c>
       <c r="H95" t="n">
-        <v>11.5239928095979</v>
+        <v>13.5842541733032</v>
       </c>
       <c r="I95" t="n">
-        <v>11.2856775937708</v>
+        <v>11.0306762817078</v>
       </c>
       <c r="J95" t="n">
-        <v>9.93798135397743</v>
+        <v>10.6836019978891</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-5.28302400471583</v>
+        <v>9.0509384167226</v>
       </c>
       <c r="B96" t="n">
-        <v>-5.49945676272305</v>
+        <v>11.7713732705266</v>
       </c>
       <c r="C96" t="n">
-        <v>-5.25635421322182</v>
+        <v>11.4372072346269</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.52184960530945</v>
+        <v>12.7898221063458</v>
       </c>
       <c r="E96" t="n">
-        <v>-3.75789022293926</v>
+        <v>11.5406875962005</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.46980179814049</v>
+        <v>13.1738024887714</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.741580443915664</v>
+        <v>14.2402699764688</v>
       </c>
       <c r="H96" t="n">
-        <v>1.59770603411207</v>
+        <v>13.3749247094456</v>
       </c>
       <c r="I96" t="n">
-        <v>4.17742101072303</v>
+        <v>11.7724749722765</v>
       </c>
       <c r="J96" t="n">
-        <v>6.65596912922453</v>
+        <v>11.3577664863913</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10.1112736505733</v>
+        <v>9.04285678516682</v>
       </c>
       <c r="B97" t="n">
-        <v>10.8592836078832</v>
+        <v>10.3799906164655</v>
       </c>
       <c r="C97" t="n">
-        <v>12.0739367161165</v>
+        <v>11.2338248876436</v>
       </c>
       <c r="D97" t="n">
-        <v>12.7252196069634</v>
+        <v>12.3374290236744</v>
       </c>
       <c r="E97" t="n">
-        <v>11.2863139284274</v>
+        <v>13.4676325151767</v>
       </c>
       <c r="F97" t="n">
-        <v>13.323670894126</v>
+        <v>11.5537315179322</v>
       </c>
       <c r="G97" t="n">
-        <v>12.6507533762769</v>
+        <v>12.8826015443064</v>
       </c>
       <c r="H97" t="n">
-        <v>12.7432264562677</v>
+        <v>12.5246424289613</v>
       </c>
       <c r="I97" t="n">
-        <v>13.6516605175566</v>
+        <v>11.1044061956138</v>
       </c>
       <c r="J97" t="n">
-        <v>12.690513801092</v>
+        <v>12.5268385631509</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.5145912164204</v>
+        <v>10.4517056545461</v>
       </c>
       <c r="B98" t="n">
-        <v>11.6754555065149</v>
+        <v>10.7064947459029</v>
       </c>
       <c r="C98" t="n">
-        <v>12.0568918626324</v>
+        <v>11.7435854098057</v>
       </c>
       <c r="D98" t="n">
-        <v>13.5307558339931</v>
+        <v>12.5892814437667</v>
       </c>
       <c r="E98" t="n">
-        <v>13.8204764369293</v>
+        <v>12.6559416884933</v>
       </c>
       <c r="F98" t="n">
-        <v>13.4133320759357</v>
+        <v>12.5055788210456</v>
       </c>
       <c r="G98" t="n">
-        <v>11.8736879678239</v>
+        <v>13.412095829592</v>
       </c>
       <c r="H98" t="n">
-        <v>12.5922479268773</v>
+        <v>11.8135403264795</v>
       </c>
       <c r="I98" t="n">
-        <v>11.2801176238976</v>
+        <v>11.3239653456685</v>
       </c>
       <c r="J98" t="n">
-        <v>10.6673017529899</v>
+        <v>11.4193523107228</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.93711069997749</v>
+        <v>10.1072708116725</v>
       </c>
       <c r="B99" t="n">
-        <v>10.5304910377105</v>
+        <v>10.7060173753574</v>
       </c>
       <c r="C99" t="n">
-        <v>12.2738821518659</v>
+        <v>12.1603126477801</v>
       </c>
       <c r="D99" t="n">
-        <v>13.1003537463826</v>
+        <v>11.5183563578109</v>
       </c>
       <c r="E99" t="n">
-        <v>12.0039622886412</v>
+        <v>12.1323835369066</v>
       </c>
       <c r="F99" t="n">
-        <v>11.4383691088865</v>
+        <v>12.4234502425142</v>
       </c>
       <c r="G99" t="n">
-        <v>13.4747049956902</v>
+        <v>11.9009431423224</v>
       </c>
       <c r="H99" t="n">
-        <v>13.7249599495939</v>
+        <v>12.9959693404809</v>
       </c>
       <c r="I99" t="n">
-        <v>11.3295761721895</v>
+        <v>10.6451741929761</v>
       </c>
       <c r="J99" t="n">
-        <v>10.1999810646294</v>
+        <v>10.7868121502633</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-5.02132360124614</v>
+        <v>-4.84074586868769</v>
       </c>
       <c r="B100" t="n">
-        <v>-5.45915569225012</v>
+        <v>-4.94633619426669</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.06948031982641</v>
+        <v>-5.20325960599646</v>
       </c>
       <c r="D100" t="n">
-        <v>-4.79876990641757</v>
+        <v>-4.87068950441518</v>
       </c>
       <c r="E100" t="n">
-        <v>-3.90067560028051</v>
+        <v>-3.94812237768162</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.34592695020802</v>
+        <v>-2.49299663781874</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.645085518283316</v>
+        <v>-0.644034494827787</v>
       </c>
       <c r="H100" t="n">
-        <v>1.78745918041055</v>
+        <v>1.4351236396817</v>
       </c>
       <c r="I100" t="n">
-        <v>3.79686901852289</v>
+        <v>3.96518115361382</v>
       </c>
       <c r="J100" t="n">
-        <v>6.53057466273051</v>
+        <v>6.30286235668314</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.855842505295</v>
+        <v>-5.23943686658018</v>
       </c>
       <c r="B101" t="n">
-        <v>9.65268575396565</v>
+        <v>-5.56131918211746</v>
       </c>
       <c r="C101" t="n">
-        <v>10.6891279606815</v>
+        <v>-5.4678716678619</v>
       </c>
       <c r="D101" t="n">
-        <v>10.9093626805572</v>
+        <v>-4.7993769834132</v>
       </c>
       <c r="E101" t="n">
-        <v>12.3119852057944</v>
+        <v>-3.62218995510475</v>
       </c>
       <c r="F101" t="n">
-        <v>12.2348382176865</v>
+        <v>-2.6015044541215</v>
       </c>
       <c r="G101" t="n">
-        <v>11.3970068724121</v>
+        <v>-0.266119310366691</v>
       </c>
       <c r="H101" t="n">
-        <v>11.7005348429021</v>
+        <v>1.18620813200339</v>
       </c>
       <c r="I101" t="n">
-        <v>11.530516191249</v>
+        <v>3.36208750881653</v>
       </c>
       <c r="J101" t="n">
-        <v>11.2568555754987</v>
+        <v>6.5641197661891</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-5.3226057851025</v>
+        <v>10.0130734728315</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.54992037417497</v>
+        <v>9.814328610218</v>
       </c>
       <c r="C102" t="n">
-        <v>-5.33322419520636</v>
+        <v>11.6795224163195</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.40587399490243</v>
+        <v>10.5347864843267</v>
       </c>
       <c r="E102" t="n">
-        <v>-4.15630269369563</v>
+        <v>13.2281788050609</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.56276517246659</v>
+        <v>12.5625640719173</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6386955450225</v>
+        <v>12.9117681173016</v>
       </c>
       <c r="H102" t="n">
-        <v>1.30693554177844</v>
+        <v>12.1255442967066</v>
       </c>
       <c r="I102" t="n">
-        <v>4.13698371300875</v>
+        <v>11.7850951936881</v>
       </c>
       <c r="J102" t="n">
-        <v>6.99905754044762</v>
+        <v>11.7269345847389</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.82848613299924</v>
+        <v>10.2638582256306</v>
       </c>
       <c r="B103" t="n">
-        <v>10.710135657045</v>
+        <v>10.3449693127251</v>
       </c>
       <c r="C103" t="n">
-        <v>11.7026123851951</v>
+        <v>11.3859310141378</v>
       </c>
       <c r="D103" t="n">
-        <v>11.1814983463258</v>
+        <v>11.7574352716206</v>
       </c>
       <c r="E103" t="n">
-        <v>11.8462248105704</v>
+        <v>13.6712429339728</v>
       </c>
       <c r="F103" t="n">
-        <v>13.401286023732</v>
+        <v>13.2043942985678</v>
       </c>
       <c r="G103" t="n">
-        <v>11.9716667444616</v>
+        <v>13.5995890265365</v>
       </c>
       <c r="H103" t="n">
-        <v>11.4075116090895</v>
+        <v>12.8810852185181</v>
       </c>
       <c r="I103" t="n">
-        <v>9.81152467188176</v>
+        <v>10.9902527160109</v>
       </c>
       <c r="J103" t="n">
-        <v>11.103935369693</v>
+        <v>10.4891678015875</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>10.4084631798829</v>
+        <v>10.4282334109635</v>
       </c>
       <c r="B104" t="n">
-        <v>11.8801419401158</v>
+        <v>10.8245520092769</v>
       </c>
       <c r="C104" t="n">
-        <v>10.1869186071643</v>
+        <v>11.356893904967</v>
       </c>
       <c r="D104" t="n">
-        <v>12.3744295050597</v>
+        <v>10.8707007697664</v>
       </c>
       <c r="E104" t="n">
-        <v>12.9114457324479</v>
+        <v>13.1447357112984</v>
       </c>
       <c r="F104" t="n">
-        <v>13.1105165169255</v>
+        <v>11.5998222973693</v>
       </c>
       <c r="G104" t="n">
-        <v>12.0525910809999</v>
+        <v>12.4001919915142</v>
       </c>
       <c r="H104" t="n">
-        <v>12.0692425757659</v>
+        <v>12.0116138444777</v>
       </c>
       <c r="I104" t="n">
-        <v>11.8745511087099</v>
+        <v>11.3874053812102</v>
       </c>
       <c r="J104" t="n">
-        <v>9.86804187008286</v>
+        <v>10.8100118085893</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8.97021847370149</v>
+        <v>-5.15905494427762</v>
       </c>
       <c r="B105" t="n">
-        <v>10.9510992978014</v>
+        <v>-5.00243908623301</v>
       </c>
       <c r="C105" t="n">
-        <v>9.97431908264311</v>
+        <v>-5.26980928471558</v>
       </c>
       <c r="D105" t="n">
-        <v>11.3363781930409</v>
+        <v>-4.58410389988732</v>
       </c>
       <c r="E105" t="n">
-        <v>12.8559996417952</v>
+        <v>-4.10138654043027</v>
       </c>
       <c r="F105" t="n">
-        <v>12.6092698970461</v>
+        <v>-2.71971695647552</v>
       </c>
       <c r="G105" t="n">
-        <v>13.2547919873351</v>
+        <v>-0.948360170077727</v>
       </c>
       <c r="H105" t="n">
-        <v>11.4892935043642</v>
+        <v>1.06825598716003</v>
       </c>
       <c r="I105" t="n">
-        <v>10.9511015684905</v>
+        <v>3.01714721571704</v>
       </c>
       <c r="J105" t="n">
-        <v>10.25570403044</v>
+        <v>6.57764936414586</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-5.22957111577241</v>
+        <v>9.47020747276818</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.47391127995641</v>
+        <v>11.0807607453129</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.53063493559543</v>
+        <v>10.745615802459</v>
       </c>
       <c r="D106" t="n">
-        <v>-4.43629690414972</v>
+        <v>11.8942950629508</v>
       </c>
       <c r="E106" t="n">
-        <v>-3.75475503575221</v>
+        <v>12.5886935637174</v>
       </c>
       <c r="F106" t="n">
-        <v>-3.00755275442572</v>
+        <v>12.6125785528799</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.943239750760249</v>
+        <v>12.5659936554446</v>
       </c>
       <c r="H106" t="n">
-        <v>1.43269086786956</v>
+        <v>11.7525171303965</v>
       </c>
       <c r="I106" t="n">
-        <v>4.00582504788778</v>
+        <v>11.753551192568</v>
       </c>
       <c r="J106" t="n">
-        <v>6.66226742609608</v>
+        <v>9.60347013784867</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.4481838171564</v>
+        <v>9.41499350029824</v>
       </c>
       <c r="B107" t="n">
-        <v>10.8529422556777</v>
+        <v>11.5595717193082</v>
       </c>
       <c r="C107" t="n">
-        <v>10.9291553436781</v>
+        <v>11.4693196536723</v>
       </c>
       <c r="D107" t="n">
-        <v>11.5580318725449</v>
+        <v>11.5275752261846</v>
       </c>
       <c r="E107" t="n">
-        <v>12.1124312930392</v>
+        <v>10.9115598897718</v>
       </c>
       <c r="F107" t="n">
-        <v>11.7301977628335</v>
+        <v>12.6673205582118</v>
       </c>
       <c r="G107" t="n">
-        <v>12.0921921107583</v>
+        <v>14.8274762600539</v>
       </c>
       <c r="H107" t="n">
-        <v>11.0174439676431</v>
+        <v>11.2863204857096</v>
       </c>
       <c r="I107" t="n">
-        <v>10.1096278621232</v>
+        <v>11.1821349393677</v>
       </c>
       <c r="J107" t="n">
-        <v>10.8082053963063</v>
+        <v>11.6287145218047</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.12527463632014</v>
+        <v>-5.2203942957785</v>
       </c>
       <c r="B108" t="n">
-        <v>10.6968313322988</v>
+        <v>-5.61524940898918</v>
       </c>
       <c r="C108" t="n">
-        <v>11.2880311905735</v>
+        <v>-5.01069676017597</v>
       </c>
       <c r="D108" t="n">
-        <v>11.9113228093593</v>
+        <v>-4.1533264534111</v>
       </c>
       <c r="E108" t="n">
-        <v>13.0416491045602</v>
+        <v>-3.49492371274981</v>
       </c>
       <c r="F108" t="n">
-        <v>13.2901629344363</v>
+        <v>-2.74581395397338</v>
       </c>
       <c r="G108" t="n">
-        <v>12.7139086565728</v>
+        <v>-1.12326494600126</v>
       </c>
       <c r="H108" t="n">
-        <v>11.2052068381969</v>
+        <v>1.65682218161185</v>
       </c>
       <c r="I108" t="n">
-        <v>11.9352976099447</v>
+        <v>3.52711468285823</v>
       </c>
       <c r="J108" t="n">
-        <v>10.7981195129817</v>
+        <v>6.76158549224017</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.25351946039062</v>
+        <v>-4.95051014291332</v>
       </c>
       <c r="B109" t="n">
-        <v>12.3639938746792</v>
+        <v>-5.37538562589093</v>
       </c>
       <c r="C109" t="n">
-        <v>10.3475711692189</v>
+        <v>-4.908558839815</v>
       </c>
       <c r="D109" t="n">
-        <v>12.5881073463997</v>
+        <v>-4.85266780834149</v>
       </c>
       <c r="E109" t="n">
-        <v>12.006704434143</v>
+        <v>-3.60519244445779</v>
       </c>
       <c r="F109" t="n">
-        <v>12.7617943836772</v>
+        <v>-2.73856570443494</v>
       </c>
       <c r="G109" t="n">
-        <v>10.9380650757034</v>
+        <v>-0.962986190803238</v>
       </c>
       <c r="H109" t="n">
-        <v>12.0427688728209</v>
+        <v>1.41185125522049</v>
       </c>
       <c r="I109" t="n">
-        <v>12.0414256155361</v>
+        <v>3.84375559591056</v>
       </c>
       <c r="J109" t="n">
-        <v>10.0948979083122</v>
+        <v>6.58751599810906</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.303797948857</v>
+        <v>-4.82545092581732</v>
       </c>
       <c r="B110" t="n">
-        <v>10.8528342148952</v>
+        <v>-4.96624180443844</v>
       </c>
       <c r="C110" t="n">
-        <v>12.2247711040936</v>
+        <v>-5.54570203741</v>
       </c>
       <c r="D110" t="n">
-        <v>12.9285907068237</v>
+        <v>-4.86723128442281</v>
       </c>
       <c r="E110" t="n">
-        <v>13.3139818274571</v>
+        <v>-3.68953351610332</v>
       </c>
       <c r="F110" t="n">
-        <v>11.5895737216608</v>
+        <v>-2.38558141514442</v>
       </c>
       <c r="G110" t="n">
-        <v>12.4517562793307</v>
+        <v>-0.877112277063485</v>
       </c>
       <c r="H110" t="n">
-        <v>12.1957372069962</v>
+        <v>1.78094524287075</v>
       </c>
       <c r="I110" t="n">
-        <v>13.1433913480788</v>
+        <v>4.06693679740075</v>
       </c>
       <c r="J110" t="n">
-        <v>11.82784950538</v>
+        <v>7.02342250342756</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-5.05272650403662</v>
+        <v>-5.02141778780699</v>
       </c>
       <c r="B111" t="n">
-        <v>-4.78775041308795</v>
+        <v>-5.2550620658651</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.77725815544833</v>
+        <v>-5.00078346149696</v>
       </c>
       <c r="D111" t="n">
-        <v>-4.85587366667066</v>
+        <v>-4.13766371130366</v>
       </c>
       <c r="E111" t="n">
-        <v>-3.59551389350958</v>
+        <v>-3.99670929804207</v>
       </c>
       <c r="F111" t="n">
-        <v>-2.48277971226796</v>
+        <v>-2.87386681395583</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.757073788951952</v>
+        <v>-0.799610715858955</v>
       </c>
       <c r="H111" t="n">
-        <v>1.33755411580033</v>
+        <v>1.42856517518499</v>
       </c>
       <c r="I111" t="n">
-        <v>3.95347218693912</v>
+        <v>4.08277619011015</v>
       </c>
       <c r="J111" t="n">
-        <v>6.36703916657837</v>
+        <v>6.73038188382518</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-4.89974419373232</v>
+        <v>8.99387650762321</v>
       </c>
       <c r="B112" t="n">
-        <v>-5.14918173405339</v>
+        <v>10.9732499264826</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.13372169735303</v>
+        <v>12.7462421267254</v>
       </c>
       <c r="D112" t="n">
-        <v>-4.3844267448454</v>
+        <v>12.8309653866391</v>
       </c>
       <c r="E112" t="n">
-        <v>-3.82504972368828</v>
+        <v>12.507553810103</v>
       </c>
       <c r="F112" t="n">
-        <v>-2.69844205031462</v>
+        <v>12.7933989530214</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.737684787658279</v>
+        <v>12.3998898608146</v>
       </c>
       <c r="H112" t="n">
-        <v>1.22804695824265</v>
+        <v>12.5711401166255</v>
       </c>
       <c r="I112" t="n">
-        <v>3.86533050306111</v>
+        <v>11.7186765409385</v>
       </c>
       <c r="J112" t="n">
-        <v>7.17750995593734</v>
+        <v>10.2862709934472</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-4.78816172710012</v>
+        <v>9.17162314298047</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.09370499240304</v>
+        <v>10.5652303333223</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.14472369626636</v>
+        <v>11.9085508538924</v>
       </c>
       <c r="D113" t="n">
-        <v>-4.56137759971906</v>
+        <v>11.3206903115606</v>
       </c>
       <c r="E113" t="n">
-        <v>-3.36512605212445</v>
+        <v>12.079689558948</v>
       </c>
       <c r="F113" t="n">
-        <v>-2.70556804413756</v>
+        <v>12.8212683597417</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.545620983376761</v>
+        <v>11.5571965500544</v>
       </c>
       <c r="H113" t="n">
-        <v>1.70978559712695</v>
+        <v>13.3959478807242</v>
       </c>
       <c r="I113" t="n">
-        <v>3.46732942930463</v>
+        <v>9.9772018153753</v>
       </c>
       <c r="J113" t="n">
-        <v>6.57743321436368</v>
+        <v>10.0403594139664</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-5.20848117847661</v>
+        <v>9.85742271658929</v>
       </c>
       <c r="B114" t="n">
-        <v>-5.76882030598651</v>
+        <v>12.2223570841469</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.13464349517814</v>
+        <v>12.6525155923797</v>
       </c>
       <c r="D114" t="n">
-        <v>-4.53747803148355</v>
+        <v>12.4016409350193</v>
       </c>
       <c r="E114" t="n">
-        <v>-3.90415169721661</v>
+        <v>12.3722726852103</v>
       </c>
       <c r="F114" t="n">
-        <v>-2.44413585594943</v>
+        <v>12.6597937394942</v>
       </c>
       <c r="G114" t="n">
-        <v>-1.02617897528104</v>
+        <v>12.7903635945559</v>
       </c>
       <c r="H114" t="n">
-        <v>1.38351842800477</v>
+        <v>12.4998928606783</v>
       </c>
       <c r="I114" t="n">
-        <v>3.72401384625169</v>
+        <v>11.1130245109037</v>
       </c>
       <c r="J114" t="n">
-        <v>6.65702068602097</v>
+        <v>11.04724433371</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9.53656272769405</v>
+        <v>9.83070876971765</v>
       </c>
       <c r="B115" t="n">
-        <v>10.2620086015096</v>
+        <v>11.8491591151468</v>
       </c>
       <c r="C115" t="n">
-        <v>12.0199630128781</v>
+        <v>12.1355152149092</v>
       </c>
       <c r="D115" t="n">
-        <v>11.4395082061686</v>
+        <v>12.6122135401746</v>
       </c>
       <c r="E115" t="n">
-        <v>10.7045652891951</v>
+        <v>12.0868799197139</v>
       </c>
       <c r="F115" t="n">
-        <v>13.2051524506459</v>
+        <v>13.5339791838634</v>
       </c>
       <c r="G115" t="n">
-        <v>13.1798838290719</v>
+        <v>12.7383392885918</v>
       </c>
       <c r="H115" t="n">
-        <v>10.8895199419158</v>
+        <v>11.762527392784</v>
       </c>
       <c r="I115" t="n">
-        <v>10.9276918016787</v>
+        <v>10.2383663057378</v>
       </c>
       <c r="J115" t="n">
-        <v>11.702891024656</v>
+        <v>11.0898110141591</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.1399430852202</v>
+        <v>9.86434767010008</v>
       </c>
       <c r="B116" t="n">
-        <v>12.3483829595412</v>
+        <v>10.7429707378486</v>
       </c>
       <c r="C116" t="n">
-        <v>11.3425684359128</v>
+        <v>11.3766517553585</v>
       </c>
       <c r="D116" t="n">
-        <v>11.3126549870041</v>
+        <v>12.3111314988976</v>
       </c>
       <c r="E116" t="n">
-        <v>12.8520701259166</v>
+        <v>10.7472780299008</v>
       </c>
       <c r="F116" t="n">
-        <v>11.3984093568473</v>
+        <v>11.9785416343418</v>
       </c>
       <c r="G116" t="n">
-        <v>13.3626193668589</v>
+        <v>12.0438086431669</v>
       </c>
       <c r="H116" t="n">
-        <v>12.917875792258</v>
+        <v>11.2093936345052</v>
       </c>
       <c r="I116" t="n">
-        <v>11.076683160021</v>
+        <v>11.7881938627019</v>
       </c>
       <c r="J116" t="n">
-        <v>12.3205072649261</v>
+        <v>10.619241327128</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.3827215746772</v>
+        <v>-5.09964251227431</v>
       </c>
       <c r="B117" t="n">
-        <v>10.4963140453413</v>
+        <v>-5.18927703395865</v>
       </c>
       <c r="C117" t="n">
-        <v>11.5146859270392</v>
+        <v>-4.98559882010166</v>
       </c>
       <c r="D117" t="n">
-        <v>12.1419750606543</v>
+        <v>-4.75403798290955</v>
       </c>
       <c r="E117" t="n">
-        <v>11.4595972375877</v>
+        <v>-3.84182539768555</v>
       </c>
       <c r="F117" t="n">
-        <v>12.5743850952976</v>
+        <v>-2.4357548536306</v>
       </c>
       <c r="G117" t="n">
-        <v>10.9289718137193</v>
+        <v>-1.02055924693478</v>
       </c>
       <c r="H117" t="n">
-        <v>11.8277893570951</v>
+        <v>1.21700544065229</v>
       </c>
       <c r="I117" t="n">
-        <v>11.8937749836235</v>
+        <v>3.91593624702508</v>
       </c>
       <c r="J117" t="n">
-        <v>10.3565128705706</v>
+        <v>6.8521310975113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.39229879076343</v>
+        <v>9.928356928358</v>
       </c>
       <c r="B118" t="n">
-        <v>10.4534365545531</v>
+        <v>10.955669324943</v>
       </c>
       <c r="C118" t="n">
-        <v>11.1153416736161</v>
+        <v>13.2851054112129</v>
       </c>
       <c r="D118" t="n">
-        <v>11.8517956398659</v>
+        <v>12.2497673349145</v>
       </c>
       <c r="E118" t="n">
-        <v>12.6621991759214</v>
+        <v>13.0692512122628</v>
       </c>
       <c r="F118" t="n">
-        <v>12.8054122309654</v>
+        <v>12.6192786728965</v>
       </c>
       <c r="G118" t="n">
-        <v>12.8157382396136</v>
+        <v>12.8917196525265</v>
       </c>
       <c r="H118" t="n">
-        <v>13.1985694396614</v>
+        <v>12.013011338365</v>
       </c>
       <c r="I118" t="n">
-        <v>11.0225463846216</v>
+        <v>12.8235598917705</v>
       </c>
       <c r="J118" t="n">
-        <v>9.88437225637791</v>
+        <v>9.34936897676883</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8.92121374558619</v>
+        <v>10.9348038618819</v>
       </c>
       <c r="B119" t="n">
-        <v>10.7353218185032</v>
+        <v>11.0300638125622</v>
       </c>
       <c r="C119" t="n">
-        <v>12.3813730178742</v>
+        <v>11.2013272713961</v>
       </c>
       <c r="D119" t="n">
-        <v>11.467911999825</v>
+        <v>11.4255028580252</v>
       </c>
       <c r="E119" t="n">
-        <v>11.750483442419</v>
+        <v>12.768441827494</v>
       </c>
       <c r="F119" t="n">
-        <v>12.5700738289818</v>
+        <v>12.9661062140676</v>
       </c>
       <c r="G119" t="n">
-        <v>12.4911629439605</v>
+        <v>12.2044688489405</v>
       </c>
       <c r="H119" t="n">
-        <v>11.3124546829401</v>
+        <v>13.1723374424894</v>
       </c>
       <c r="I119" t="n">
-        <v>11.2374246367536</v>
+        <v>11.2289731079371</v>
       </c>
       <c r="J119" t="n">
-        <v>9.77329630054942</v>
+        <v>11.3026736685419</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10.4810274208413</v>
+        <v>10.1605447863442</v>
       </c>
       <c r="B120" t="n">
-        <v>10.907678407057</v>
+        <v>11.9536467882063</v>
       </c>
       <c r="C120" t="n">
-        <v>12.2788897832237</v>
+        <v>12.2408689827113</v>
       </c>
       <c r="D120" t="n">
-        <v>11.8481393800276</v>
+        <v>11.7635128055664</v>
       </c>
       <c r="E120" t="n">
-        <v>12.0654562811818</v>
+        <v>12.9112944592392</v>
       </c>
       <c r="F120" t="n">
-        <v>12.2762424426697</v>
+        <v>11.5656848827763</v>
       </c>
       <c r="G120" t="n">
-        <v>12.1834846942995</v>
+        <v>11.9482056768867</v>
       </c>
       <c r="H120" t="n">
-        <v>11.6821723597914</v>
+        <v>12.6698380734217</v>
       </c>
       <c r="I120" t="n">
-        <v>12.0028844585768</v>
+        <v>12.1755991012146</v>
       </c>
       <c r="J120" t="n">
-        <v>11.0734504601163</v>
+        <v>10.9833733276389</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.9269011247293</v>
+        <v>10.0377582910638</v>
       </c>
       <c r="B121" t="n">
-        <v>10.5278168541787</v>
+        <v>12.3339500234118</v>
       </c>
       <c r="C121" t="n">
-        <v>12.1709989678367</v>
+        <v>12.6538997176336</v>
       </c>
       <c r="D121" t="n">
-        <v>12.1097399953118</v>
+        <v>11.0446272665276</v>
       </c>
       <c r="E121" t="n">
-        <v>11.6578493805677</v>
+        <v>12.7045441064834</v>
       </c>
       <c r="F121" t="n">
-        <v>12.8880135284831</v>
+        <v>12.6135880756107</v>
       </c>
       <c r="G121" t="n">
-        <v>12.7709336494344</v>
+        <v>13.5062001867983</v>
       </c>
       <c r="H121" t="n">
-        <v>11.3351979990441</v>
+        <v>11.4765250570163</v>
       </c>
       <c r="I121" t="n">
-        <v>12.4682676054591</v>
+        <v>12.2782674079134</v>
       </c>
       <c r="J121" t="n">
-        <v>10.0018254134871</v>
+        <v>10.8888922167528</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.271693731095</v>
+        <v>9.4870153347579</v>
       </c>
       <c r="B122" t="n">
-        <v>10.5424849974071</v>
+        <v>10.062073676115</v>
       </c>
       <c r="C122" t="n">
-        <v>10.5157958308093</v>
+        <v>11.545714197237</v>
       </c>
       <c r="D122" t="n">
-        <v>12.9159122429801</v>
+        <v>12.2024945362802</v>
       </c>
       <c r="E122" t="n">
-        <v>12.6086955420167</v>
+        <v>12.3936428132986</v>
       </c>
       <c r="F122" t="n">
-        <v>12.4737986383153</v>
+        <v>13.4274348072916</v>
       </c>
       <c r="G122" t="n">
-        <v>12.0939735763629</v>
+        <v>13.091866886645</v>
       </c>
       <c r="H122" t="n">
-        <v>11.6349042869693</v>
+        <v>10.5351126968031</v>
       </c>
       <c r="I122" t="n">
-        <v>10.9427137359765</v>
+        <v>11.5631760525513</v>
       </c>
       <c r="J122" t="n">
-        <v>11.4901555284047</v>
+        <v>11.6232328957741</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.0491103251833</v>
+        <v>11.6398068615941</v>
       </c>
       <c r="B123" t="n">
-        <v>10.0277966300684</v>
+        <v>11.932357844747</v>
       </c>
       <c r="C123" t="n">
-        <v>10.7253176238945</v>
+        <v>12.1577705219695</v>
       </c>
       <c r="D123" t="n">
-        <v>13.1750894110565</v>
+        <v>11.5632846978392</v>
       </c>
       <c r="E123" t="n">
-        <v>11.8704505873195</v>
+        <v>13.5506885978044</v>
       </c>
       <c r="F123" t="n">
-        <v>11.9968717301622</v>
+        <v>13.7325493577595</v>
       </c>
       <c r="G123" t="n">
-        <v>12.0168989670243</v>
+        <v>13.060318240873</v>
       </c>
       <c r="H123" t="n">
-        <v>11.9214650569344</v>
+        <v>12.2909955588835</v>
       </c>
       <c r="I123" t="n">
-        <v>10.803328145955</v>
+        <v>10.5022653083297</v>
       </c>
       <c r="J123" t="n">
-        <v>10.1770726075196</v>
+        <v>11.1394793236934</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.773894718507</v>
+        <v>-5.02743027167573</v>
       </c>
       <c r="B124" t="n">
-        <v>11.8328331796361</v>
+        <v>-5.7272157135899</v>
       </c>
       <c r="C124" t="n">
-        <v>11.3175736869222</v>
+        <v>-5.21214502808895</v>
       </c>
       <c r="D124" t="n">
-        <v>12.1565052313812</v>
+        <v>-4.48178951788216</v>
       </c>
       <c r="E124" t="n">
-        <v>12.20619009036</v>
+        <v>-3.6912200936563</v>
       </c>
       <c r="F124" t="n">
-        <v>12.337260856497</v>
+        <v>-2.70948964448624</v>
       </c>
       <c r="G124" t="n">
-        <v>12.6866797146296</v>
+        <v>-1.18852358132969</v>
       </c>
       <c r="H124" t="n">
-        <v>12.7721193818426</v>
+        <v>1.43316942651757</v>
       </c>
       <c r="I124" t="n">
-        <v>11.7842852178466</v>
+        <v>3.19254168156095</v>
       </c>
       <c r="J124" t="n">
-        <v>10.8102565254965</v>
+        <v>6.66598075958143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10.6288416830527</v>
+        <v>-4.83018404780123</v>
       </c>
       <c r="B125" t="n">
-        <v>10.2384572254663</v>
+        <v>-5.00847184731958</v>
       </c>
       <c r="C125" t="n">
-        <v>11.4005296309095</v>
+        <v>-5.40595450488946</v>
       </c>
       <c r="D125" t="n">
-        <v>11.0225774539967</v>
+        <v>-4.63287496974436</v>
       </c>
       <c r="E125" t="n">
-        <v>12.3575007644666</v>
+        <v>-3.35022656484479</v>
       </c>
       <c r="F125" t="n">
-        <v>12.384714879405</v>
+        <v>-2.60988594382325</v>
       </c>
       <c r="G125" t="n">
-        <v>13.1746241192088</v>
+        <v>-0.80428497696361</v>
       </c>
       <c r="H125" t="n">
-        <v>11.7118930989591</v>
+        <v>1.20888213566061</v>
       </c>
       <c r="I125" t="n">
-        <v>11.3111529975329</v>
+        <v>3.99267693735609</v>
       </c>
       <c r="J125" t="n">
-        <v>10.5826610206443</v>
+        <v>7.06803137191634</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8.41620134997476</v>
+        <v>10.5405724683061</v>
       </c>
       <c r="B126" t="n">
-        <v>10.2525957986895</v>
+        <v>10.7763195360216</v>
       </c>
       <c r="C126" t="n">
-        <v>11.3759571813458</v>
+        <v>11.5079756903128</v>
       </c>
       <c r="D126" t="n">
-        <v>12.4596508227581</v>
+        <v>12.9400646790452</v>
       </c>
       <c r="E126" t="n">
-        <v>13.8965970074921</v>
+        <v>12.4520007780289</v>
       </c>
       <c r="F126" t="n">
-        <v>11.5385595187834</v>
+        <v>11.8950776340487</v>
       </c>
       <c r="G126" t="n">
-        <v>11.3859688263262</v>
+        <v>12.8518891613362</v>
       </c>
       <c r="H126" t="n">
-        <v>13.4944496857489</v>
+        <v>11.3131387897714</v>
       </c>
       <c r="I126" t="n">
-        <v>11.4944616140431</v>
+        <v>11.127320531587</v>
       </c>
       <c r="J126" t="n">
-        <v>11.3646069733261</v>
+        <v>12.0111286977877</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-5.02276416263128</v>
+        <v>10.0327177110009</v>
       </c>
       <c r="B127" t="n">
-        <v>-5.04492227228184</v>
+        <v>11.9554242550968</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.16132777800311</v>
+        <v>12.4466677691693</v>
       </c>
       <c r="D127" t="n">
-        <v>-4.42591230703587</v>
+        <v>13.6533950232426</v>
       </c>
       <c r="E127" t="n">
-        <v>-4.0127604447556</v>
+        <v>13.3042343009384</v>
       </c>
       <c r="F127" t="n">
-        <v>-2.6455238503413</v>
+        <v>12.6458943004023</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.495481459306872</v>
+        <v>12.7955453271141</v>
       </c>
       <c r="H127" t="n">
-        <v>1.28610401339046</v>
+        <v>11.6152687817426</v>
       </c>
       <c r="I127" t="n">
-        <v>3.86902527489993</v>
+        <v>9.44079174674005</v>
       </c>
       <c r="J127" t="n">
-        <v>6.45545098415673</v>
+        <v>10.407550837065</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>11.2896334552237</v>
+        <v>10.3552826243783</v>
       </c>
       <c r="B128" t="n">
-        <v>9.86592280969246</v>
+        <v>10.4616999534073</v>
       </c>
       <c r="C128" t="n">
-        <v>11.8958731461544</v>
+        <v>11.4104452895385</v>
       </c>
       <c r="D128" t="n">
-        <v>13.6848843457695</v>
+        <v>12.3153392211346</v>
       </c>
       <c r="E128" t="n">
-        <v>12.7443072854083</v>
+        <v>12.1711722778104</v>
       </c>
       <c r="F128" t="n">
-        <v>12.0665244267239</v>
+        <v>12.721502150608</v>
       </c>
       <c r="G128" t="n">
-        <v>12.2849554089257</v>
+        <v>12.2270618449764</v>
       </c>
       <c r="H128" t="n">
-        <v>10.6445396748544</v>
+        <v>12.3725555711633</v>
       </c>
       <c r="I128" t="n">
-        <v>11.8881664259859</v>
+        <v>10.6490703951167</v>
       </c>
       <c r="J128" t="n">
-        <v>10.1000957690513</v>
+        <v>10.5815167660807</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-5.07304419838303</v>
+        <v>9.71389044062448</v>
       </c>
       <c r="B129" t="n">
-        <v>-5.17977491187849</v>
+        <v>12.0295759493145</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.22672635308025</v>
+        <v>11.3751579387372</v>
       </c>
       <c r="D129" t="n">
-        <v>-4.5562442770062</v>
+        <v>11.046872042056</v>
       </c>
       <c r="E129" t="n">
-        <v>-3.51948756406822</v>
+        <v>11.0183524549245</v>
       </c>
       <c r="F129" t="n">
-        <v>-2.46888146711234</v>
+        <v>11.9465170088724</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.603108645264024</v>
+        <v>11.9360154292745</v>
       </c>
       <c r="H129" t="n">
-        <v>1.41315015411149</v>
+        <v>12.0997712017745</v>
       </c>
       <c r="I129" t="n">
-        <v>4.21010625152632</v>
+        <v>11.3264040266713</v>
       </c>
       <c r="J129" t="n">
-        <v>6.91604775497103</v>
+        <v>10.5366664180478</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-4.88156761161984</v>
+        <v>-4.69170040483124</v>
       </c>
       <c r="B130" t="n">
-        <v>-4.60883460370667</v>
+        <v>-5.27807700131539</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.54654491383472</v>
+        <v>-5.28254370375409</v>
       </c>
       <c r="D130" t="n">
-        <v>-4.52538650481347</v>
+        <v>-4.68464830791247</v>
       </c>
       <c r="E130" t="n">
-        <v>-3.77415915898212</v>
+        <v>-3.65797008085245</v>
       </c>
       <c r="F130" t="n">
-        <v>-2.20447648504519</v>
+        <v>-2.2111897450454</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.644786948510186</v>
+        <v>-0.523241179152409</v>
       </c>
       <c r="H130" t="n">
-        <v>1.00189422345651</v>
+        <v>1.18699550319191</v>
       </c>
       <c r="I130" t="n">
-        <v>3.58508048588364</v>
+        <v>3.51591083992537</v>
       </c>
       <c r="J130" t="n">
-        <v>6.31452305746352</v>
+        <v>6.46908953427107</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.6518186045459</v>
+        <v>9.90902305151134</v>
       </c>
       <c r="B131" t="n">
-        <v>11.6236907592614</v>
+        <v>12.7621514795085</v>
       </c>
       <c r="C131" t="n">
-        <v>12.3905763912525</v>
+        <v>10.3568520828087</v>
       </c>
       <c r="D131" t="n">
-        <v>11.2917959612595</v>
+        <v>11.5580737954467</v>
       </c>
       <c r="E131" t="n">
-        <v>11.9120245687398</v>
+        <v>12.7214256702187</v>
       </c>
       <c r="F131" t="n">
-        <v>13.049268191197</v>
+        <v>12.1549732570281</v>
       </c>
       <c r="G131" t="n">
-        <v>12.4241090253785</v>
+        <v>12.5561655397489</v>
       </c>
       <c r="H131" t="n">
-        <v>10.9639823166921</v>
+        <v>12.0480037795672</v>
       </c>
       <c r="I131" t="n">
-        <v>11.3794554032993</v>
+        <v>11.6499155096818</v>
       </c>
       <c r="J131" t="n">
-        <v>11.2603858013869</v>
+        <v>10.7202732994026</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.5256589209436</v>
+        <v>9.44647111687358</v>
       </c>
       <c r="B132" t="n">
-        <v>10.7627635748449</v>
+        <v>10.2394296266097</v>
       </c>
       <c r="C132" t="n">
-        <v>11.9954096692449</v>
+        <v>11.4682946651013</v>
       </c>
       <c r="D132" t="n">
-        <v>12.2169864835791</v>
+        <v>12.6149577596234</v>
       </c>
       <c r="E132" t="n">
-        <v>12.5409556360477</v>
+        <v>11.2975930383259</v>
       </c>
       <c r="F132" t="n">
-        <v>12.178464370668</v>
+        <v>11.6227777516746</v>
       </c>
       <c r="G132" t="n">
-        <v>12.8642841414963</v>
+        <v>11.1654426693214</v>
       </c>
       <c r="H132" t="n">
-        <v>12.4534553628632</v>
+        <v>12.9515237578972</v>
       </c>
       <c r="I132" t="n">
-        <v>12.5361034330631</v>
+        <v>11.4100729314672</v>
       </c>
       <c r="J132" t="n">
-        <v>10.5593017906815</v>
+        <v>10.9182283551627</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-5.16814404711354</v>
+        <v>9.97219897742629</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.29966068252771</v>
+        <v>10.8854284855547</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.29220274863139</v>
+        <v>11.7426134800789</v>
       </c>
       <c r="D133" t="n">
-        <v>-4.43654065796579</v>
+        <v>11.8397912457116</v>
       </c>
       <c r="E133" t="n">
-        <v>-3.66117884062938</v>
+        <v>12.5310128240698</v>
       </c>
       <c r="F133" t="n">
-        <v>-2.26316010705853</v>
+        <v>13.0036238431976</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.763246935559809</v>
+        <v>12.6923892134971</v>
       </c>
       <c r="H133" t="n">
-        <v>1.56643414069651</v>
+        <v>13.7910637019285</v>
       </c>
       <c r="I133" t="n">
-        <v>3.80647193229744</v>
+        <v>11.6768531704698</v>
       </c>
       <c r="J133" t="n">
-        <v>6.69190710308123</v>
+        <v>11.5957157075212</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10.0610325086817</v>
+        <v>-4.7604183195985</v>
       </c>
       <c r="B134" t="n">
-        <v>10.9695516744505</v>
+        <v>-5.77760590453786</v>
       </c>
       <c r="C134" t="n">
-        <v>13.5742949589948</v>
+        <v>-5.47031876785475</v>
       </c>
       <c r="D134" t="n">
-        <v>12.2523689102196</v>
+        <v>-4.47878391832871</v>
       </c>
       <c r="E134" t="n">
-        <v>12.5406553236016</v>
+        <v>-4.35641628355446</v>
       </c>
       <c r="F134" t="n">
-        <v>12.5861117842144</v>
+        <v>-2.41057982789067</v>
       </c>
       <c r="G134" t="n">
-        <v>13.3432107496996</v>
+        <v>-0.623903185502033</v>
       </c>
       <c r="H134" t="n">
-        <v>12.2589299623473</v>
+        <v>1.06401323190543</v>
       </c>
       <c r="I134" t="n">
-        <v>11.1264351376941</v>
+        <v>3.54591970329636</v>
       </c>
       <c r="J134" t="n">
-        <v>11.5342964323692</v>
+        <v>6.97678419727474</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-5.33323154676059</v>
+        <v>-5.02234392644471</v>
       </c>
       <c r="B135" t="n">
-        <v>-5.01791118504758</v>
+        <v>-5.19434866074949</v>
       </c>
       <c r="C135" t="n">
-        <v>-5.18889065433838</v>
+        <v>-5.1048817768499</v>
       </c>
       <c r="D135" t="n">
-        <v>-4.59581118622945</v>
+        <v>-4.62175027251547</v>
       </c>
       <c r="E135" t="n">
-        <v>-3.8753903437567</v>
+        <v>-3.62547594478157</v>
       </c>
       <c r="F135" t="n">
-        <v>-2.60770462337915</v>
+        <v>-2.68629937331287</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.86385277799715</v>
+        <v>-0.819924153014901</v>
       </c>
       <c r="H135" t="n">
-        <v>1.76690784570897</v>
+        <v>1.06931468522414</v>
       </c>
       <c r="I135" t="n">
-        <v>3.81103538496577</v>
+        <v>3.5400159282541</v>
       </c>
       <c r="J135" t="n">
-        <v>6.83466461317864</v>
+        <v>6.34575997047218</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.6892022863306</v>
+        <v>9.6919541514041</v>
       </c>
       <c r="B136" t="n">
-        <v>10.8008292905282</v>
+        <v>11.4116782704121</v>
       </c>
       <c r="C136" t="n">
-        <v>11.5904161760439</v>
+        <v>12.6474786236864</v>
       </c>
       <c r="D136" t="n">
-        <v>12.0709920640193</v>
+        <v>11.9487993046075</v>
       </c>
       <c r="E136" t="n">
-        <v>11.1258411785042</v>
+        <v>11.8321530359838</v>
       </c>
       <c r="F136" t="n">
-        <v>12.0189212005028</v>
+        <v>12.3893792068021</v>
       </c>
       <c r="G136" t="n">
-        <v>11.6631022477763</v>
+        <v>13.1017735295246</v>
       </c>
       <c r="H136" t="n">
-        <v>12.4433113925536</v>
+        <v>12.7064441909747</v>
       </c>
       <c r="I136" t="n">
-        <v>11.1982979185803</v>
+        <v>12.6090962989852</v>
       </c>
       <c r="J136" t="n">
-        <v>11.5962699202713</v>
+        <v>11.2363372735668</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-4.81786472491292</v>
+        <v>9.18026733634327</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.25971518653289</v>
+        <v>12.2563168320714</v>
       </c>
       <c r="C137" t="n">
-        <v>-5.17858177170829</v>
+        <v>12.0578796155612</v>
       </c>
       <c r="D137" t="n">
-        <v>-4.75808584883814</v>
+        <v>12.6626682798247</v>
       </c>
       <c r="E137" t="n">
-        <v>-3.57561341552232</v>
+        <v>11.0895097142895</v>
       </c>
       <c r="F137" t="n">
-        <v>-2.66489904963663</v>
+        <v>13.1802397099962</v>
       </c>
       <c r="G137" t="n">
-        <v>-1.16725321464241</v>
+        <v>13.7884981243288</v>
       </c>
       <c r="H137" t="n">
-        <v>1.39905515521519</v>
+        <v>11.9677571509976</v>
       </c>
       <c r="I137" t="n">
-        <v>4.06579366113748</v>
+        <v>12.1861615796244</v>
       </c>
       <c r="J137" t="n">
-        <v>7.0617782075729</v>
+        <v>11.220906574576</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.64039258184138</v>
+        <v>-5.31073040770552</v>
       </c>
       <c r="B138" t="n">
-        <v>10.9632382282376</v>
+        <v>-5.59272603777421</v>
       </c>
       <c r="C138" t="n">
-        <v>12.4540924913807</v>
+        <v>-4.94217866309456</v>
       </c>
       <c r="D138" t="n">
-        <v>11.7315165439253</v>
+        <v>-4.54353012357536</v>
       </c>
       <c r="E138" t="n">
-        <v>13.6654100117607</v>
+        <v>-4.27493459191784</v>
       </c>
       <c r="F138" t="n">
-        <v>11.5686966641033</v>
+        <v>-2.98233263898289</v>
       </c>
       <c r="G138" t="n">
-        <v>13.1921767467459</v>
+        <v>-0.681256197421994</v>
       </c>
       <c r="H138" t="n">
-        <v>11.2993665646743</v>
+        <v>1.0436465910515</v>
       </c>
       <c r="I138" t="n">
-        <v>12.083386548687</v>
+        <v>4.04531586576979</v>
       </c>
       <c r="J138" t="n">
-        <v>11.4799914615877</v>
+        <v>6.60783455354787</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10.7944927954909</v>
+        <v>10.9649541752958</v>
       </c>
       <c r="B139" t="n">
-        <v>10.0465278709589</v>
+        <v>11.3820364023073</v>
       </c>
       <c r="C139" t="n">
-        <v>10.0508826204813</v>
+        <v>10.6612448993367</v>
       </c>
       <c r="D139" t="n">
-        <v>12.0836025775987</v>
+        <v>11.9890261569133</v>
       </c>
       <c r="E139" t="n">
-        <v>11.4117219400262</v>
+        <v>12.182976751231</v>
       </c>
       <c r="F139" t="n">
-        <v>13.6885976896057</v>
+        <v>13.0573440115229</v>
       </c>
       <c r="G139" t="n">
-        <v>12.6948449888981</v>
+        <v>13.8296776338247</v>
       </c>
       <c r="H139" t="n">
-        <v>13.3901788797451</v>
+        <v>12.4264019694226</v>
       </c>
       <c r="I139" t="n">
-        <v>14.0014954093026</v>
+        <v>11.1572487843021</v>
       </c>
       <c r="J139" t="n">
-        <v>10.6608863582651</v>
+        <v>9.7550984444797</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8.57723938745949</v>
+        <v>-4.93512952626366</v>
       </c>
       <c r="B140" t="n">
-        <v>12.0772678782708</v>
+        <v>-5.29704862562233</v>
       </c>
       <c r="C140" t="n">
-        <v>11.1159771011586</v>
+        <v>-5.1323704191216</v>
       </c>
       <c r="D140" t="n">
-        <v>12.1180978529916</v>
+        <v>-4.47727015102334</v>
       </c>
       <c r="E140" t="n">
-        <v>11.9122687098652</v>
+        <v>-3.61605933650557</v>
       </c>
       <c r="F140" t="n">
-        <v>12.0703830712435</v>
+        <v>-2.58845509748076</v>
       </c>
       <c r="G140" t="n">
-        <v>13.6640689355241</v>
+        <v>-0.887282199751302</v>
       </c>
       <c r="H140" t="n">
-        <v>12.1120512187123</v>
+        <v>1.26156047013971</v>
       </c>
       <c r="I140" t="n">
-        <v>10.8619321031546</v>
+        <v>4.07500558870607</v>
       </c>
       <c r="J140" t="n">
-        <v>12.0287315990085</v>
+        <v>6.7742854454915</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>11.0573032127705</v>
+        <v>-4.91841515293825</v>
       </c>
       <c r="B141" t="n">
-        <v>10.3320660609793</v>
+        <v>-5.90234754439662</v>
       </c>
       <c r="C141" t="n">
-        <v>11.4721799128702</v>
+        <v>-5.22311723451197</v>
       </c>
       <c r="D141" t="n">
-        <v>12.9277977194064</v>
+        <v>-5.08089529398868</v>
       </c>
       <c r="E141" t="n">
-        <v>11.4791851924051</v>
+        <v>-3.51015470192342</v>
       </c>
       <c r="F141" t="n">
-        <v>13.0799529044621</v>
+        <v>-2.34302656195951</v>
       </c>
       <c r="G141" t="n">
-        <v>13.4933213674319</v>
+        <v>-1.14577844097962</v>
       </c>
       <c r="H141" t="n">
-        <v>13.142476888656</v>
+        <v>1.60342872918724</v>
       </c>
       <c r="I141" t="n">
-        <v>11.6658890051757</v>
+        <v>3.82883833386179</v>
       </c>
       <c r="J141" t="n">
-        <v>10.9399929584402</v>
+        <v>6.82044613466338</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-4.81436799966867</v>
+        <v>9.53497455391321</v>
       </c>
       <c r="B142" t="n">
-        <v>-5.5446220701279</v>
+        <v>11.4774642188471</v>
       </c>
       <c r="C142" t="n">
-        <v>-5.43844536625827</v>
+        <v>10.325354513265</v>
       </c>
       <c r="D142" t="n">
-        <v>-4.33932233393269</v>
+        <v>13.0938133935319</v>
       </c>
       <c r="E142" t="n">
-        <v>-4.06606036449139</v>
+        <v>11.702060971483</v>
       </c>
       <c r="F142" t="n">
-        <v>-2.04232888728409</v>
+        <v>12.4373532613984</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.535082432868216</v>
+        <v>11.2570189234731</v>
       </c>
       <c r="H142" t="n">
-        <v>1.33031545699548</v>
+        <v>12.7393526627245</v>
       </c>
       <c r="I142" t="n">
-        <v>3.44791768583231</v>
+        <v>12.0842114444034</v>
       </c>
       <c r="J142" t="n">
-        <v>6.74192395890927</v>
+        <v>9.77834473323891</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10.3794422039975</v>
+        <v>11.4543121760502</v>
       </c>
       <c r="B143" t="n">
-        <v>9.58200439311056</v>
+        <v>10.9571306970421</v>
       </c>
       <c r="C143" t="n">
-        <v>12.079608993287</v>
+        <v>10.5280074180784</v>
       </c>
       <c r="D143" t="n">
-        <v>10.5243402242878</v>
+        <v>12.4439396983161</v>
       </c>
       <c r="E143" t="n">
-        <v>12.7312586067357</v>
+        <v>13.6216580890794</v>
       </c>
       <c r="F143" t="n">
-        <v>12.3123026272913</v>
+        <v>11.894405796808</v>
       </c>
       <c r="G143" t="n">
-        <v>11.6495773155843</v>
+        <v>12.548783158285</v>
       </c>
       <c r="H143" t="n">
-        <v>11.7014672996345</v>
+        <v>11.2923528056787</v>
       </c>
       <c r="I143" t="n">
-        <v>12.0531900191876</v>
+        <v>11.3119069957876</v>
       </c>
       <c r="J143" t="n">
-        <v>10.9961491201656</v>
+        <v>11.5694520832268</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-4.79561556994515</v>
+        <v>-4.91070470325284</v>
       </c>
       <c r="B144" t="n">
-        <v>-5.25261744137821</v>
+        <v>-5.30499355881879</v>
       </c>
       <c r="C144" t="n">
-        <v>-5.0937220287137</v>
+        <v>-5.37068021346462</v>
       </c>
       <c r="D144" t="n">
-        <v>-4.30529747097485</v>
+        <v>-4.30191201836577</v>
       </c>
       <c r="E144" t="n">
-        <v>-3.72471487040813</v>
+        <v>-3.69842865730879</v>
       </c>
       <c r="F144" t="n">
-        <v>-2.15073554360706</v>
+        <v>-2.39701944940059</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.615144083502506</v>
+        <v>-0.871200504301343</v>
       </c>
       <c r="H144" t="n">
-        <v>1.33139444108645</v>
+        <v>1.50706594420259</v>
       </c>
       <c r="I144" t="n">
-        <v>3.66530539588585</v>
+        <v>4.20714385410828</v>
       </c>
       <c r="J144" t="n">
-        <v>6.8023257805105</v>
+        <v>6.63151759170907</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-4.84501429516843</v>
+        <v>-5.22177090340539</v>
       </c>
       <c r="B145" t="n">
-        <v>-4.91136807780292</v>
+        <v>-5.60903872295627</v>
       </c>
       <c r="C145" t="n">
-        <v>-4.8938018407249</v>
+        <v>-5.39546478770327</v>
       </c>
       <c r="D145" t="n">
-        <v>-4.55343191094818</v>
+        <v>-4.67729068197935</v>
       </c>
       <c r="E145" t="n">
-        <v>-4.15895452097763</v>
+        <v>-3.61125129687857</v>
       </c>
       <c r="F145" t="n">
-        <v>-1.94439677898791</v>
+        <v>-2.76172845625392</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.972582064307335</v>
+        <v>-1.08385694390108</v>
       </c>
       <c r="H145" t="n">
-        <v>1.29059126404604</v>
+        <v>1.22218655523225</v>
       </c>
       <c r="I145" t="n">
-        <v>3.63933412612173</v>
+        <v>3.90048910034813</v>
       </c>
       <c r="J145" t="n">
-        <v>6.9040511916769</v>
+        <v>7.12352037963026</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-5.61899485300372</v>
+        <v>10.158942268493</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.09917446916815</v>
+        <v>10.4880080681011</v>
       </c>
       <c r="C146" t="n">
-        <v>-5.37700388216374</v>
+        <v>11.7804994105492</v>
       </c>
       <c r="D146" t="n">
-        <v>-4.48417038342893</v>
+        <v>11.8912507356113</v>
       </c>
       <c r="E146" t="n">
-        <v>-3.81557087117019</v>
+        <v>12.1492883015752</v>
       </c>
       <c r="F146" t="n">
-        <v>-2.37876386659296</v>
+        <v>11.3514811731052</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.898029399667364</v>
+        <v>11.7688683838282</v>
       </c>
       <c r="H146" t="n">
-        <v>0.972464628384953</v>
+        <v>13.8723726494982</v>
       </c>
       <c r="I146" t="n">
-        <v>3.77111253146247</v>
+        <v>11.6942557288303</v>
       </c>
       <c r="J146" t="n">
-        <v>6.24944170601529</v>
+        <v>11.2429650693352</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-5.05897771514721</v>
+        <v>9.58228186400532</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.43409136362324</v>
+        <v>11.1314916335925</v>
       </c>
       <c r="C147" t="n">
-        <v>-5.0630654431477</v>
+        <v>11.2584060867172</v>
       </c>
       <c r="D147" t="n">
-        <v>-4.79067381494953</v>
+        <v>12.6079364883693</v>
       </c>
       <c r="E147" t="n">
-        <v>-3.34639962806103</v>
+        <v>12.7083953279898</v>
       </c>
       <c r="F147" t="n">
-        <v>-2.34608030472782</v>
+        <v>12.8172290979665</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.674112805551182</v>
+        <v>11.8234185178764</v>
       </c>
       <c r="H147" t="n">
-        <v>1.33173463008565</v>
+        <v>12.2466853251574</v>
       </c>
       <c r="I147" t="n">
-        <v>3.6098043950574</v>
+        <v>10.9631250194192</v>
       </c>
       <c r="J147" t="n">
-        <v>6.65817730388819</v>
+        <v>11.1794672012921</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.1607031694531</v>
+        <v>9.46937237683451</v>
       </c>
       <c r="B148" t="n">
-        <v>11.3030953627168</v>
+        <v>10.9805030911903</v>
       </c>
       <c r="C148" t="n">
-        <v>11.827608481047</v>
+        <v>11.2515903034955</v>
       </c>
       <c r="D148" t="n">
-        <v>12.9034772530876</v>
+        <v>10.4074438345894</v>
       </c>
       <c r="E148" t="n">
-        <v>10.5554830046752</v>
+        <v>13.2368350898231</v>
       </c>
       <c r="F148" t="n">
-        <v>12.9150520930409</v>
+        <v>11.1015915686893</v>
       </c>
       <c r="G148" t="n">
-        <v>11.8122528263312</v>
+        <v>12.7545624509013</v>
       </c>
       <c r="H148" t="n">
-        <v>11.5312676838924</v>
+        <v>11.3083274589541</v>
       </c>
       <c r="I148" t="n">
-        <v>10.8742915883519</v>
+        <v>11.2434795777623</v>
       </c>
       <c r="J148" t="n">
-        <v>11.1060796304704</v>
+        <v>11.4817525851807</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-5.47472322652103</v>
+        <v>9.137735634102</v>
       </c>
       <c r="B149" t="n">
-        <v>-5.24380834687021</v>
+        <v>10.3511349777121</v>
       </c>
       <c r="C149" t="n">
-        <v>-4.99026094781266</v>
+        <v>10.3936465514455</v>
       </c>
       <c r="D149" t="n">
-        <v>-4.56703418284586</v>
+        <v>12.5907012154957</v>
       </c>
       <c r="E149" t="n">
-        <v>-3.49338590268286</v>
+        <v>12.5138839758638</v>
       </c>
       <c r="F149" t="n">
-        <v>-3.25794793921955</v>
+        <v>12.234492663702</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.880049350931656</v>
+        <v>12.6917536521492</v>
       </c>
       <c r="H149" t="n">
-        <v>0.816321485542932</v>
+        <v>12.8822763402598</v>
       </c>
       <c r="I149" t="n">
-        <v>3.86747582598867</v>
+        <v>11.7217164717095</v>
       </c>
       <c r="J149" t="n">
-        <v>6.50724406612803</v>
+        <v>11.2810786514335</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.9716492096909</v>
+        <v>-4.87612952608531</v>
       </c>
       <c r="B150" t="n">
-        <v>10.8172608286916</v>
+        <v>-5.02144609439074</v>
       </c>
       <c r="C150" t="n">
-        <v>13.141117560923</v>
+        <v>-5.45545189318808</v>
       </c>
       <c r="D150" t="n">
-        <v>12.6627022787534</v>
+        <v>-4.68629771311331</v>
       </c>
       <c r="E150" t="n">
-        <v>12.1698349659911</v>
+        <v>-3.96408592763535</v>
       </c>
       <c r="F150" t="n">
-        <v>12.4118574365197</v>
+        <v>-2.26371742953596</v>
       </c>
       <c r="G150" t="n">
-        <v>11.6261120254084</v>
+        <v>-0.800181392480347</v>
       </c>
       <c r="H150" t="n">
-        <v>11.9620961744507</v>
+        <v>1.22521369334669</v>
       </c>
       <c r="I150" t="n">
-        <v>11.7787444595084</v>
+        <v>3.98758205427396</v>
       </c>
       <c r="J150" t="n">
-        <v>10.6289368530999</v>
+        <v>6.88811044106673</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.17450104144613</v>
+        <v>-5.0802555299833</v>
       </c>
       <c r="B151" t="n">
-        <v>10.1538215637879</v>
+        <v>-5.46409685126064</v>
       </c>
       <c r="C151" t="n">
-        <v>11.9918218922322</v>
+        <v>-5.3762781957322</v>
       </c>
       <c r="D151" t="n">
-        <v>11.7058096283187</v>
+        <v>-4.47813650568058</v>
       </c>
       <c r="E151" t="n">
-        <v>13.3127551135591</v>
+        <v>-3.97676067258507</v>
       </c>
       <c r="F151" t="n">
-        <v>12.1200431875189</v>
+        <v>-2.37749024704521</v>
       </c>
       <c r="G151" t="n">
-        <v>12.1688984348699</v>
+        <v>-0.496713635140347</v>
       </c>
       <c r="H151" t="n">
-        <v>11.0451877745015</v>
+        <v>1.38431941254521</v>
       </c>
       <c r="I151" t="n">
-        <v>11.2353240950799</v>
+        <v>3.91901982655597</v>
       </c>
       <c r="J151" t="n">
-        <v>10.5939388971551</v>
+        <v>6.86612206102736</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9.01424997474791</v>
+        <v>9.2280201587578</v>
       </c>
       <c r="B152" t="n">
-        <v>10.752177646033</v>
+        <v>11.330133691274</v>
       </c>
       <c r="C152" t="n">
-        <v>10.5344303849132</v>
+        <v>11.8179482596316</v>
       </c>
       <c r="D152" t="n">
-        <v>11.7681518498419</v>
+        <v>12.617381654505</v>
       </c>
       <c r="E152" t="n">
-        <v>13.3840175828456</v>
+        <v>13.1871582896145</v>
       </c>
       <c r="F152" t="n">
-        <v>12.3616416695833</v>
+        <v>12.4655526345681</v>
       </c>
       <c r="G152" t="n">
-        <v>13.1660353736352</v>
+        <v>10.9554896172114</v>
       </c>
       <c r="H152" t="n">
-        <v>10.7139225601102</v>
+        <v>11.5393229292751</v>
       </c>
       <c r="I152" t="n">
-        <v>11.8149608155066</v>
+        <v>11.1399627864461</v>
       </c>
       <c r="J152" t="n">
-        <v>11.9408036250409</v>
+        <v>11.4795383175396</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.2661768698269</v>
+        <v>9.71385672271499</v>
       </c>
       <c r="B153" t="n">
-        <v>10.0244561625214</v>
+        <v>11.0599555633663</v>
       </c>
       <c r="C153" t="n">
-        <v>11.3588164177558</v>
+        <v>11.4259060193142</v>
       </c>
       <c r="D153" t="n">
-        <v>12.793375492189</v>
+        <v>12.9470402874472</v>
       </c>
       <c r="E153" t="n">
-        <v>12.4121279333938</v>
+        <v>12.3746328498618</v>
       </c>
       <c r="F153" t="n">
-        <v>12.6175323360628</v>
+        <v>13.9615256055478</v>
       </c>
       <c r="G153" t="n">
-        <v>13.1517066631608</v>
+        <v>11.8314376563008</v>
       </c>
       <c r="H153" t="n">
-        <v>11.8477400224126</v>
+        <v>11.8335520729396</v>
       </c>
       <c r="I153" t="n">
-        <v>10.421974142167</v>
+        <v>11.101867024361</v>
       </c>
       <c r="J153" t="n">
-        <v>10.6496305709124</v>
+        <v>12.4083080665212</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.40908871028409</v>
+        <v>10.167259701561</v>
       </c>
       <c r="B154" t="n">
-        <v>10.407896271684</v>
+        <v>9.37245815066238</v>
       </c>
       <c r="C154" t="n">
-        <v>11.1188535860973</v>
+        <v>11.5318990991382</v>
       </c>
       <c r="D154" t="n">
-        <v>12.3527265258856</v>
+        <v>12.8328193401047</v>
       </c>
       <c r="E154" t="n">
-        <v>11.7133627706918</v>
+        <v>11.878003149953</v>
       </c>
       <c r="F154" t="n">
-        <v>12.2994448953047</v>
+        <v>12.6051406716556</v>
       </c>
       <c r="G154" t="n">
-        <v>11.6854533944177</v>
+        <v>11.0872071630544</v>
       </c>
       <c r="H154" t="n">
-        <v>11.8189088152922</v>
+        <v>11.9165898361083</v>
       </c>
       <c r="I154" t="n">
-        <v>11.166466221753</v>
+        <v>11.7050338432059</v>
       </c>
       <c r="J154" t="n">
-        <v>11.3636499530571</v>
+        <v>10.2655750048545</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-5.00150128158285</v>
+        <v>-5.03348521536339</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.21531234901983</v>
+        <v>-4.89047588594531</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.29156085800968</v>
+        <v>-4.71958267447232</v>
       </c>
       <c r="D155" t="n">
-        <v>-4.89331099679039</v>
+        <v>-4.73334968711521</v>
       </c>
       <c r="E155" t="n">
-        <v>-4.23013344110701</v>
+        <v>-4.06750665957496</v>
       </c>
       <c r="F155" t="n">
-        <v>-2.61724462681345</v>
+        <v>-2.42098391442073</v>
       </c>
       <c r="G155" t="n">
-        <v>-1.16726696619444</v>
+        <v>-0.802847267289435</v>
       </c>
       <c r="H155" t="n">
-        <v>1.51538489493502</v>
+        <v>0.92219652690034</v>
       </c>
       <c r="I155" t="n">
-        <v>3.80966840649804</v>
+        <v>3.69941267464916</v>
       </c>
       <c r="J155" t="n">
-        <v>6.62568464328715</v>
+        <v>6.56338183021797</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.6946782909277</v>
+        <v>9.57450228733415</v>
       </c>
       <c r="B156" t="n">
-        <v>9.54003890039415</v>
+        <v>10.7602355068956</v>
       </c>
       <c r="C156" t="n">
-        <v>12.3235894359827</v>
+        <v>11.1410585130868</v>
       </c>
       <c r="D156" t="n">
-        <v>11.2698396018244</v>
+        <v>13.0590862642158</v>
       </c>
       <c r="E156" t="n">
-        <v>12.500088818744</v>
+        <v>14.100800413347</v>
       </c>
       <c r="F156" t="n">
-        <v>11.772187091164</v>
+        <v>12.4085081631588</v>
       </c>
       <c r="G156" t="n">
-        <v>12.8948845163786</v>
+        <v>12.9803330663738</v>
       </c>
       <c r="H156" t="n">
-        <v>11.1545225023282</v>
+        <v>11.1367579550323</v>
       </c>
       <c r="I156" t="n">
-        <v>11.5931404985282</v>
+        <v>11.3594576423494</v>
       </c>
       <c r="J156" t="n">
-        <v>10.2920668227603</v>
+        <v>10.4683640130619</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.4025914490433</v>
+        <v>10.2128739165343</v>
       </c>
       <c r="B157" t="n">
-        <v>10.0926108419039</v>
+        <v>9.43859636959329</v>
       </c>
       <c r="C157" t="n">
-        <v>11.61395466274</v>
+        <v>11.3004444938734</v>
       </c>
       <c r="D157" t="n">
-        <v>12.2625154324703</v>
+        <v>11.2104440008102</v>
       </c>
       <c r="E157" t="n">
-        <v>12.505743859804</v>
+        <v>13.5354292140817</v>
       </c>
       <c r="F157" t="n">
-        <v>12.5276220319712</v>
+        <v>13.0501138354218</v>
       </c>
       <c r="G157" t="n">
-        <v>12.3145611834581</v>
+        <v>13.2127208838222</v>
       </c>
       <c r="H157" t="n">
-        <v>11.700086889145</v>
+        <v>12.4108333368129</v>
       </c>
       <c r="I157" t="n">
-        <v>12.8500443696165</v>
+        <v>11.8617144522854</v>
       </c>
       <c r="J157" t="n">
-        <v>12.2752744849448</v>
+        <v>11.4941562345217</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9.72555888504729</v>
+        <v>10.7384352770869</v>
       </c>
       <c r="B158" t="n">
-        <v>10.4411970111053</v>
+        <v>10.1577275871798</v>
       </c>
       <c r="C158" t="n">
-        <v>10.6461983609318</v>
+        <v>11.6897323457113</v>
       </c>
       <c r="D158" t="n">
-        <v>11.9927820465375</v>
+        <v>11.1584068744514</v>
       </c>
       <c r="E158" t="n">
-        <v>12.5401667231226</v>
+        <v>12.2905795765141</v>
       </c>
       <c r="F158" t="n">
-        <v>10.7186681301699</v>
+        <v>12.0609416811644</v>
       </c>
       <c r="G158" t="n">
-        <v>11.2388772671393</v>
+        <v>12.9988367622965</v>
       </c>
       <c r="H158" t="n">
-        <v>12.3524768713748</v>
+        <v>11.8338494468452</v>
       </c>
       <c r="I158" t="n">
-        <v>11.6840786479503</v>
+        <v>12.5654701464144</v>
       </c>
       <c r="J158" t="n">
-        <v>10.9447575348395</v>
+        <v>11.0858999738445</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.18998718910362</v>
+        <v>10.0262642502741</v>
       </c>
       <c r="B159" t="n">
-        <v>10.1436859220131</v>
+        <v>11.0412877146273</v>
       </c>
       <c r="C159" t="n">
-        <v>12.5500536761275</v>
+        <v>11.7125848938604</v>
       </c>
       <c r="D159" t="n">
-        <v>12.7730192654965</v>
+        <v>11.135599983125</v>
       </c>
       <c r="E159" t="n">
-        <v>12.6514950295605</v>
+        <v>12.6371257615893</v>
       </c>
       <c r="F159" t="n">
-        <v>12.6444570387338</v>
+        <v>13.2549624114146</v>
       </c>
       <c r="G159" t="n">
-        <v>14.2552256301377</v>
+        <v>12.4256958089617</v>
       </c>
       <c r="H159" t="n">
-        <v>11.6866208913717</v>
+        <v>12.0566665323712</v>
       </c>
       <c r="I159" t="n">
-        <v>10.3099356161743</v>
+        <v>11.1075149128222</v>
       </c>
       <c r="J159" t="n">
-        <v>12.2050239311176</v>
+        <v>11.4462390698046</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-4.97686026935302</v>
+        <v>9.20516888808677</v>
       </c>
       <c r="B160" t="n">
-        <v>-5.55476473444438</v>
+        <v>10.962349945483</v>
       </c>
       <c r="C160" t="n">
-        <v>-4.87927406779807</v>
+        <v>11.5687957730119</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.55230629222761</v>
+        <v>11.4450518731345</v>
       </c>
       <c r="E160" t="n">
-        <v>-3.54691588592149</v>
+        <v>13.3787352807386</v>
       </c>
       <c r="F160" t="n">
-        <v>-2.51235163031335</v>
+        <v>12.0097781984727</v>
       </c>
       <c r="G160" t="n">
-        <v>-1.01732925062046</v>
+        <v>12.1083723903936</v>
       </c>
       <c r="H160" t="n">
-        <v>1.12659635840253</v>
+        <v>11.6312635199877</v>
       </c>
       <c r="I160" t="n">
-        <v>3.92677954244497</v>
+        <v>12.4188218791105</v>
       </c>
       <c r="J160" t="n">
-        <v>6.56518150738352</v>
+        <v>9.30749856384648</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8.95213486634561</v>
+        <v>10.5046146797077</v>
       </c>
       <c r="B161" t="n">
-        <v>10.2936423171652</v>
+        <v>11.0756026503473</v>
       </c>
       <c r="C161" t="n">
-        <v>9.94223693150585</v>
+        <v>11.4240502518902</v>
       </c>
       <c r="D161" t="n">
-        <v>11.1112753935642</v>
+        <v>10.85363537642</v>
       </c>
       <c r="E161" t="n">
-        <v>11.6591641435534</v>
+        <v>12.3249748078051</v>
       </c>
       <c r="F161" t="n">
-        <v>12.1459123348667</v>
+        <v>11.4384001640057</v>
       </c>
       <c r="G161" t="n">
-        <v>12.7833880343603</v>
+        <v>12.6294128609748</v>
       </c>
       <c r="H161" t="n">
-        <v>12.6549926218838</v>
+        <v>13.3961261937753</v>
       </c>
       <c r="I161" t="n">
-        <v>11.0061702148577</v>
+        <v>10.7327316426651</v>
       </c>
       <c r="J161" t="n">
-        <v>11.2166514873446</v>
+        <v>11.1743330450876</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.9207070557598</v>
+        <v>-5.41232279210485</v>
       </c>
       <c r="B162" t="n">
-        <v>11.3704669025767</v>
+        <v>-5.50710580813148</v>
       </c>
       <c r="C162" t="n">
-        <v>11.7576417136251</v>
+        <v>-5.31066309085965</v>
       </c>
       <c r="D162" t="n">
-        <v>12.3919279597836</v>
+        <v>-4.872909326971</v>
       </c>
       <c r="E162" t="n">
-        <v>13.3999314737841</v>
+        <v>-3.69407288708095</v>
       </c>
       <c r="F162" t="n">
-        <v>12.3723340869844</v>
+        <v>-2.58398580592409</v>
       </c>
       <c r="G162" t="n">
-        <v>13.3233010158733</v>
+        <v>-1.20958385893006</v>
       </c>
       <c r="H162" t="n">
-        <v>11.917947446627</v>
+        <v>0.909914609595203</v>
       </c>
       <c r="I162" t="n">
-        <v>12.2297868179024</v>
+        <v>3.56838489704112</v>
       </c>
       <c r="J162" t="n">
-        <v>11.6558747668335</v>
+        <v>7.01362107059081</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.2129943159377</v>
+        <v>9.44847065746554</v>
       </c>
       <c r="B163" t="n">
-        <v>9.58646538934195</v>
+        <v>11.118999570978</v>
       </c>
       <c r="C163" t="n">
-        <v>11.8762374883753</v>
+        <v>10.9911334733892</v>
       </c>
       <c r="D163" t="n">
-        <v>12.9466566744205</v>
+        <v>11.5866699131288</v>
       </c>
       <c r="E163" t="n">
-        <v>12.4149641342986</v>
+        <v>12.1083922725009</v>
       </c>
       <c r="F163" t="n">
-        <v>13.1233962012343</v>
+        <v>12.7832193285364</v>
       </c>
       <c r="G163" t="n">
-        <v>14.0293204467484</v>
+        <v>12.8633182438762</v>
       </c>
       <c r="H163" t="n">
-        <v>12.5780694479441</v>
+        <v>11.9818093824142</v>
       </c>
       <c r="I163" t="n">
-        <v>12.4860442009561</v>
+        <v>12.2997732311772</v>
       </c>
       <c r="J163" t="n">
-        <v>9.46063671600763</v>
+        <v>10.212812279369</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.23156027139182</v>
+        <v>11.2705040252459</v>
       </c>
       <c r="B164" t="n">
-        <v>10.9922642423644</v>
+        <v>11.8847121068994</v>
       </c>
       <c r="C164" t="n">
-        <v>11.6432516148701</v>
+        <v>11.2445931043774</v>
       </c>
       <c r="D164" t="n">
-        <v>12.306798823498</v>
+        <v>11.6595776101875</v>
       </c>
       <c r="E164" t="n">
-        <v>13.5771600289544</v>
+        <v>13.1165618615461</v>
       </c>
       <c r="F164" t="n">
-        <v>11.3339377791701</v>
+        <v>11.5838486634066</v>
       </c>
       <c r="G164" t="n">
-        <v>13.1578395026733</v>
+        <v>12.6671091393148</v>
       </c>
       <c r="H164" t="n">
-        <v>12.5335574377734</v>
+        <v>11.7902435273649</v>
       </c>
       <c r="I164" t="n">
-        <v>12.5150495305537</v>
+        <v>11.4994315454356</v>
       </c>
       <c r="J164" t="n">
-        <v>10.1277807882811</v>
+        <v>9.8578003546388</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.2795253497267</v>
+        <v>9.75719609456831</v>
       </c>
       <c r="B165" t="n">
-        <v>10.8541406930196</v>
+        <v>11.5563369240221</v>
       </c>
       <c r="C165" t="n">
-        <v>11.1276210499502</v>
+        <v>12.6445491220387</v>
       </c>
       <c r="D165" t="n">
-        <v>12.6613105053402</v>
+        <v>12.2820952931258</v>
       </c>
       <c r="E165" t="n">
-        <v>12.8706842887647</v>
+        <v>10.7939818532161</v>
       </c>
       <c r="F165" t="n">
-        <v>12.7122430434948</v>
+        <v>12.0600550951847</v>
       </c>
       <c r="G165" t="n">
-        <v>13.1149139700398</v>
+        <v>12.6674725495624</v>
       </c>
       <c r="H165" t="n">
-        <v>11.3733877434997</v>
+        <v>12.4359240518066</v>
       </c>
       <c r="I165" t="n">
-        <v>11.5182052893284</v>
+        <v>12.0718421272313</v>
       </c>
       <c r="J165" t="n">
-        <v>9.76323125151574</v>
+        <v>11.2149984613462</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9.50688192643424</v>
+        <v>9.30087254362672</v>
       </c>
       <c r="B166" t="n">
-        <v>10.6557165354425</v>
+        <v>10.8847410456728</v>
       </c>
       <c r="C166" t="n">
-        <v>11.4041487939453</v>
+        <v>11.615916767875</v>
       </c>
       <c r="D166" t="n">
-        <v>12.3394279265105</v>
+        <v>12.306465603394</v>
       </c>
       <c r="E166" t="n">
-        <v>12.7301291180313</v>
+        <v>13.9198133384968</v>
       </c>
       <c r="F166" t="n">
-        <v>11.3789368040532</v>
+        <v>10.6425894781259</v>
       </c>
       <c r="G166" t="n">
-        <v>13.3323155333653</v>
+        <v>12.21086828843</v>
       </c>
       <c r="H166" t="n">
-        <v>11.6403337200669</v>
+        <v>13.054622236846</v>
       </c>
       <c r="I166" t="n">
-        <v>11.4395224985206</v>
+        <v>11.7392719247858</v>
       </c>
       <c r="J166" t="n">
-        <v>11.3255409722846</v>
+        <v>11.0771040610247</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.77156225397347</v>
+        <v>8.25057297504178</v>
       </c>
       <c r="B167" t="n">
-        <v>11.7020320585761</v>
+        <v>10.0957394665991</v>
       </c>
       <c r="C167" t="n">
-        <v>10.6719204684829</v>
+        <v>13.8199232419598</v>
       </c>
       <c r="D167" t="n">
-        <v>12.5650499386549</v>
+        <v>11.5152436798511</v>
       </c>
       <c r="E167" t="n">
-        <v>11.3456908798852</v>
+        <v>12.4165180398202</v>
       </c>
       <c r="F167" t="n">
-        <v>12.3323217118848</v>
+        <v>12.8330951215087</v>
       </c>
       <c r="G167" t="n">
-        <v>12.1289087057238</v>
+        <v>14.5804043381331</v>
       </c>
       <c r="H167" t="n">
-        <v>11.9765524911896</v>
+        <v>12.9110492724744</v>
       </c>
       <c r="I167" t="n">
-        <v>9.22963922965411</v>
+        <v>10.0850735452941</v>
       </c>
       <c r="J167" t="n">
-        <v>10.7980501230671</v>
+        <v>11.2264449999929</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-5.41251303673778</v>
+        <v>10.2421631075329</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.02864191917994</v>
+        <v>11.1404787287298</v>
       </c>
       <c r="C168" t="n">
-        <v>-4.94287050139043</v>
+        <v>11.3647621715047</v>
       </c>
       <c r="D168" t="n">
-        <v>-4.86017108014641</v>
+        <v>11.8622351220316</v>
       </c>
       <c r="E168" t="n">
-        <v>-4.17422251827699</v>
+        <v>12.1858348273628</v>
       </c>
       <c r="F168" t="n">
-        <v>-2.63535076116557</v>
+        <v>14.1309196410024</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.825801515209764</v>
+        <v>11.8838048289216</v>
       </c>
       <c r="H168" t="n">
-        <v>1.31782296986361</v>
+        <v>12.828948362717</v>
       </c>
       <c r="I168" t="n">
-        <v>3.80852872552433</v>
+        <v>11.8979043602921</v>
       </c>
       <c r="J168" t="n">
-        <v>6.94987308894966</v>
+        <v>11.0433337797345</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10.7767055205441</v>
+        <v>9.61639626774996</v>
       </c>
       <c r="B169" t="n">
-        <v>10.9259108118551</v>
+        <v>10.8966714821245</v>
       </c>
       <c r="C169" t="n">
-        <v>10.396165043061</v>
+        <v>11.2223981173772</v>
       </c>
       <c r="D169" t="n">
-        <v>11.6300749275182</v>
+        <v>13.3525170955521</v>
       </c>
       <c r="E169" t="n">
-        <v>11.6656418365045</v>
+        <v>12.6246948136306</v>
       </c>
       <c r="F169" t="n">
-        <v>13.2039168770586</v>
+        <v>11.8433128069987</v>
       </c>
       <c r="G169" t="n">
-        <v>11.7133790793271</v>
+        <v>12.7749584121133</v>
       </c>
       <c r="H169" t="n">
-        <v>12.7716040826271</v>
+        <v>11.4793682738069</v>
       </c>
       <c r="I169" t="n">
-        <v>12.4752586306824</v>
+        <v>10.7118291762394</v>
       </c>
       <c r="J169" t="n">
-        <v>10.730786135441</v>
+        <v>11.6264228411779</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-4.79728192432951</v>
+        <v>10.0027993824362</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.40812634916631</v>
+        <v>10.9978036586634</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.09593907977002</v>
+        <v>11.8961580155717</v>
       </c>
       <c r="D170" t="n">
-        <v>-4.67044203321015</v>
+        <v>11.9418835207931</v>
       </c>
       <c r="E170" t="n">
-        <v>-4.18449709990767</v>
+        <v>13.2241123958778</v>
       </c>
       <c r="F170" t="n">
-        <v>-2.44117311687183</v>
+        <v>12.6357050948534</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.45753169704359</v>
+        <v>11.9674525994287</v>
       </c>
       <c r="H170" t="n">
-        <v>0.91381475590226</v>
+        <v>12.4532207127599</v>
       </c>
       <c r="I170" t="n">
-        <v>3.60898342862303</v>
+        <v>12.1026235114637</v>
       </c>
       <c r="J170" t="n">
-        <v>6.54388196675397</v>
+        <v>11.0693811497296</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.4408736328173</v>
+        <v>9.9434949830824</v>
       </c>
       <c r="B171" t="n">
-        <v>11.1193278784605</v>
+        <v>10.9195510907686</v>
       </c>
       <c r="C171" t="n">
-        <v>12.3756079069483</v>
+        <v>12.2334859011646</v>
       </c>
       <c r="D171" t="n">
-        <v>12.3687835595173</v>
+        <v>11.5362760611841</v>
       </c>
       <c r="E171" t="n">
-        <v>11.7175146927104</v>
+        <v>11.3293914447929</v>
       </c>
       <c r="F171" t="n">
-        <v>12.3682771123273</v>
+        <v>12.9366549747128</v>
       </c>
       <c r="G171" t="n">
-        <v>12.8493773607753</v>
+        <v>12.8936467076722</v>
       </c>
       <c r="H171" t="n">
-        <v>10.4380561148552</v>
+        <v>11.8930398199592</v>
       </c>
       <c r="I171" t="n">
-        <v>12.9835166724171</v>
+        <v>11.2574242630757</v>
       </c>
       <c r="J171" t="n">
-        <v>11.6899735209004</v>
+        <v>11.4003724859263</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-4.90435722360751</v>
+        <v>8.92290021222351</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.37399695952093</v>
+        <v>12.0121284828652</v>
       </c>
       <c r="C172" t="n">
-        <v>-5.32049386211046</v>
+        <v>10.6711132557815</v>
       </c>
       <c r="D172" t="n">
-        <v>-4.53798914636177</v>
+        <v>11.1411217782724</v>
       </c>
       <c r="E172" t="n">
-        <v>-4.19968579219387</v>
+        <v>10.8783833424273</v>
       </c>
       <c r="F172" t="n">
-        <v>-2.23961406301747</v>
+        <v>13.6253961150151</v>
       </c>
       <c r="G172" t="n">
-        <v>-1.21574150216346</v>
+        <v>12.4199488537241</v>
       </c>
       <c r="H172" t="n">
-        <v>0.894274917880832</v>
+        <v>12.879081179918</v>
       </c>
       <c r="I172" t="n">
-        <v>3.57471861885488</v>
+        <v>11.1268007687177</v>
       </c>
       <c r="J172" t="n">
-        <v>6.73197583989172</v>
+        <v>11.4882022006415</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4.27327778171221</v>
+        <v>10.3116982806525</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.06591624858349</v>
+        <v>12.4416862365952</v>
       </c>
       <c r="C173" t="n">
-        <v>-5.00922011983321</v>
+        <v>11.7692847910215</v>
       </c>
       <c r="D173" t="n">
-        <v>-4.76522165734761</v>
+        <v>12.3211211385701</v>
       </c>
       <c r="E173" t="n">
-        <v>-4.0817828052022</v>
+        <v>12.6810126040654</v>
       </c>
       <c r="F173" t="n">
-        <v>-2.5832614288702</v>
+        <v>12.2723717828622</v>
       </c>
       <c r="G173" t="n">
-        <v>-1.05309222971762</v>
+        <v>13.1242443340645</v>
       </c>
       <c r="H173" t="n">
-        <v>0.732150179278269</v>
+        <v>12.8669860957991</v>
       </c>
       <c r="I173" t="n">
-        <v>4.02090065187927</v>
+        <v>11.5692103286258</v>
       </c>
       <c r="J173" t="n">
-        <v>6.52349372666768</v>
+        <v>11.5556136912129</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>10.8511832687608</v>
+        <v>-5.55332179587177</v>
       </c>
       <c r="B174" t="n">
-        <v>9.71254415922858</v>
+        <v>-4.84213865501494</v>
       </c>
       <c r="C174" t="n">
-        <v>12.4067768511475</v>
+        <v>-5.31506981207885</v>
       </c>
       <c r="D174" t="n">
-        <v>12.7386064490686</v>
+        <v>-4.98901891380626</v>
       </c>
       <c r="E174" t="n">
-        <v>12.2015029422464</v>
+        <v>-3.9245207834679</v>
       </c>
       <c r="F174" t="n">
-        <v>13.8183333219563</v>
+        <v>-2.88407098080371</v>
       </c>
       <c r="G174" t="n">
-        <v>11.7051724734093</v>
+        <v>-0.958762574717494</v>
       </c>
       <c r="H174" t="n">
-        <v>12.0139759179851</v>
+        <v>1.70900665344912</v>
       </c>
       <c r="I174" t="n">
-        <v>10.8428200063063</v>
+        <v>3.76481715064521</v>
       </c>
       <c r="J174" t="n">
-        <v>10.2805152722181</v>
+        <v>7.17920704963538</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.1810024576349</v>
+        <v>-5.12018126748194</v>
       </c>
       <c r="B175" t="n">
-        <v>10.8306279153868</v>
+        <v>-5.60640638088848</v>
       </c>
       <c r="C175" t="n">
-        <v>11.8418436306052</v>
+        <v>-5.59411655184546</v>
       </c>
       <c r="D175" t="n">
-        <v>12.3758368210075</v>
+        <v>-4.66697296820036</v>
       </c>
       <c r="E175" t="n">
-        <v>12.3641332928392</v>
+        <v>-3.52858445325733</v>
       </c>
       <c r="F175" t="n">
-        <v>12.4594804557704</v>
+        <v>-2.74101658908937</v>
       </c>
       <c r="G175" t="n">
-        <v>13.0880025206687</v>
+        <v>-1.10027614256349</v>
       </c>
       <c r="H175" t="n">
-        <v>11.8177790085405</v>
+        <v>1.42896984987503</v>
       </c>
       <c r="I175" t="n">
-        <v>11.5907854728984</v>
+        <v>4.47032233488219</v>
       </c>
       <c r="J175" t="n">
-        <v>11.3251575528731</v>
+        <v>6.61202229648706</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9.71750523631138</v>
+        <v>9.60439588412978</v>
       </c>
       <c r="B176" t="n">
-        <v>11.0094489256406</v>
+        <v>11.1586930424016</v>
       </c>
       <c r="C176" t="n">
-        <v>12.1894596972961</v>
+        <v>11.3143133183461</v>
       </c>
       <c r="D176" t="n">
-        <v>12.2455277604881</v>
+        <v>12.9989185025792</v>
       </c>
       <c r="E176" t="n">
-        <v>12.7870587080476</v>
+        <v>13.1063464325449</v>
       </c>
       <c r="F176" t="n">
-        <v>12.6371966999451</v>
+        <v>13.1430685280026</v>
       </c>
       <c r="G176" t="n">
-        <v>12.5055444767936</v>
+        <v>12.2247340319038</v>
       </c>
       <c r="H176" t="n">
-        <v>11.9908369845155</v>
+        <v>11.7744184907484</v>
       </c>
       <c r="I176" t="n">
-        <v>12.2264900696541</v>
+        <v>11.0173714300009</v>
       </c>
       <c r="J176" t="n">
-        <v>11.4225391661794</v>
+        <v>10.1905118133638</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-5.12706035369719</v>
+        <v>9.91702608473761</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.20946285663681</v>
+        <v>11.0151278473732</v>
       </c>
       <c r="C177" t="n">
-        <v>-4.99050513064871</v>
+        <v>11.5327787279079</v>
       </c>
       <c r="D177" t="n">
-        <v>-5.09700085678874</v>
+        <v>12.11395971663</v>
       </c>
       <c r="E177" t="n">
-        <v>-3.49935359668021</v>
+        <v>13.9211233069476</v>
       </c>
       <c r="F177" t="n">
-        <v>-2.76640601438174</v>
+        <v>12.7005882443668</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.737110672962475</v>
+        <v>12.3724406651369</v>
       </c>
       <c r="H177" t="n">
-        <v>1.18736398287138</v>
+        <v>11.3646924790337</v>
       </c>
       <c r="I177" t="n">
-        <v>4.119493533368</v>
+        <v>11.638775456067</v>
       </c>
       <c r="J177" t="n">
-        <v>6.74703409799284</v>
+        <v>11.0170237677519</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>10.626877156423</v>
+        <v>9.7150109353987</v>
       </c>
       <c r="B178" t="n">
-        <v>10.7476457981923</v>
+        <v>12.4675702600187</v>
       </c>
       <c r="C178" t="n">
-        <v>11.2534260279904</v>
+        <v>10.7532811348578</v>
       </c>
       <c r="D178" t="n">
-        <v>12.0834764276103</v>
+        <v>11.7953404049491</v>
       </c>
       <c r="E178" t="n">
-        <v>13.6477552680612</v>
+        <v>11.9544533107718</v>
       </c>
       <c r="F178" t="n">
-        <v>13.4193676573427</v>
+        <v>12.5872126603799</v>
       </c>
       <c r="G178" t="n">
-        <v>11.3448907988618</v>
+        <v>12.1402477066893</v>
       </c>
       <c r="H178" t="n">
-        <v>10.9671540665405</v>
+        <v>11.8805506991963</v>
       </c>
       <c r="I178" t="n">
-        <v>10.2816476051513</v>
+        <v>11.7631580137417</v>
       </c>
       <c r="J178" t="n">
-        <v>9.1985084185525</v>
+        <v>10.4591021719211</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8.30872308316409</v>
+        <v>9.79819585627659</v>
       </c>
       <c r="B179" t="n">
-        <v>11.3929616549961</v>
+        <v>10.342772918743</v>
       </c>
       <c r="C179" t="n">
-        <v>10.6548363761434</v>
+        <v>11.1300836024291</v>
       </c>
       <c r="D179" t="n">
-        <v>12.2715091737479</v>
+        <v>11.7241364871208</v>
       </c>
       <c r="E179" t="n">
-        <v>11.9301788098274</v>
+        <v>12.0825789583223</v>
       </c>
       <c r="F179" t="n">
-        <v>11.1566484031575</v>
+        <v>11.6779157793502</v>
       </c>
       <c r="G179" t="n">
-        <v>12.6350037230979</v>
+        <v>11.7724189989964</v>
       </c>
       <c r="H179" t="n">
-        <v>11.884194537432</v>
+        <v>12.4036843882106</v>
       </c>
       <c r="I179" t="n">
-        <v>11.9114092911837</v>
+        <v>11.8875323146147</v>
       </c>
       <c r="J179" t="n">
-        <v>11.4629577982409</v>
+        <v>11.2260827485443</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9.24867758536378</v>
+        <v>9.82083338490487</v>
       </c>
       <c r="B180" t="n">
-        <v>11.5747400644523</v>
+        <v>11.1598918754891</v>
       </c>
       <c r="C180" t="n">
-        <v>10.9100738435619</v>
+        <v>12.4149402304108</v>
       </c>
       <c r="D180" t="n">
-        <v>12.2336745140613</v>
+        <v>12.1143615781493</v>
       </c>
       <c r="E180" t="n">
-        <v>11.745188963</v>
+        <v>11.9108569289336</v>
       </c>
       <c r="F180" t="n">
-        <v>11.4591665468426</v>
+        <v>12.5644747229442</v>
       </c>
       <c r="G180" t="n">
-        <v>12.1567114755242</v>
+        <v>13.4588811659061</v>
       </c>
       <c r="H180" t="n">
-        <v>11.7421465966796</v>
+        <v>10.9179341435459</v>
       </c>
       <c r="I180" t="n">
-        <v>11.8854421790394</v>
+        <v>11.8879370340596</v>
       </c>
       <c r="J180" t="n">
-        <v>10.7273257689536</v>
+        <v>11.6558325957499</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>9.38488851471587</v>
+        <v>9.00880470074295</v>
       </c>
       <c r="B181" t="n">
-        <v>11.6243056553335</v>
+        <v>11.348277815134</v>
       </c>
       <c r="C181" t="n">
-        <v>12.3684293568089</v>
+        <v>10.7339334563091</v>
       </c>
       <c r="D181" t="n">
-        <v>13.1018379305249</v>
+        <v>12.1458992626639</v>
       </c>
       <c r="E181" t="n">
-        <v>11.1852954772854</v>
+        <v>12.5056571065021</v>
       </c>
       <c r="F181" t="n">
-        <v>13.3920068324417</v>
+        <v>14.1562915190362</v>
       </c>
       <c r="G181" t="n">
-        <v>12.5617916746587</v>
+        <v>12.2335826720962</v>
       </c>
       <c r="H181" t="n">
-        <v>12.4855786083687</v>
+        <v>12.3293482637325</v>
       </c>
       <c r="I181" t="n">
-        <v>11.6205572903524</v>
+        <v>11.5136064828699</v>
       </c>
       <c r="J181" t="n">
-        <v>11.5571195578806</v>
+        <v>12.6278746708094</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-5.32780280229116</v>
+        <v>-4.80515041906888</v>
       </c>
       <c r="B182" t="n">
-        <v>-5.03059027264341</v>
+        <v>-5.31627675042128</v>
       </c>
       <c r="C182" t="n">
-        <v>-5.40465135697532</v>
+        <v>-5.19012037951563</v>
       </c>
       <c r="D182" t="n">
-        <v>-4.59111824851727</v>
+        <v>-5.11633291787317</v>
       </c>
       <c r="E182" t="n">
-        <v>-3.74428075266329</v>
+        <v>-4.12178002336466</v>
       </c>
       <c r="F182" t="n">
-        <v>-2.40755666901301</v>
+        <v>-2.5207723929924</v>
       </c>
       <c r="G182" t="n">
-        <v>-0.558852706329253</v>
+        <v>-1.11089474279102</v>
       </c>
       <c r="H182" t="n">
-        <v>1.21816965683937</v>
+        <v>1.31572315791281</v>
       </c>
       <c r="I182" t="n">
-        <v>4.00453280919068</v>
+        <v>4.15305391926024</v>
       </c>
       <c r="J182" t="n">
-        <v>6.59452975402159</v>
+        <v>6.92205317504963</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>8.86386110116073</v>
+        <v>10.6310327409994</v>
       </c>
       <c r="B183" t="n">
-        <v>11.0047126958837</v>
+        <v>12.2434916796261</v>
       </c>
       <c r="C183" t="n">
-        <v>11.7025827603744</v>
+        <v>11.8441339131031</v>
       </c>
       <c r="D183" t="n">
-        <v>11.4564789271028</v>
+        <v>11.2886021853953</v>
       </c>
       <c r="E183" t="n">
-        <v>12.3036495524048</v>
+        <v>11.1193550776158</v>
       </c>
       <c r="F183" t="n">
-        <v>13.5006106034973</v>
+        <v>12.48986644325</v>
       </c>
       <c r="G183" t="n">
-        <v>11.0629624935766</v>
+        <v>13.4724802443314</v>
       </c>
       <c r="H183" t="n">
-        <v>13.228100496715</v>
+        <v>14.6428330589976</v>
       </c>
       <c r="I183" t="n">
-        <v>11.6138703632379</v>
+        <v>10.3890425795148</v>
       </c>
       <c r="J183" t="n">
-        <v>9.86108696023123</v>
+        <v>12.2562454843407</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8.72829541284225</v>
+        <v>10.1564913302722</v>
       </c>
       <c r="B184" t="n">
-        <v>11.2865514949137</v>
+        <v>11.5526953755487</v>
       </c>
       <c r="C184" t="n">
-        <v>12.5015693618103</v>
+        <v>12.1900559564264</v>
       </c>
       <c r="D184" t="n">
-        <v>11.5866632876909</v>
+        <v>12.2825292295566</v>
       </c>
       <c r="E184" t="n">
-        <v>11.9900042028174</v>
+        <v>13.0235051725805</v>
       </c>
       <c r="F184" t="n">
-        <v>13.7257267699078</v>
+        <v>13.5586172573292</v>
       </c>
       <c r="G184" t="n">
-        <v>11.3758702137354</v>
+        <v>11.48020103029</v>
       </c>
       <c r="H184" t="n">
-        <v>12.6650707235039</v>
+        <v>12.2865385363905</v>
       </c>
       <c r="I184" t="n">
-        <v>12.1695343091259</v>
+        <v>10.4690334352395</v>
       </c>
       <c r="J184" t="n">
-        <v>10.16835689569</v>
+        <v>10.0365969435552</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.6589986084578</v>
+        <v>9.10982097115824</v>
       </c>
       <c r="B185" t="n">
-        <v>11.1020814924163</v>
+        <v>10.5499192869421</v>
       </c>
       <c r="C185" t="n">
-        <v>11.4354998238583</v>
+        <v>12.2098523701988</v>
       </c>
       <c r="D185" t="n">
-        <v>12.0444696511754</v>
+        <v>12.9681680334936</v>
       </c>
       <c r="E185" t="n">
-        <v>12.9437886974542</v>
+        <v>11.3471070565983</v>
       </c>
       <c r="F185" t="n">
-        <v>12.8460995379798</v>
+        <v>12.2853571764276</v>
       </c>
       <c r="G185" t="n">
-        <v>11.362253213192</v>
+        <v>13.4911051822811</v>
       </c>
       <c r="H185" t="n">
-        <v>12.9782571830718</v>
+        <v>12.842909308477</v>
       </c>
       <c r="I185" t="n">
-        <v>12.1339682814453</v>
+        <v>10.8282450515091</v>
       </c>
       <c r="J185" t="n">
-        <v>10.2733455906785</v>
+        <v>10.7922401110763</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-4.74884234834921</v>
+        <v>11.0509647707862</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.48141624878141</v>
+        <v>10.7476098501847</v>
       </c>
       <c r="C186" t="n">
-        <v>-4.89008514108511</v>
+        <v>10.5125909781963</v>
       </c>
       <c r="D186" t="n">
-        <v>-5.06249405071518</v>
+        <v>13.875158903919</v>
       </c>
       <c r="E186" t="n">
-        <v>-3.87552468098672</v>
+        <v>13.2541854648944</v>
       </c>
       <c r="F186" t="n">
-        <v>-2.33263459290014</v>
+        <v>12.3109344046487</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.547117135589442</v>
+        <v>12.0057220561177</v>
       </c>
       <c r="H186" t="n">
-        <v>1.4537079686778</v>
+        <v>12.6369502703608</v>
       </c>
       <c r="I186" t="n">
-        <v>4.12723743961358</v>
+        <v>10.61596404102</v>
       </c>
       <c r="J186" t="n">
-        <v>6.62611757327415</v>
+        <v>11.2906771773252</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8.77124986344334</v>
+        <v>10.6033243541126</v>
       </c>
       <c r="B187" t="n">
-        <v>10.4634181129021</v>
+        <v>11.4203452956184</v>
       </c>
       <c r="C187" t="n">
-        <v>11.1151870529248</v>
+        <v>11.3650896059408</v>
       </c>
       <c r="D187" t="n">
-        <v>13.8735848167371</v>
+        <v>12.1525940679136</v>
       </c>
       <c r="E187" t="n">
-        <v>11.9990328777871</v>
+        <v>12.2824285945268</v>
       </c>
       <c r="F187" t="n">
-        <v>12.9478581937029</v>
+        <v>12.5994065563394</v>
       </c>
       <c r="G187" t="n">
-        <v>11.7964373261287</v>
+        <v>13.0309118821952</v>
       </c>
       <c r="H187" t="n">
-        <v>13.9640468170854</v>
+        <v>11.9363897457544</v>
       </c>
       <c r="I187" t="n">
-        <v>11.3443633089069</v>
+        <v>11.9068458226542</v>
       </c>
       <c r="J187" t="n">
-        <v>10.4203362573848</v>
+        <v>10.421949959444</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>10.1359571210666</v>
+        <v>-4.39888595368332</v>
       </c>
       <c r="B188" t="n">
-        <v>11.062744945294</v>
+        <v>-5.43990398509757</v>
       </c>
       <c r="C188" t="n">
-        <v>11.7763094865459</v>
+        <v>-5.51718997907651</v>
       </c>
       <c r="D188" t="n">
-        <v>11.6803990404766</v>
+        <v>-4.89702379307401</v>
       </c>
       <c r="E188" t="n">
-        <v>12.7146626594144</v>
+        <v>-3.88616060400521</v>
       </c>
       <c r="F188" t="n">
-        <v>14.0004176260069</v>
+        <v>-2.36986199853621</v>
       </c>
       <c r="G188" t="n">
-        <v>11.2121932214464</v>
+        <v>-0.907317168336435</v>
       </c>
       <c r="H188" t="n">
-        <v>12.4267501246525</v>
+        <v>1.21921194635241</v>
       </c>
       <c r="I188" t="n">
-        <v>12.7141757423731</v>
+        <v>3.37937603205514</v>
       </c>
       <c r="J188" t="n">
-        <v>9.52019760658838</v>
+        <v>7.05442595361297</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>10.1417453542805</v>
+        <v>10.2113727800195</v>
       </c>
       <c r="B189" t="n">
-        <v>10.9261619679441</v>
+        <v>10.9935614151188</v>
       </c>
       <c r="C189" t="n">
-        <v>10.2477489002308</v>
+        <v>10.890971318532</v>
       </c>
       <c r="D189" t="n">
-        <v>11.4377595732032</v>
+        <v>11.5636251431662</v>
       </c>
       <c r="E189" t="n">
-        <v>12.2454234714449</v>
+        <v>13.0478579469055</v>
       </c>
       <c r="F189" t="n">
-        <v>12.5892150015102</v>
+        <v>12.134222550897</v>
       </c>
       <c r="G189" t="n">
-        <v>12.1116182510311</v>
+        <v>12.3582794502236</v>
       </c>
       <c r="H189" t="n">
-        <v>12.4936560056523</v>
+        <v>13.4298239485582</v>
       </c>
       <c r="I189" t="n">
-        <v>11.7636528480455</v>
+        <v>11.4167344131207</v>
       </c>
       <c r="J189" t="n">
-        <v>11.3504404320553</v>
+        <v>11.3080452248923</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-4.81668786766978</v>
+        <v>10.3746578149261</v>
       </c>
       <c r="B190" t="n">
-        <v>-5.28695142623505</v>
+        <v>11.4011901255104</v>
       </c>
       <c r="C190" t="n">
-        <v>-5.26955800093904</v>
+        <v>12.3213992546638</v>
       </c>
       <c r="D190" t="n">
-        <v>-4.65944158086911</v>
+        <v>11.1976223291714</v>
       </c>
       <c r="E190" t="n">
-        <v>-3.93207405822875</v>
+        <v>12.8464961396766</v>
       </c>
       <c r="F190" t="n">
-        <v>-2.77876213798312</v>
+        <v>10.6157288592556</v>
       </c>
       <c r="G190" t="n">
-        <v>-1.07659860656512</v>
+        <v>12.7181238662519</v>
       </c>
       <c r="H190" t="n">
-        <v>1.74619425654181</v>
+        <v>12.3008392669637</v>
       </c>
       <c r="I190" t="n">
-        <v>3.89189742809924</v>
+        <v>11.1236382488739</v>
       </c>
       <c r="J190" t="n">
-        <v>6.62008656784241</v>
+        <v>10.4205829113778</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>9.14672761062523</v>
+        <v>10.1726352862717</v>
       </c>
       <c r="B191" t="n">
-        <v>11.8169369524861</v>
+        <v>10.408611400328</v>
       </c>
       <c r="C191" t="n">
-        <v>10.9512969848223</v>
+        <v>11.6206616502041</v>
       </c>
       <c r="D191" t="n">
-        <v>12.7974589676441</v>
+        <v>12.5120433905122</v>
       </c>
       <c r="E191" t="n">
-        <v>12.496880566135</v>
+        <v>11.3673036952133</v>
       </c>
       <c r="F191" t="n">
-        <v>12.3587271252475</v>
+        <v>12.2722478437839</v>
       </c>
       <c r="G191" t="n">
-        <v>12.9059763233392</v>
+        <v>14.1622366065706</v>
       </c>
       <c r="H191" t="n">
-        <v>11.7493933502647</v>
+        <v>11.8294734940251</v>
       </c>
       <c r="I191" t="n">
-        <v>11.7519421868475</v>
+        <v>11.4612420424685</v>
       </c>
       <c r="J191" t="n">
-        <v>10.4301000795839</v>
+        <v>12.1466368531733</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.3698940360377</v>
+        <v>9.65239323458007</v>
       </c>
       <c r="B192" t="n">
-        <v>10.6526525726616</v>
+        <v>11.4201373809876</v>
       </c>
       <c r="C192" t="n">
-        <v>10.5279958036211</v>
+        <v>10.5820465857303</v>
       </c>
       <c r="D192" t="n">
-        <v>12.3858566813339</v>
+        <v>12.8701536511363</v>
       </c>
       <c r="E192" t="n">
-        <v>13.5367726905253</v>
+        <v>13.3152816003175</v>
       </c>
       <c r="F192" t="n">
-        <v>11.9493581277107</v>
+        <v>12.0845376791352</v>
       </c>
       <c r="G192" t="n">
-        <v>11.4351119429025</v>
+        <v>12.5897308516992</v>
       </c>
       <c r="H192" t="n">
-        <v>11.3622594329451</v>
+        <v>13.0408457488221</v>
       </c>
       <c r="I192" t="n">
-        <v>11.1428730148572</v>
+        <v>11.3268818074044</v>
       </c>
       <c r="J192" t="n">
-        <v>10.2015715926461</v>
+        <v>9.69863002371271</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10.8757065901854</v>
+        <v>9.35629725165613</v>
       </c>
       <c r="B193" t="n">
-        <v>10.8961962953583</v>
+        <v>11.1697010524529</v>
       </c>
       <c r="C193" t="n">
-        <v>10.8599321542446</v>
+        <v>11.9684170095762</v>
       </c>
       <c r="D193" t="n">
-        <v>11.980655889892</v>
+        <v>13.0268681851627</v>
       </c>
       <c r="E193" t="n">
-        <v>13.8054625469563</v>
+        <v>11.8709704445482</v>
       </c>
       <c r="F193" t="n">
-        <v>11.931877654004</v>
+        <v>11.0544866030251</v>
       </c>
       <c r="G193" t="n">
-        <v>10.7852221470376</v>
+        <v>12.8247886920275</v>
       </c>
       <c r="H193" t="n">
-        <v>11.6069806968603</v>
+        <v>11.9935934768924</v>
       </c>
       <c r="I193" t="n">
-        <v>11.6877153888121</v>
+        <v>11.6113889094862</v>
       </c>
       <c r="J193" t="n">
-        <v>10.8345429924699</v>
+        <v>10.6673088531875</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>10.0185776831852</v>
+        <v>-4.95546993101754</v>
       </c>
       <c r="B194" t="n">
-        <v>11.1687454976603</v>
+        <v>-5.32629245601684</v>
       </c>
       <c r="C194" t="n">
-        <v>11.4441361172386</v>
+        <v>-5.30174910586803</v>
       </c>
       <c r="D194" t="n">
-        <v>11.4123207669137</v>
+        <v>-5.01660054486302</v>
       </c>
       <c r="E194" t="n">
-        <v>12.4938043713067</v>
+        <v>-4.15761579221012</v>
       </c>
       <c r="F194" t="n">
-        <v>11.2998321047898</v>
+        <v>-2.4529385185893</v>
       </c>
       <c r="G194" t="n">
-        <v>11.7229447977558</v>
+        <v>-1.12676538461867</v>
       </c>
       <c r="H194" t="n">
-        <v>12.5401520114223</v>
+        <v>1.07944385663307</v>
       </c>
       <c r="I194" t="n">
-        <v>11.5640029678736</v>
+        <v>3.78943949232157</v>
       </c>
       <c r="J194" t="n">
-        <v>10.0975691687771</v>
+        <v>6.72029035237714</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8.60418956937997</v>
+        <v>10.4325846955661</v>
       </c>
       <c r="B195" t="n">
-        <v>10.8476947658314</v>
+        <v>10.6219168998794</v>
       </c>
       <c r="C195" t="n">
-        <v>11.3110045640163</v>
+        <v>11.2334202014514</v>
       </c>
       <c r="D195" t="n">
-        <v>11.3385760636286</v>
+        <v>11.0429172478093</v>
       </c>
       <c r="E195" t="n">
-        <v>12.3562468315218</v>
+        <v>11.8410324415508</v>
       </c>
       <c r="F195" t="n">
-        <v>12.4217368837167</v>
+        <v>11.9864243671217</v>
       </c>
       <c r="G195" t="n">
-        <v>12.4091938300169</v>
+        <v>11.0212202846515</v>
       </c>
       <c r="H195" t="n">
-        <v>13.0414250699843</v>
+        <v>11.4508109846616</v>
       </c>
       <c r="I195" t="n">
-        <v>10.7671647807168</v>
+        <v>12.2861657990624</v>
       </c>
       <c r="J195" t="n">
-        <v>12.5084140383597</v>
+        <v>9.21416718989942</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9.66435388448053</v>
+        <v>10.2677429459662</v>
       </c>
       <c r="B196" t="n">
-        <v>10.9558976795482</v>
+        <v>10.5267375720116</v>
       </c>
       <c r="C196" t="n">
-        <v>10.5486763281814</v>
+        <v>11.4358085769604</v>
       </c>
       <c r="D196" t="n">
-        <v>12.5827504125983</v>
+        <v>12.2360211750959</v>
       </c>
       <c r="E196" t="n">
-        <v>13.1480172362999</v>
+        <v>13.3491552041921</v>
       </c>
       <c r="F196" t="n">
-        <v>12.7795760548569</v>
+        <v>12.3018446601586</v>
       </c>
       <c r="G196" t="n">
-        <v>13.9089908941019</v>
+        <v>13.3826912426578</v>
       </c>
       <c r="H196" t="n">
-        <v>12.6162054103362</v>
+        <v>11.3391280382907</v>
       </c>
       <c r="I196" t="n">
-        <v>11.6505008267838</v>
+        <v>11.8301791845962</v>
       </c>
       <c r="J196" t="n">
-        <v>10.5358704292219</v>
+        <v>10.8393511102729</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9.0905165697176</v>
+        <v>-4.93328810285991</v>
       </c>
       <c r="B197" t="n">
-        <v>10.633203596478</v>
+        <v>-4.92068628847575</v>
       </c>
       <c r="C197" t="n">
-        <v>11.2942909973539</v>
+        <v>-4.98852102497334</v>
       </c>
       <c r="D197" t="n">
-        <v>11.8386288933864</v>
+        <v>-4.36183891115175</v>
       </c>
       <c r="E197" t="n">
-        <v>12.3225165907592</v>
+        <v>-3.84468731803465</v>
       </c>
       <c r="F197" t="n">
-        <v>11.3995850104414</v>
+        <v>-2.90038931245435</v>
       </c>
       <c r="G197" t="n">
-        <v>12.8406398679944</v>
+        <v>-0.744066511162305</v>
       </c>
       <c r="H197" t="n">
-        <v>11.7907468263512</v>
+        <v>1.29771023513495</v>
       </c>
       <c r="I197" t="n">
-        <v>11.7331395531519</v>
+        <v>3.98751870291496</v>
       </c>
       <c r="J197" t="n">
-        <v>10.4403690977738</v>
+        <v>6.80536169453345</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.04867701617411</v>
+        <v>9.84068519777443</v>
       </c>
       <c r="B198" t="n">
-        <v>11.9194827646555</v>
+        <v>11.772854634134</v>
       </c>
       <c r="C198" t="n">
-        <v>11.0183157902964</v>
+        <v>12.4129326176082</v>
       </c>
       <c r="D198" t="n">
-        <v>12.2500265362177</v>
+        <v>12.0827489187955</v>
       </c>
       <c r="E198" t="n">
-        <v>12.04686333383</v>
+        <v>13.3339761670411</v>
       </c>
       <c r="F198" t="n">
-        <v>12.732381459067</v>
+        <v>12.7068796062937</v>
       </c>
       <c r="G198" t="n">
-        <v>12.222998910207</v>
+        <v>11.9367821633259</v>
       </c>
       <c r="H198" t="n">
-        <v>11.6387840615782</v>
+        <v>12.6184708020346</v>
       </c>
       <c r="I198" t="n">
-        <v>10.1209048353642</v>
+        <v>12.2375656462563</v>
       </c>
       <c r="J198" t="n">
-        <v>11.1947415470365</v>
+        <v>11.1328296517695</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>10.130375673849</v>
+        <v>-4.84913709673035</v>
       </c>
       <c r="B199" t="n">
-        <v>11.1353609312583</v>
+        <v>-5.14468539322258</v>
       </c>
       <c r="C199" t="n">
-        <v>11.6493992098091</v>
+        <v>-5.33110483970655</v>
       </c>
       <c r="D199" t="n">
-        <v>13.3194341154886</v>
+        <v>-5.10050557726444</v>
       </c>
       <c r="E199" t="n">
-        <v>12.8768961344131</v>
+        <v>-4.0030527053908</v>
       </c>
       <c r="F199" t="n">
-        <v>12.0814674452487</v>
+        <v>-2.62779454186513</v>
       </c>
       <c r="G199" t="n">
-        <v>12.4601820947639</v>
+        <v>-0.787708073127572</v>
       </c>
       <c r="H199" t="n">
-        <v>12.6836088049381</v>
+        <v>1.00276449862198</v>
       </c>
       <c r="I199" t="n">
-        <v>13.1189822819178</v>
+        <v>3.87726819232701</v>
       </c>
       <c r="J199" t="n">
-        <v>10.2507659087077</v>
+        <v>6.74968320566834</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-4.94777343775048</v>
+        <v>9.55066349857356</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.06427946553313</v>
+        <v>10.6139034604052</v>
       </c>
       <c r="C200" t="n">
-        <v>-4.98946261549623</v>
+        <v>12.5580377573482</v>
       </c>
       <c r="D200" t="n">
-        <v>-4.76440123336908</v>
+        <v>12.1395717941392</v>
       </c>
       <c r="E200" t="n">
-        <v>-3.96298842614911</v>
+        <v>11.5748966959181</v>
       </c>
       <c r="F200" t="n">
-        <v>-2.5491404860624</v>
+        <v>12.2884260193968</v>
       </c>
       <c r="G200" t="n">
-        <v>-1.16119855573793</v>
+        <v>11.2550716574788</v>
       </c>
       <c r="H200" t="n">
-        <v>1.1785706315698</v>
+        <v>12.1612275114265</v>
       </c>
       <c r="I200" t="n">
-        <v>3.85841887199657</v>
+        <v>11.8226832555357</v>
       </c>
       <c r="J200" t="n">
-        <v>6.95409495135599</v>
+        <v>10.383709840199</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9.32406314041538</v>
+        <v>9.94755869892943</v>
       </c>
       <c r="B201" t="n">
-        <v>9.98048735417881</v>
+        <v>10.7663214659803</v>
       </c>
       <c r="C201" t="n">
-        <v>13.0626383878747</v>
+        <v>11.3187012969842</v>
       </c>
       <c r="D201" t="n">
-        <v>11.8086111367402</v>
+        <v>12.1283289820805</v>
       </c>
       <c r="E201" t="n">
-        <v>11.7327529019671</v>
+        <v>12.9298140615351</v>
       </c>
       <c r="F201" t="n">
-        <v>14.0300773938658</v>
+        <v>12.409992082824</v>
       </c>
       <c r="G201" t="n">
-        <v>12.1322121632988</v>
+        <v>10.0561676948288</v>
       </c>
       <c r="H201" t="n">
-        <v>11.632440979518</v>
+        <v>11.9081822948603</v>
       </c>
       <c r="I201" t="n">
-        <v>12.3197743891297</v>
+        <v>10.7561652501809</v>
       </c>
       <c r="J201" t="n">
-        <v>9.68245161059317</v>
+        <v>9.59142710085151</v>
       </c>
     </row>
   </sheetData>
